--- a/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9580578875882076</v>
+        <v>0.9580578875882072</v>
       </c>
       <c r="D2">
-        <v>1.020050559033208</v>
+        <v>1.020050559033207</v>
       </c>
       <c r="E2">
-        <v>0.9717019948648561</v>
+        <v>0.9717019948648558</v>
       </c>
       <c r="F2">
-        <v>0.9792531056175691</v>
+        <v>0.9792531056175685</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04234579333497</v>
+        <v>1.042345793334969</v>
       </c>
       <c r="J2">
-        <v>0.9815697775406107</v>
+        <v>0.9815697775406104</v>
       </c>
       <c r="K2">
         <v>1.031237450025879</v>
       </c>
       <c r="L2">
-        <v>0.983570169256647</v>
+        <v>0.9835701692566466</v>
       </c>
       <c r="M2">
-        <v>0.9910092499319941</v>
+        <v>0.9910092499319936</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9677318048075612</v>
+        <v>0.9677318048075615</v>
       </c>
       <c r="D3">
         <v>1.024121185510933</v>
       </c>
       <c r="E3">
-        <v>0.979842372399343</v>
+        <v>0.9798423723993431</v>
       </c>
       <c r="F3">
-        <v>0.9878855193324023</v>
+        <v>0.987885519332402</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.044426922001957</v>
       </c>
       <c r="J3">
-        <v>0.9891425309372236</v>
+        <v>0.9891425309372239</v>
       </c>
       <c r="K3">
         <v>1.034454460488808</v>
       </c>
       <c r="L3">
-        <v>0.990739840856231</v>
+        <v>0.9907398408562313</v>
       </c>
       <c r="M3">
-        <v>0.9986757904345893</v>
+        <v>0.9986757904345892</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9737490632703085</v>
+        <v>0.9737490632703096</v>
       </c>
       <c r="D4">
         <v>1.02666222459761</v>
       </c>
       <c r="E4">
-        <v>0.9849143363196642</v>
+        <v>0.9849143363196655</v>
       </c>
       <c r="F4">
-        <v>0.9932655542523232</v>
+        <v>0.9932655542523245</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045705507162038</v>
+        <v>1.045705507162039</v>
       </c>
       <c r="J4">
-        <v>0.9938489720170198</v>
+        <v>0.9938489720170212</v>
       </c>
       <c r="K4">
         <v>1.036449166866771</v>
       </c>
       <c r="L4">
-        <v>0.9951983077625931</v>
+        <v>0.9951983077625945</v>
       </c>
       <c r="M4">
-        <v>1.003445943447877</v>
+        <v>1.003445943447878</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,10 +541,10 @@
         <v>1.027709469700729</v>
       </c>
       <c r="E5">
-        <v>0.9870031165731127</v>
+        <v>0.9870031165731126</v>
       </c>
       <c r="F5">
-        <v>0.9954814760682751</v>
+        <v>0.9954814760682748</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.046227561018467</v>
       </c>
       <c r="J5">
-        <v>0.995784421311339</v>
+        <v>0.9957844213113389</v>
       </c>
       <c r="K5">
         <v>1.037268070350845</v>
       </c>
       <c r="L5">
-        <v>0.99703236546406</v>
+        <v>0.9970323654640598</v>
       </c>
       <c r="M5">
-        <v>1.005408765486064</v>
+        <v>1.005408765486063</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,10 +579,10 @@
         <v>1.027884108443821</v>
       </c>
       <c r="E6">
-        <v>0.9873513719205718</v>
+        <v>0.9873513719205719</v>
       </c>
       <c r="F6">
-        <v>0.9958509426472908</v>
+        <v>0.9958509426472911</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.046314331725465</v>
       </c>
       <c r="J6">
-        <v>0.9961069489208555</v>
+        <v>0.9961069489208556</v>
       </c>
       <c r="K6">
         <v>1.037404445074</v>
       </c>
       <c r="L6">
-        <v>0.9973380306224784</v>
+        <v>0.9973380306224785</v>
       </c>
       <c r="M6">
         <v>1.005735920011223</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9737823519298554</v>
+        <v>0.9737823519298547</v>
       </c>
       <c r="D7">
         <v>1.026676298942848</v>
       </c>
       <c r="E7">
-        <v>0.9849424134301075</v>
+        <v>0.9849424134301069</v>
       </c>
       <c r="F7">
-        <v>0.9932953394305433</v>
+        <v>0.9932953394305426</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.045712542605857</v>
       </c>
       <c r="J7">
-        <v>0.9938749991071343</v>
+        <v>0.9938749991071337</v>
       </c>
       <c r="K7">
-        <v>1.036460184978074</v>
+        <v>1.036460184978073</v>
       </c>
       <c r="L7">
-        <v>0.9952229690979634</v>
+        <v>0.9952229690979628</v>
       </c>
       <c r="M7">
-        <v>1.003472334147111</v>
+        <v>1.00347233414711</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,16 +655,16 @@
         <v>1.021446278044376</v>
       </c>
       <c r="E8">
-        <v>0.9744956483760592</v>
+        <v>0.9744956483760595</v>
       </c>
       <c r="F8">
-        <v>0.9822152402642038</v>
+        <v>0.9822152402642036</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043063737457277</v>
+        <v>1.043063737457276</v>
       </c>
       <c r="J8">
         <v>0.9841711780303061</v>
@@ -673,10 +673,10 @@
         <v>1.032343375385828</v>
       </c>
       <c r="L8">
-        <v>0.986032545946774</v>
+        <v>0.9860325459467741</v>
       </c>
       <c r="M8">
-        <v>0.9936416311166103</v>
+        <v>0.9936416311166102</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9374481115463813</v>
+        <v>0.937448111546381</v>
       </c>
       <c r="D9">
         <v>1.011454593238876</v>
       </c>
       <c r="E9">
-        <v>0.9544183690652812</v>
+        <v>0.954418369065281</v>
       </c>
       <c r="F9">
-        <v>0.9609382187819728</v>
+        <v>0.9609382187819729</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.037832199540458</v>
       </c>
       <c r="J9">
-        <v>0.9654210338301733</v>
+        <v>0.965421033830173</v>
       </c>
       <c r="K9">
-        <v>1.024364521669564</v>
+        <v>1.024364521669563</v>
       </c>
       <c r="L9">
-        <v>0.9682969630082519</v>
+        <v>0.9682969630082516</v>
       </c>
       <c r="M9">
-        <v>0.9746985199403114</v>
+        <v>0.9746985199403115</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9197253297963045</v>
+        <v>0.9197253297963056</v>
       </c>
       <c r="D10">
-        <v>1.00416607355748</v>
+        <v>1.004166073557481</v>
       </c>
       <c r="E10">
-        <v>0.9396237581311874</v>
+        <v>0.9396237581311886</v>
       </c>
       <c r="F10">
-        <v>0.9452800720243546</v>
+        <v>0.9452800720243559</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.03389405582307</v>
       </c>
       <c r="J10">
-        <v>0.9515303415731878</v>
+        <v>0.9515303415731889</v>
       </c>
       <c r="K10">
-        <v>1.018460513471796</v>
+        <v>1.018460513471797</v>
       </c>
       <c r="L10">
-        <v>0.9551759644488164</v>
+        <v>0.9551759644488176</v>
       </c>
       <c r="M10">
-        <v>0.9607129697003637</v>
+        <v>0.9607129697003649</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9115249569102046</v>
+        <v>0.9115249569102041</v>
       </c>
       <c r="D11">
         <v>1.000831379947268</v>
       </c>
       <c r="E11">
-        <v>0.9328007571565069</v>
+        <v>0.9328007571565061</v>
       </c>
       <c r="F11">
-        <v>0.9380661372619323</v>
+        <v>0.9380661372619317</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.03206172407281</v>
       </c>
       <c r="J11">
-        <v>0.9451051968801463</v>
+        <v>0.9451051968801457</v>
       </c>
       <c r="K11">
-        <v>1.015737634672946</v>
+        <v>1.015737634672947</v>
       </c>
       <c r="L11">
-        <v>0.9491118874672365</v>
+        <v>0.9491118874672357</v>
       </c>
       <c r="M11">
-        <v>0.9542588396814451</v>
+        <v>0.9542588396814446</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,13 +801,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9083884050747155</v>
+        <v>0.908388405074715</v>
       </c>
       <c r="D12">
         <v>0.9995627137532367</v>
       </c>
       <c r="E12">
-        <v>0.930194939087264</v>
+        <v>0.9301949390872636</v>
       </c>
       <c r="F12">
         <v>0.9353123689472328</v>
@@ -819,13 +819,13 @@
         <v>1.031359869019476</v>
       </c>
       <c r="J12">
-        <v>0.9426483231950114</v>
+        <v>0.9426483231950107</v>
       </c>
       <c r="K12">
         <v>1.01469829627525</v>
       </c>
       <c r="L12">
-        <v>0.9467939173014615</v>
+        <v>0.9467939173014609</v>
       </c>
       <c r="M12">
         <v>0.9517934793327086</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9090655163337191</v>
+        <v>0.9090655163337203</v>
       </c>
       <c r="D13">
-        <v>0.9998362628206811</v>
+        <v>0.9998362628206817</v>
       </c>
       <c r="E13">
-        <v>0.9307572914463058</v>
+        <v>0.9307572914463071</v>
       </c>
       <c r="F13">
-        <v>0.9359065842886664</v>
+        <v>0.9359065842886675</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031511420088245</v>
+        <v>1.031511420088246</v>
       </c>
       <c r="J13">
-        <v>0.9431786704113225</v>
+        <v>0.943178670411324</v>
       </c>
       <c r="K13">
-        <v>1.014922555990633</v>
+        <v>1.014922555990634</v>
       </c>
       <c r="L13">
-        <v>0.9472942412946819</v>
+        <v>0.9472942412946834</v>
       </c>
       <c r="M13">
-        <v>0.9523255350095865</v>
+        <v>0.9523255350095877</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9112676114816726</v>
+        <v>0.9112676114816731</v>
       </c>
       <c r="D14">
-        <v>1.000727144402707</v>
+        <v>1.000727144402708</v>
       </c>
       <c r="E14">
-        <v>0.9325868747273427</v>
+        <v>0.932586874727343</v>
       </c>
       <c r="F14">
-        <v>0.9378400822456384</v>
+        <v>0.9378400822456393</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032004155930989</v>
+        <v>1.03200415593099</v>
       </c>
       <c r="J14">
-        <v>0.944903601289512</v>
+        <v>0.9449036012895126</v>
       </c>
       <c r="K14">
-        <v>1.015652311738961</v>
+        <v>1.015652311738962</v>
       </c>
       <c r="L14">
-        <v>0.9489216720045553</v>
+        <v>0.9489216720045559</v>
       </c>
       <c r="M14">
-        <v>0.9540564929530017</v>
+        <v>0.9540564929530027</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9126120079145934</v>
+        <v>0.9126120079145933</v>
       </c>
       <c r="D15">
         <v>1.00127196368136</v>
       </c>
       <c r="E15">
-        <v>0.9337043777406439</v>
+        <v>0.9337043777406437</v>
       </c>
       <c r="F15">
-        <v>0.9390212416196293</v>
+        <v>0.9390212416196291</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032304859713072</v>
       </c>
       <c r="J15">
-        <v>0.9459567849015355</v>
+        <v>0.9459567849015351</v>
       </c>
       <c r="K15">
         <v>1.016098137981168</v>
       </c>
       <c r="L15">
-        <v>0.9499154374801816</v>
+        <v>0.9499154374801815</v>
       </c>
       <c r="M15">
-        <v>0.9551137080762039</v>
+        <v>0.9551137080762035</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9202575457027891</v>
+        <v>0.9202575457027901</v>
       </c>
       <c r="D16">
         <v>1.004383364747686</v>
       </c>
       <c r="E16">
-        <v>0.9400670832202446</v>
+        <v>0.9400670832202453</v>
       </c>
       <c r="F16">
-        <v>0.9457489683581745</v>
+        <v>0.9457489683581751</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.03401280995511</v>
       </c>
       <c r="J16">
-        <v>0.9519474140308817</v>
+        <v>0.9519474140308829</v>
       </c>
       <c r="K16">
-        <v>1.018637478151738</v>
+        <v>1.018637478151739</v>
       </c>
       <c r="L16">
-        <v>0.9555697087471328</v>
+        <v>0.9555697087471337</v>
       </c>
       <c r="M16">
-        <v>0.9611322574203764</v>
+        <v>0.9611322574203772</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9249050921796766</v>
+        <v>0.9249050921796774</v>
       </c>
       <c r="D17">
-        <v>1.006285169996577</v>
+        <v>1.006285169996578</v>
       </c>
       <c r="E17">
-        <v>0.9439409548459602</v>
+        <v>0.943940954845961</v>
       </c>
       <c r="F17">
-        <v>0.9498471287769066</v>
+        <v>0.9498471287769076</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.035048746222279</v>
       </c>
       <c r="J17">
-        <v>0.9555897469875002</v>
+        <v>0.9555897469875009</v>
       </c>
       <c r="K17">
-        <v>1.020183887619622</v>
+        <v>1.020183887619623</v>
       </c>
       <c r="L17">
-        <v>0.9590088848803286</v>
+        <v>0.9590088848803293</v>
       </c>
       <c r="M17">
-        <v>0.964795632213578</v>
+        <v>0.964795632213579</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9275660379497725</v>
+        <v>0.927566037949773</v>
       </c>
       <c r="D18">
         <v>1.007377460076577</v>
       </c>
       <c r="E18">
-        <v>0.9461609816043929</v>
+        <v>0.9461609816043935</v>
       </c>
       <c r="F18">
-        <v>0.9521963508974393</v>
+        <v>0.95219635089744</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035640893598764</v>
       </c>
       <c r="J18">
-        <v>0.9576753292948272</v>
+        <v>0.9576753292948277</v>
       </c>
       <c r="K18">
         <v>1.021070052560232</v>
       </c>
       <c r="L18">
-        <v>0.96097860254793</v>
+        <v>0.9609786025479308</v>
       </c>
       <c r="M18">
-        <v>0.9668946174587674</v>
+        <v>0.966894617458768</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9284652009003866</v>
+        <v>0.9284652009003873</v>
       </c>
       <c r="D19">
-        <v>1.007747105467103</v>
+        <v>1.007747105467104</v>
       </c>
       <c r="E19">
-        <v>0.9469114867199789</v>
+        <v>0.94691148671998</v>
       </c>
       <c r="F19">
-        <v>0.9529906373256545</v>
+        <v>0.9529906373256554</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.035840807344034</v>
       </c>
       <c r="J19">
-        <v>0.9583800900918168</v>
+        <v>0.9583800900918176</v>
       </c>
       <c r="K19">
         <v>1.021369607056478</v>
       </c>
       <c r="L19">
-        <v>0.9616442866289728</v>
+        <v>0.9616442866289736</v>
       </c>
       <c r="M19">
-        <v>0.9676041276929404</v>
+        <v>0.9676041276929411</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.924411690217697</v>
+        <v>0.9244116902176972</v>
       </c>
       <c r="D20">
-        <v>1.006082903663747</v>
+        <v>1.006082903663748</v>
       </c>
       <c r="E20">
-        <v>0.9435294726413653</v>
+        <v>0.9435294726413652</v>
       </c>
       <c r="F20">
-        <v>0.9494117522136203</v>
+        <v>0.9494117522136206</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>1.034938865483441</v>
       </c>
       <c r="J20">
-        <v>0.9552030424883372</v>
+        <v>0.955203042488337</v>
       </c>
       <c r="K20">
         <v>1.020019629249249</v>
@@ -1132,7 +1132,7 @@
         <v>0.9586437008028906</v>
       </c>
       <c r="M20">
-        <v>0.9644065503107618</v>
+        <v>0.9644065503107621</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9106217542556665</v>
+        <v>0.9106217542556655</v>
       </c>
       <c r="D21">
-        <v>1.000465659050435</v>
+        <v>1.000465659050434</v>
       </c>
       <c r="E21">
-        <v>0.932050160713349</v>
+        <v>0.9320501607133481</v>
       </c>
       <c r="F21">
-        <v>0.9372728451596187</v>
+        <v>0.9372728451596173</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031859663471717</v>
       </c>
       <c r="J21">
-        <v>0.9443976709907618</v>
+        <v>0.9443976709907608</v>
       </c>
       <c r="K21">
         <v>1.015438214745744</v>
       </c>
       <c r="L21">
-        <v>0.9484443153313368</v>
+        <v>0.9484443153313358</v>
       </c>
       <c r="M21">
-        <v>0.9535487205613798</v>
+        <v>0.9535487205613787</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,13 +1181,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9014198088622072</v>
+        <v>0.9014198088622064</v>
       </c>
       <c r="D22">
-        <v>0.9967581630447093</v>
+        <v>0.9967581630447095</v>
       </c>
       <c r="E22">
-        <v>0.9244134115514796</v>
+        <v>0.9244134115514787</v>
       </c>
       <c r="F22">
         <v>0.9292054238233816</v>
@@ -1199,16 +1199,16 @@
         <v>1.029799313023605</v>
       </c>
       <c r="J22">
-        <v>0.9371915028755542</v>
+        <v>0.9371915028755538</v>
       </c>
       <c r="K22">
         <v>1.012394116080687</v>
       </c>
       <c r="L22">
-        <v>0.9416472619903805</v>
+        <v>0.9416472619903797</v>
       </c>
       <c r="M22">
-        <v>0.9463230882452678</v>
+        <v>0.9463230882452677</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9063528603181306</v>
       </c>
       <c r="D23">
-        <v>0.9987414643556833</v>
+        <v>0.9987414643556831</v>
       </c>
       <c r="E23">
-        <v>0.9285050035093496</v>
+        <v>0.9285050035093498</v>
       </c>
       <c r="F23">
-        <v>0.9335269024357536</v>
+        <v>0.9335269024357538</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>1.030904169981726</v>
       </c>
       <c r="J23">
-        <v>0.9410541134468684</v>
+        <v>0.9410541134468686</v>
       </c>
       <c r="K23">
         <v>1.014024503743009</v>
       </c>
       <c r="L23">
-        <v>0.9452900863125033</v>
+        <v>0.9452900863125034</v>
       </c>
       <c r="M23">
         <v>0.9501945464827656</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.924634790653924</v>
+        <v>0.9246347906539247</v>
       </c>
       <c r="D24">
         <v>1.006174351418015</v>
       </c>
       <c r="E24">
-        <v>0.9437155252695711</v>
+        <v>0.9437155252695718</v>
       </c>
       <c r="F24">
-        <v>0.9496086066929239</v>
+        <v>0.9496086066929247</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.034988553083621</v>
       </c>
       <c r="J24">
-        <v>0.9553778972728312</v>
+        <v>0.955377897272832</v>
       </c>
       <c r="K24">
-        <v>1.020093899238123</v>
+        <v>1.020093899238124</v>
       </c>
       <c r="L24">
-        <v>0.9588088233424933</v>
+        <v>0.958808823342494</v>
       </c>
       <c r="M24">
-        <v>0.9645824758848504</v>
+        <v>0.9645824758848511</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9439157080083075</v>
+        <v>0.9439157080083079</v>
       </c>
       <c r="D25">
         <v>1.014139492703037</v>
       </c>
       <c r="E25">
-        <v>0.9598332938608715</v>
+        <v>0.9598332938608722</v>
       </c>
       <c r="F25">
-        <v>0.966673944912561</v>
+        <v>0.9666739449125618</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.039258149885074</v>
       </c>
       <c r="J25">
-        <v>0.9704900589951327</v>
+        <v>0.9704900589951331</v>
       </c>
       <c r="K25">
         <v>1.026522206063119</v>
       </c>
       <c r="L25">
-        <v>0.9730888844368315</v>
+        <v>0.9730888844368319</v>
       </c>
       <c r="M25">
-        <v>0.9798126174008116</v>
+        <v>0.9798126174008122</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9580578875882072</v>
+        <v>0.9580578875882076</v>
       </c>
       <c r="D2">
-        <v>1.020050559033207</v>
+        <v>1.020050559033208</v>
       </c>
       <c r="E2">
-        <v>0.9717019948648558</v>
+        <v>0.9717019948648561</v>
       </c>
       <c r="F2">
-        <v>0.9792531056175685</v>
+        <v>0.9792531056175691</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042345793334969</v>
+        <v>1.04234579333497</v>
       </c>
       <c r="J2">
-        <v>0.9815697775406104</v>
+        <v>0.9815697775406107</v>
       </c>
       <c r="K2">
         <v>1.031237450025879</v>
       </c>
       <c r="L2">
-        <v>0.9835701692566466</v>
+        <v>0.983570169256647</v>
       </c>
       <c r="M2">
-        <v>0.9910092499319936</v>
+        <v>0.9910092499319941</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9677318048075615</v>
+        <v>0.9677318048075612</v>
       </c>
       <c r="D3">
         <v>1.024121185510933</v>
       </c>
       <c r="E3">
-        <v>0.9798423723993431</v>
+        <v>0.979842372399343</v>
       </c>
       <c r="F3">
-        <v>0.987885519332402</v>
+        <v>0.9878855193324023</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.044426922001957</v>
       </c>
       <c r="J3">
-        <v>0.9891425309372239</v>
+        <v>0.9891425309372236</v>
       </c>
       <c r="K3">
         <v>1.034454460488808</v>
       </c>
       <c r="L3">
-        <v>0.9907398408562313</v>
+        <v>0.990739840856231</v>
       </c>
       <c r="M3">
-        <v>0.9986757904345892</v>
+        <v>0.9986757904345893</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9737490632703096</v>
+        <v>0.9737490632703085</v>
       </c>
       <c r="D4">
         <v>1.02666222459761</v>
       </c>
       <c r="E4">
-        <v>0.9849143363196655</v>
+        <v>0.9849143363196642</v>
       </c>
       <c r="F4">
-        <v>0.9932655542523245</v>
+        <v>0.9932655542523232</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045705507162039</v>
+        <v>1.045705507162038</v>
       </c>
       <c r="J4">
-        <v>0.9938489720170212</v>
+        <v>0.9938489720170198</v>
       </c>
       <c r="K4">
         <v>1.036449166866771</v>
       </c>
       <c r="L4">
-        <v>0.9951983077625945</v>
+        <v>0.9951983077625931</v>
       </c>
       <c r="M4">
-        <v>1.003445943447878</v>
+        <v>1.003445943447877</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,10 +541,10 @@
         <v>1.027709469700729</v>
       </c>
       <c r="E5">
-        <v>0.9870031165731126</v>
+        <v>0.9870031165731127</v>
       </c>
       <c r="F5">
-        <v>0.9954814760682748</v>
+        <v>0.9954814760682751</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.046227561018467</v>
       </c>
       <c r="J5">
-        <v>0.9957844213113389</v>
+        <v>0.995784421311339</v>
       </c>
       <c r="K5">
         <v>1.037268070350845</v>
       </c>
       <c r="L5">
-        <v>0.9970323654640598</v>
+        <v>0.99703236546406</v>
       </c>
       <c r="M5">
-        <v>1.005408765486063</v>
+        <v>1.005408765486064</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,10 +579,10 @@
         <v>1.027884108443821</v>
       </c>
       <c r="E6">
-        <v>0.9873513719205719</v>
+        <v>0.9873513719205718</v>
       </c>
       <c r="F6">
-        <v>0.9958509426472911</v>
+        <v>0.9958509426472908</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.046314331725465</v>
       </c>
       <c r="J6">
-        <v>0.9961069489208556</v>
+        <v>0.9961069489208555</v>
       </c>
       <c r="K6">
         <v>1.037404445074</v>
       </c>
       <c r="L6">
-        <v>0.9973380306224785</v>
+        <v>0.9973380306224784</v>
       </c>
       <c r="M6">
         <v>1.005735920011223</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9737823519298547</v>
+        <v>0.9737823519298554</v>
       </c>
       <c r="D7">
         <v>1.026676298942848</v>
       </c>
       <c r="E7">
-        <v>0.9849424134301069</v>
+        <v>0.9849424134301075</v>
       </c>
       <c r="F7">
-        <v>0.9932953394305426</v>
+        <v>0.9932953394305433</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.045712542605857</v>
       </c>
       <c r="J7">
-        <v>0.9938749991071337</v>
+        <v>0.9938749991071343</v>
       </c>
       <c r="K7">
-        <v>1.036460184978073</v>
+        <v>1.036460184978074</v>
       </c>
       <c r="L7">
-        <v>0.9952229690979628</v>
+        <v>0.9952229690979634</v>
       </c>
       <c r="M7">
-        <v>1.00347233414711</v>
+        <v>1.003472334147111</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,16 +655,16 @@
         <v>1.021446278044376</v>
       </c>
       <c r="E8">
-        <v>0.9744956483760595</v>
+        <v>0.9744956483760592</v>
       </c>
       <c r="F8">
-        <v>0.9822152402642036</v>
+        <v>0.9822152402642038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043063737457276</v>
+        <v>1.043063737457277</v>
       </c>
       <c r="J8">
         <v>0.9841711780303061</v>
@@ -673,10 +673,10 @@
         <v>1.032343375385828</v>
       </c>
       <c r="L8">
-        <v>0.9860325459467741</v>
+        <v>0.986032545946774</v>
       </c>
       <c r="M8">
-        <v>0.9936416311166102</v>
+        <v>0.9936416311166103</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.937448111546381</v>
+        <v>0.9374481115463813</v>
       </c>
       <c r="D9">
         <v>1.011454593238876</v>
       </c>
       <c r="E9">
-        <v>0.954418369065281</v>
+        <v>0.9544183690652812</v>
       </c>
       <c r="F9">
-        <v>0.9609382187819729</v>
+        <v>0.9609382187819728</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.037832199540458</v>
       </c>
       <c r="J9">
-        <v>0.965421033830173</v>
+        <v>0.9654210338301733</v>
       </c>
       <c r="K9">
-        <v>1.024364521669563</v>
+        <v>1.024364521669564</v>
       </c>
       <c r="L9">
-        <v>0.9682969630082516</v>
+        <v>0.9682969630082519</v>
       </c>
       <c r="M9">
-        <v>0.9746985199403115</v>
+        <v>0.9746985199403114</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9197253297963056</v>
+        <v>0.9197253297963045</v>
       </c>
       <c r="D10">
-        <v>1.004166073557481</v>
+        <v>1.00416607355748</v>
       </c>
       <c r="E10">
-        <v>0.9396237581311886</v>
+        <v>0.9396237581311874</v>
       </c>
       <c r="F10">
-        <v>0.9452800720243559</v>
+        <v>0.9452800720243546</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.03389405582307</v>
       </c>
       <c r="J10">
-        <v>0.9515303415731889</v>
+        <v>0.9515303415731878</v>
       </c>
       <c r="K10">
-        <v>1.018460513471797</v>
+        <v>1.018460513471796</v>
       </c>
       <c r="L10">
-        <v>0.9551759644488176</v>
+        <v>0.9551759644488164</v>
       </c>
       <c r="M10">
-        <v>0.9607129697003649</v>
+        <v>0.9607129697003637</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9115249569102041</v>
+        <v>0.9115249569102046</v>
       </c>
       <c r="D11">
         <v>1.000831379947268</v>
       </c>
       <c r="E11">
-        <v>0.9328007571565061</v>
+        <v>0.9328007571565069</v>
       </c>
       <c r="F11">
-        <v>0.9380661372619317</v>
+        <v>0.9380661372619323</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.03206172407281</v>
       </c>
       <c r="J11">
-        <v>0.9451051968801457</v>
+        <v>0.9451051968801463</v>
       </c>
       <c r="K11">
-        <v>1.015737634672947</v>
+        <v>1.015737634672946</v>
       </c>
       <c r="L11">
-        <v>0.9491118874672357</v>
+        <v>0.9491118874672365</v>
       </c>
       <c r="M11">
-        <v>0.9542588396814446</v>
+        <v>0.9542588396814451</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,13 +801,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.908388405074715</v>
+        <v>0.9083884050747155</v>
       </c>
       <c r="D12">
         <v>0.9995627137532367</v>
       </c>
       <c r="E12">
-        <v>0.9301949390872636</v>
+        <v>0.930194939087264</v>
       </c>
       <c r="F12">
         <v>0.9353123689472328</v>
@@ -819,13 +819,13 @@
         <v>1.031359869019476</v>
       </c>
       <c r="J12">
-        <v>0.9426483231950107</v>
+        <v>0.9426483231950114</v>
       </c>
       <c r="K12">
         <v>1.01469829627525</v>
       </c>
       <c r="L12">
-        <v>0.9467939173014609</v>
+        <v>0.9467939173014615</v>
       </c>
       <c r="M12">
         <v>0.9517934793327086</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9090655163337203</v>
+        <v>0.9090655163337191</v>
       </c>
       <c r="D13">
-        <v>0.9998362628206817</v>
+        <v>0.9998362628206811</v>
       </c>
       <c r="E13">
-        <v>0.9307572914463071</v>
+        <v>0.9307572914463058</v>
       </c>
       <c r="F13">
-        <v>0.9359065842886675</v>
+        <v>0.9359065842886664</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031511420088246</v>
+        <v>1.031511420088245</v>
       </c>
       <c r="J13">
-        <v>0.943178670411324</v>
+        <v>0.9431786704113225</v>
       </c>
       <c r="K13">
-        <v>1.014922555990634</v>
+        <v>1.014922555990633</v>
       </c>
       <c r="L13">
-        <v>0.9472942412946834</v>
+        <v>0.9472942412946819</v>
       </c>
       <c r="M13">
-        <v>0.9523255350095877</v>
+        <v>0.9523255350095865</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9112676114816731</v>
+        <v>0.9112676114816726</v>
       </c>
       <c r="D14">
-        <v>1.000727144402708</v>
+        <v>1.000727144402707</v>
       </c>
       <c r="E14">
-        <v>0.932586874727343</v>
+        <v>0.9325868747273427</v>
       </c>
       <c r="F14">
-        <v>0.9378400822456393</v>
+        <v>0.9378400822456384</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03200415593099</v>
+        <v>1.032004155930989</v>
       </c>
       <c r="J14">
-        <v>0.9449036012895126</v>
+        <v>0.944903601289512</v>
       </c>
       <c r="K14">
-        <v>1.015652311738962</v>
+        <v>1.015652311738961</v>
       </c>
       <c r="L14">
-        <v>0.9489216720045559</v>
+        <v>0.9489216720045553</v>
       </c>
       <c r="M14">
-        <v>0.9540564929530027</v>
+        <v>0.9540564929530017</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9126120079145933</v>
+        <v>0.9126120079145934</v>
       </c>
       <c r="D15">
         <v>1.00127196368136</v>
       </c>
       <c r="E15">
-        <v>0.9337043777406437</v>
+        <v>0.9337043777406439</v>
       </c>
       <c r="F15">
-        <v>0.9390212416196291</v>
+        <v>0.9390212416196293</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032304859713072</v>
       </c>
       <c r="J15">
-        <v>0.9459567849015351</v>
+        <v>0.9459567849015355</v>
       </c>
       <c r="K15">
         <v>1.016098137981168</v>
       </c>
       <c r="L15">
-        <v>0.9499154374801815</v>
+        <v>0.9499154374801816</v>
       </c>
       <c r="M15">
-        <v>0.9551137080762035</v>
+        <v>0.9551137080762039</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9202575457027901</v>
+        <v>0.9202575457027891</v>
       </c>
       <c r="D16">
         <v>1.004383364747686</v>
       </c>
       <c r="E16">
-        <v>0.9400670832202453</v>
+        <v>0.9400670832202446</v>
       </c>
       <c r="F16">
-        <v>0.9457489683581751</v>
+        <v>0.9457489683581745</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.03401280995511</v>
       </c>
       <c r="J16">
-        <v>0.9519474140308829</v>
+        <v>0.9519474140308817</v>
       </c>
       <c r="K16">
-        <v>1.018637478151739</v>
+        <v>1.018637478151738</v>
       </c>
       <c r="L16">
-        <v>0.9555697087471337</v>
+        <v>0.9555697087471328</v>
       </c>
       <c r="M16">
-        <v>0.9611322574203772</v>
+        <v>0.9611322574203764</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9249050921796774</v>
+        <v>0.9249050921796766</v>
       </c>
       <c r="D17">
-        <v>1.006285169996578</v>
+        <v>1.006285169996577</v>
       </c>
       <c r="E17">
-        <v>0.943940954845961</v>
+        <v>0.9439409548459602</v>
       </c>
       <c r="F17">
-        <v>0.9498471287769076</v>
+        <v>0.9498471287769066</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.035048746222279</v>
       </c>
       <c r="J17">
-        <v>0.9555897469875009</v>
+        <v>0.9555897469875002</v>
       </c>
       <c r="K17">
-        <v>1.020183887619623</v>
+        <v>1.020183887619622</v>
       </c>
       <c r="L17">
-        <v>0.9590088848803293</v>
+        <v>0.9590088848803286</v>
       </c>
       <c r="M17">
-        <v>0.964795632213579</v>
+        <v>0.964795632213578</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.927566037949773</v>
+        <v>0.9275660379497725</v>
       </c>
       <c r="D18">
         <v>1.007377460076577</v>
       </c>
       <c r="E18">
-        <v>0.9461609816043935</v>
+        <v>0.9461609816043929</v>
       </c>
       <c r="F18">
-        <v>0.95219635089744</v>
+        <v>0.9521963508974393</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035640893598764</v>
       </c>
       <c r="J18">
-        <v>0.9576753292948277</v>
+        <v>0.9576753292948272</v>
       </c>
       <c r="K18">
         <v>1.021070052560232</v>
       </c>
       <c r="L18">
-        <v>0.9609786025479308</v>
+        <v>0.96097860254793</v>
       </c>
       <c r="M18">
-        <v>0.966894617458768</v>
+        <v>0.9668946174587674</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9284652009003873</v>
+        <v>0.9284652009003866</v>
       </c>
       <c r="D19">
-        <v>1.007747105467104</v>
+        <v>1.007747105467103</v>
       </c>
       <c r="E19">
-        <v>0.94691148671998</v>
+        <v>0.9469114867199789</v>
       </c>
       <c r="F19">
-        <v>0.9529906373256554</v>
+        <v>0.9529906373256545</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.035840807344034</v>
       </c>
       <c r="J19">
-        <v>0.9583800900918176</v>
+        <v>0.9583800900918168</v>
       </c>
       <c r="K19">
         <v>1.021369607056478</v>
       </c>
       <c r="L19">
-        <v>0.9616442866289736</v>
+        <v>0.9616442866289728</v>
       </c>
       <c r="M19">
-        <v>0.9676041276929411</v>
+        <v>0.9676041276929404</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9244116902176972</v>
+        <v>0.924411690217697</v>
       </c>
       <c r="D20">
-        <v>1.006082903663748</v>
+        <v>1.006082903663747</v>
       </c>
       <c r="E20">
-        <v>0.9435294726413652</v>
+        <v>0.9435294726413653</v>
       </c>
       <c r="F20">
-        <v>0.9494117522136206</v>
+        <v>0.9494117522136203</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>1.034938865483441</v>
       </c>
       <c r="J20">
-        <v>0.955203042488337</v>
+        <v>0.9552030424883372</v>
       </c>
       <c r="K20">
         <v>1.020019629249249</v>
@@ -1132,7 +1132,7 @@
         <v>0.9586437008028906</v>
       </c>
       <c r="M20">
-        <v>0.9644065503107621</v>
+        <v>0.9644065503107618</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9106217542556655</v>
+        <v>0.9106217542556665</v>
       </c>
       <c r="D21">
-        <v>1.000465659050434</v>
+        <v>1.000465659050435</v>
       </c>
       <c r="E21">
-        <v>0.9320501607133481</v>
+        <v>0.932050160713349</v>
       </c>
       <c r="F21">
-        <v>0.9372728451596173</v>
+        <v>0.9372728451596187</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031859663471717</v>
       </c>
       <c r="J21">
-        <v>0.9443976709907608</v>
+        <v>0.9443976709907618</v>
       </c>
       <c r="K21">
         <v>1.015438214745744</v>
       </c>
       <c r="L21">
-        <v>0.9484443153313358</v>
+        <v>0.9484443153313368</v>
       </c>
       <c r="M21">
-        <v>0.9535487205613787</v>
+        <v>0.9535487205613798</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,13 +1181,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9014198088622064</v>
+        <v>0.9014198088622072</v>
       </c>
       <c r="D22">
-        <v>0.9967581630447095</v>
+        <v>0.9967581630447093</v>
       </c>
       <c r="E22">
-        <v>0.9244134115514787</v>
+        <v>0.9244134115514796</v>
       </c>
       <c r="F22">
         <v>0.9292054238233816</v>
@@ -1199,16 +1199,16 @@
         <v>1.029799313023605</v>
       </c>
       <c r="J22">
-        <v>0.9371915028755538</v>
+        <v>0.9371915028755542</v>
       </c>
       <c r="K22">
         <v>1.012394116080687</v>
       </c>
       <c r="L22">
-        <v>0.9416472619903797</v>
+        <v>0.9416472619903805</v>
       </c>
       <c r="M22">
-        <v>0.9463230882452677</v>
+        <v>0.9463230882452678</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9063528603181306</v>
       </c>
       <c r="D23">
-        <v>0.9987414643556831</v>
+        <v>0.9987414643556833</v>
       </c>
       <c r="E23">
-        <v>0.9285050035093498</v>
+        <v>0.9285050035093496</v>
       </c>
       <c r="F23">
-        <v>0.9335269024357538</v>
+        <v>0.9335269024357536</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>1.030904169981726</v>
       </c>
       <c r="J23">
-        <v>0.9410541134468686</v>
+        <v>0.9410541134468684</v>
       </c>
       <c r="K23">
         <v>1.014024503743009</v>
       </c>
       <c r="L23">
-        <v>0.9452900863125034</v>
+        <v>0.9452900863125033</v>
       </c>
       <c r="M23">
         <v>0.9501945464827656</v>
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9246347906539247</v>
+        <v>0.924634790653924</v>
       </c>
       <c r="D24">
         <v>1.006174351418015</v>
       </c>
       <c r="E24">
-        <v>0.9437155252695718</v>
+        <v>0.9437155252695711</v>
       </c>
       <c r="F24">
-        <v>0.9496086066929247</v>
+        <v>0.9496086066929239</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.034988553083621</v>
       </c>
       <c r="J24">
-        <v>0.955377897272832</v>
+        <v>0.9553778972728312</v>
       </c>
       <c r="K24">
-        <v>1.020093899238124</v>
+        <v>1.020093899238123</v>
       </c>
       <c r="L24">
-        <v>0.958808823342494</v>
+        <v>0.9588088233424933</v>
       </c>
       <c r="M24">
-        <v>0.9645824758848511</v>
+        <v>0.9645824758848504</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9439157080083079</v>
+        <v>0.9439157080083075</v>
       </c>
       <c r="D25">
         <v>1.014139492703037</v>
       </c>
       <c r="E25">
-        <v>0.9598332938608722</v>
+        <v>0.9598332938608715</v>
       </c>
       <c r="F25">
-        <v>0.9666739449125618</v>
+        <v>0.966673944912561</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.039258149885074</v>
       </c>
       <c r="J25">
-        <v>0.9704900589951331</v>
+        <v>0.9704900589951327</v>
       </c>
       <c r="K25">
         <v>1.026522206063119</v>
       </c>
       <c r="L25">
-        <v>0.9730888844368319</v>
+        <v>0.9730888844368315</v>
       </c>
       <c r="M25">
-        <v>0.9798126174008122</v>
+        <v>0.9798126174008116</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9580578875882076</v>
+        <v>0.9581034528908755</v>
       </c>
       <c r="D2">
-        <v>1.020050559033208</v>
+        <v>1.020062586599143</v>
       </c>
       <c r="E2">
-        <v>0.9717019948648561</v>
+        <v>0.9717421376346446</v>
       </c>
       <c r="F2">
-        <v>0.9792531056175691</v>
+        <v>0.9792882996545373</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04234579333497</v>
+        <v>1.042355131470446</v>
       </c>
       <c r="J2">
-        <v>0.9815697775406107</v>
+        <v>0.9816138084750318</v>
       </c>
       <c r="K2">
-        <v>1.031237450025879</v>
+        <v>1.031249318197152</v>
       </c>
       <c r="L2">
-        <v>0.983570169256647</v>
+        <v>0.98360971060125</v>
       </c>
       <c r="M2">
-        <v>0.9910092499319941</v>
+        <v>0.9910439269577253</v>
+      </c>
+      <c r="N2">
+        <v>0.9890156875395849</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9677318048075612</v>
+        <v>0.9677682766369538</v>
       </c>
       <c r="D3">
-        <v>1.024121185510933</v>
+        <v>1.024130871345847</v>
       </c>
       <c r="E3">
-        <v>0.979842372399343</v>
+        <v>0.9798746417989054</v>
       </c>
       <c r="F3">
-        <v>0.9878855193324023</v>
+        <v>0.9879137745424516</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044426922001957</v>
+        <v>1.044434462225774</v>
       </c>
       <c r="J3">
-        <v>0.9891425309372236</v>
+        <v>0.9891779151856542</v>
       </c>
       <c r="K3">
-        <v>1.034454460488808</v>
+        <v>1.034464029537288</v>
       </c>
       <c r="L3">
-        <v>0.990739840856231</v>
+        <v>0.9907716757566229</v>
       </c>
       <c r="M3">
-        <v>0.9986757904345893</v>
+        <v>0.9987036729240147</v>
+      </c>
+      <c r="N3">
+        <v>0.994267307019077</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9737490632703085</v>
+        <v>0.9737800388452971</v>
       </c>
       <c r="D4">
-        <v>1.02666222459761</v>
+        <v>1.026670498657706</v>
       </c>
       <c r="E4">
-        <v>0.9849143363196642</v>
+        <v>0.9849418360998989</v>
       </c>
       <c r="F4">
-        <v>0.9932655542523232</v>
+        <v>0.993289622352313</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045705507162038</v>
+        <v>1.045711959235032</v>
       </c>
       <c r="J4">
-        <v>0.9938489720170198</v>
+        <v>0.9938790959206032</v>
       </c>
       <c r="K4">
-        <v>1.036449166866771</v>
+        <v>1.036457347360622</v>
       </c>
       <c r="L4">
-        <v>0.9951983077625931</v>
+        <v>0.9952254628625494</v>
       </c>
       <c r="M4">
-        <v>1.003445943447877</v>
+        <v>1.003469716156439</v>
+      </c>
+      <c r="N4">
+        <v>0.9975284808654797</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9762249181334808</v>
+        <v>0.9762536655288534</v>
       </c>
       <c r="D5">
-        <v>1.027709469700729</v>
+        <v>1.027717172288921</v>
       </c>
       <c r="E5">
-        <v>0.9870031165731127</v>
+        <v>0.9870286805998231</v>
       </c>
       <c r="F5">
-        <v>0.9954814760682751</v>
+        <v>0.9955038483680139</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046227561018467</v>
+        <v>1.046233571680457</v>
       </c>
       <c r="J5">
-        <v>0.995784421311339</v>
+        <v>0.995812405337178</v>
       </c>
       <c r="K5">
-        <v>1.037268070350845</v>
+        <v>1.037275688218705</v>
       </c>
       <c r="L5">
-        <v>0.99703236546406</v>
+        <v>0.9970576187908186</v>
       </c>
       <c r="M5">
-        <v>1.005408765486064</v>
+        <v>1.00543087158788</v>
+      </c>
+      <c r="N5">
+        <v>0.998868915166337</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9766375842503782</v>
+        <v>0.9766659620872674</v>
       </c>
       <c r="D6">
-        <v>1.027884108443821</v>
+        <v>1.027891716299931</v>
       </c>
       <c r="E6">
-        <v>0.9873513719205718</v>
+        <v>0.9873766147746846</v>
       </c>
       <c r="F6">
-        <v>0.9958509426472908</v>
+        <v>0.9958730337845976</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046314331725465</v>
+        <v>1.046320269162204</v>
       </c>
       <c r="J6">
-        <v>0.9961069489208555</v>
+        <v>0.9961345776246251</v>
       </c>
       <c r="K6">
-        <v>1.037404445074</v>
+        <v>1.037411969644637</v>
       </c>
       <c r="L6">
-        <v>0.9973380306224784</v>
+        <v>0.9973629682754102</v>
       </c>
       <c r="M6">
-        <v>1.005735920011223</v>
+        <v>1.005757749671436</v>
+      </c>
+      <c r="N6">
+        <v>0.9990922478923813</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9737823519298554</v>
+        <v>0.9738132974203595</v>
       </c>
       <c r="D7">
-        <v>1.026676298942848</v>
+        <v>1.026684565283615</v>
       </c>
       <c r="E7">
-        <v>0.9849424134301075</v>
+        <v>0.9849698870821741</v>
       </c>
       <c r="F7">
-        <v>0.9932953394305433</v>
+        <v>0.9933193846275473</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045712542605857</v>
+        <v>1.045718988720006</v>
       </c>
       <c r="J7">
-        <v>0.9938749991071343</v>
+        <v>0.9939050941466506</v>
       </c>
       <c r="K7">
-        <v>1.036460184978074</v>
+        <v>1.036468357874242</v>
       </c>
       <c r="L7">
-        <v>0.9952229690979634</v>
+        <v>0.9952500985379604</v>
       </c>
       <c r="M7">
-        <v>1.003472334147111</v>
+        <v>1.003496084355177</v>
+      </c>
+      <c r="N7">
+        <v>0.9975465091472405</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.961380137346395</v>
+        <v>0.9614225423434698</v>
       </c>
       <c r="D8">
-        <v>1.021446278044376</v>
+        <v>1.021457490995692</v>
       </c>
       <c r="E8">
-        <v>0.9744956483760592</v>
+        <v>0.9745330575142892</v>
       </c>
       <c r="F8">
-        <v>0.9822152402642038</v>
+        <v>0.9822480213450669</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043063737457277</v>
+        <v>1.043072451124345</v>
       </c>
       <c r="J8">
-        <v>0.9841711780303061</v>
+        <v>0.9842122119015703</v>
       </c>
       <c r="K8">
-        <v>1.032343375385828</v>
+        <v>1.03235444432496</v>
       </c>
       <c r="L8">
-        <v>0.986032545946774</v>
+        <v>0.986069414219953</v>
       </c>
       <c r="M8">
-        <v>0.9936416311166103</v>
+        <v>0.9936739476163536</v>
+      </c>
+      <c r="N8">
+        <v>0.990820284247003</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9374481115463813</v>
+        <v>0.9375142593680044</v>
       </c>
       <c r="D9">
-        <v>1.011454593238876</v>
+        <v>1.011471942333738</v>
       </c>
       <c r="E9">
-        <v>0.9544183690652812</v>
+        <v>0.9544762403092298</v>
       </c>
       <c r="F9">
-        <v>0.9609382187819728</v>
+        <v>0.9609891580038576</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037832199540458</v>
+        <v>1.037845593303282</v>
       </c>
       <c r="J9">
-        <v>0.9654210338301733</v>
+        <v>0.9654843785593153</v>
       </c>
       <c r="K9">
-        <v>1.024364521669564</v>
+        <v>1.024381597394808</v>
       </c>
       <c r="L9">
-        <v>0.9682969630082519</v>
+        <v>0.968353775010088</v>
       </c>
       <c r="M9">
-        <v>0.9746985199403114</v>
+        <v>0.9747485431589772</v>
+      </c>
+      <c r="N9">
+        <v>0.9778026700073893</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9197253297963045</v>
+        <v>0.9198107475699276</v>
       </c>
       <c r="D10">
-        <v>1.00416607355748</v>
+        <v>1.004188421002801</v>
       </c>
       <c r="E10">
-        <v>0.9396237581311874</v>
+        <v>0.9396980988984449</v>
       </c>
       <c r="F10">
-        <v>0.9452800720243546</v>
+        <v>0.945345782934232</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03389405582307</v>
+        <v>1.033911225019429</v>
       </c>
       <c r="J10">
-        <v>0.9515303415731878</v>
+        <v>0.9516114531275228</v>
       </c>
       <c r="K10">
-        <v>1.018460513471796</v>
+        <v>1.018482461774156</v>
       </c>
       <c r="L10">
-        <v>0.9551759644488164</v>
+        <v>0.9552487248081952</v>
       </c>
       <c r="M10">
-        <v>0.9607129697003637</v>
+        <v>0.9607773056613738</v>
+      </c>
+      <c r="N10">
+        <v>0.9681468228619214</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9115249569102046</v>
+        <v>0.9116198736332002</v>
       </c>
       <c r="D11">
-        <v>1.000831379947268</v>
+        <v>1.000856193647585</v>
       </c>
       <c r="E11">
-        <v>0.9328007571565069</v>
+        <v>0.9328831679980073</v>
       </c>
       <c r="F11">
-        <v>0.9380661372619323</v>
+        <v>0.9381391346891598</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03206172407281</v>
+        <v>1.032080745416979</v>
       </c>
       <c r="J11">
-        <v>0.9451051968801463</v>
+        <v>0.9451949583597076</v>
       </c>
       <c r="K11">
-        <v>1.015737634672946</v>
+        <v>1.015761981453327</v>
       </c>
       <c r="L11">
-        <v>0.9491118874672365</v>
+        <v>0.9491924310009134</v>
       </c>
       <c r="M11">
-        <v>0.9542588396814451</v>
+        <v>0.9543302077071182</v>
+      </c>
+      <c r="N11">
+        <v>0.9636783321690349</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9083884050747155</v>
+        <v>0.9084870636501615</v>
       </c>
       <c r="D12">
-        <v>0.9995627137532367</v>
+        <v>0.9995884990348424</v>
       </c>
       <c r="E12">
-        <v>0.930194939087264</v>
+        <v>0.9302805199490378</v>
       </c>
       <c r="F12">
-        <v>0.9353123689472328</v>
+        <v>0.9353882369805527</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031359869019476</v>
+        <v>1.03137961822979</v>
       </c>
       <c r="J12">
-        <v>0.9426483231950114</v>
+        <v>0.9427414730665964</v>
       </c>
       <c r="K12">
-        <v>1.01469829627525</v>
+        <v>1.014723587002263</v>
       </c>
       <c r="L12">
-        <v>0.9467939173014615</v>
+        <v>0.9468775127491224</v>
       </c>
       <c r="M12">
-        <v>0.9517934793327086</v>
+        <v>0.9518676128814401</v>
+      </c>
+      <c r="N12">
+        <v>0.9619693974617028</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9090655163337191</v>
+        <v>0.9091633618304573</v>
       </c>
       <c r="D13">
-        <v>0.9998362628206811</v>
+        <v>0.9998618369872645</v>
       </c>
       <c r="E13">
-        <v>0.9307572914463058</v>
+        <v>0.9308421839176012</v>
       </c>
       <c r="F13">
-        <v>0.9359065842886664</v>
+        <v>0.935981828555952</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031511420088245</v>
+        <v>1.031531011223657</v>
       </c>
       <c r="J13">
-        <v>0.9431786704113225</v>
+        <v>0.9432710849109893</v>
       </c>
       <c r="K13">
-        <v>1.014922555990633</v>
+        <v>1.014947641650468</v>
       </c>
       <c r="L13">
-        <v>0.9472942412946819</v>
+        <v>0.947377174253868</v>
       </c>
       <c r="M13">
-        <v>0.9523255350095865</v>
+        <v>0.9523990678541701</v>
+      </c>
+      <c r="N13">
+        <v>0.9623383027569431</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9112676114816726</v>
+        <v>0.9113628328765976</v>
       </c>
       <c r="D14">
-        <v>1.000727144402707</v>
+        <v>1.000752037212565</v>
       </c>
       <c r="E14">
-        <v>0.9325868747273427</v>
+        <v>0.9326695438708936</v>
       </c>
       <c r="F14">
-        <v>0.9378400822456384</v>
+        <v>0.9379133134031987</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032004155930989</v>
+        <v>1.032023236577406</v>
       </c>
       <c r="J14">
-        <v>0.944903601289512</v>
+        <v>0.9449936390591462</v>
       </c>
       <c r="K14">
-        <v>1.015652311738961</v>
+        <v>1.01567673539789</v>
       </c>
       <c r="L14">
-        <v>0.9489216720045553</v>
+        <v>0.9490024643291317</v>
       </c>
       <c r="M14">
-        <v>0.9540564929530017</v>
+        <v>0.9541280862536142</v>
+      </c>
+      <c r="N14">
+        <v>0.9635381124212807</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9126120079145934</v>
+        <v>0.912705642209702</v>
       </c>
       <c r="D15">
-        <v>1.00127196368136</v>
+        <v>1.00129644439377</v>
       </c>
       <c r="E15">
-        <v>0.9337043777406439</v>
+        <v>0.9337857009656271</v>
       </c>
       <c r="F15">
-        <v>0.9390212416196293</v>
+        <v>0.9390932552350232</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032304859713072</v>
+        <v>1.032323631369659</v>
       </c>
       <c r="J15">
-        <v>0.9459567849015355</v>
+        <v>0.9460453826411085</v>
       </c>
       <c r="K15">
-        <v>1.016098137981168</v>
+        <v>1.016122161126564</v>
       </c>
       <c r="L15">
-        <v>0.9499154374801816</v>
+        <v>0.9499949332247635</v>
       </c>
       <c r="M15">
-        <v>0.9551137080762039</v>
+        <v>0.9551841276830216</v>
+      </c>
+      <c r="N15">
+        <v>0.9642706441055471</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9202575457027891</v>
+        <v>0.9203423605479717</v>
       </c>
       <c r="D16">
-        <v>1.004383364747686</v>
+        <v>1.004405555678296</v>
       </c>
       <c r="E16">
-        <v>0.9400670832202446</v>
+        <v>0.9401409106595591</v>
       </c>
       <c r="F16">
-        <v>0.9457489683581745</v>
+        <v>0.9458142168348374</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03401280995511</v>
+        <v>1.034029861381997</v>
       </c>
       <c r="J16">
-        <v>0.9519474140308817</v>
+        <v>0.9520279741781863</v>
       </c>
       <c r="K16">
-        <v>1.018637478151738</v>
+        <v>1.018659274120687</v>
       </c>
       <c r="L16">
-        <v>0.9555697087471328</v>
+        <v>0.9556419733451877</v>
       </c>
       <c r="M16">
-        <v>0.9611322574203764</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9611961464889619</v>
+      </c>
+      <c r="N16">
+        <v>0.9684368450419385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9249050921796766</v>
+        <v>0.9249847087856985</v>
       </c>
       <c r="D17">
-        <v>1.006285169996577</v>
+        <v>1.006306011745724</v>
       </c>
       <c r="E17">
-        <v>0.9439409548459602</v>
+        <v>0.9440103511830064</v>
       </c>
       <c r="F17">
-        <v>0.9498471287769066</v>
+        <v>0.9499083908143428</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035048746222279</v>
+        <v>1.035064781287511</v>
       </c>
       <c r="J17">
-        <v>0.9555897469875002</v>
+        <v>0.9556655411994159</v>
       </c>
       <c r="K17">
-        <v>1.020183887619622</v>
+        <v>1.020204369827041</v>
       </c>
       <c r="L17">
-        <v>0.9590088848803286</v>
+        <v>0.9590768665417461</v>
       </c>
       <c r="M17">
-        <v>0.964795632213578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9648556657325205</v>
+      </c>
+      <c r="N17">
+        <v>0.9709694005479819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9275660379497725</v>
+        <v>0.9276427307182694</v>
       </c>
       <c r="D18">
-        <v>1.007377460076577</v>
+        <v>1.007397543188564</v>
       </c>
       <c r="E18">
-        <v>0.9461609816043929</v>
+        <v>0.9462278813955025</v>
       </c>
       <c r="F18">
-        <v>0.9521963508974393</v>
+        <v>0.952255371170863</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035640893598764</v>
+        <v>1.035656356227968</v>
       </c>
       <c r="J18">
-        <v>0.9576753292948272</v>
+        <v>0.9577484333859215</v>
       </c>
       <c r="K18">
-        <v>1.021070052560232</v>
+        <v>1.021089795542285</v>
       </c>
       <c r="L18">
-        <v>0.96097860254793</v>
+        <v>0.9610441683675175</v>
       </c>
       <c r="M18">
-        <v>0.9668946174587674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9669524803610505</v>
+      </c>
+      <c r="N18">
+        <v>0.9724193227847203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9284652009003866</v>
+        <v>0.928540914037175</v>
       </c>
       <c r="D19">
-        <v>1.007747105467103</v>
+        <v>1.007766934443546</v>
       </c>
       <c r="E19">
-        <v>0.9469114867199789</v>
+        <v>0.9469775493729649</v>
       </c>
       <c r="F19">
-        <v>0.9529906373256545</v>
+        <v>0.9530489065870945</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035840807344034</v>
+        <v>1.035856078058103</v>
       </c>
       <c r="J19">
-        <v>0.9583800900918168</v>
+        <v>0.958452291326179</v>
       </c>
       <c r="K19">
-        <v>1.021369607056478</v>
+        <v>1.021389102322144</v>
       </c>
       <c r="L19">
-        <v>0.9616442866289728</v>
+        <v>0.9617090419185819</v>
       </c>
       <c r="M19">
-        <v>0.9676041276929404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9676612630171016</v>
+      </c>
+      <c r="N19">
+        <v>0.972909244105539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.924411690217697</v>
+        <v>0.9244918531009616</v>
       </c>
       <c r="D20">
-        <v>1.006082903663747</v>
+        <v>1.006103887174076</v>
       </c>
       <c r="E20">
-        <v>0.9435294726413653</v>
+        <v>0.9435993350885816</v>
       </c>
       <c r="F20">
-        <v>0.9494117522136203</v>
+        <v>0.9494734331342126</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034938865483441</v>
+        <v>1.034955007439726</v>
       </c>
       <c r="J20">
-        <v>0.9552030424883372</v>
+        <v>0.9552793385543218</v>
       </c>
       <c r="K20">
-        <v>1.020019629249249</v>
+        <v>1.020040249549628</v>
       </c>
       <c r="L20">
-        <v>0.9586437008028906</v>
+        <v>0.9587121332838752</v>
       </c>
       <c r="M20">
-        <v>0.9644065503107618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9644669892210767</v>
+      </c>
+      <c r="N20">
+        <v>0.9707005416008987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9106217542556665</v>
+        <v>0.9107177421065542</v>
       </c>
       <c r="D21">
-        <v>1.000465659050435</v>
+        <v>1.000490750874169</v>
       </c>
       <c r="E21">
-        <v>0.932050160713349</v>
+        <v>0.932133479512228</v>
       </c>
       <c r="F21">
-        <v>0.9372728451596187</v>
+        <v>0.9373466643096144</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031859663471717</v>
+        <v>1.031878893274224</v>
       </c>
       <c r="J21">
-        <v>0.9443976709907618</v>
+        <v>0.944488403504027</v>
       </c>
       <c r="K21">
-        <v>1.015438214745744</v>
+        <v>1.015462831790984</v>
       </c>
       <c r="L21">
-        <v>0.9484443153313368</v>
+        <v>0.948525733301176</v>
       </c>
       <c r="M21">
-        <v>0.9535487205613798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9536208805040371</v>
+      </c>
+      <c r="N21">
+        <v>0.9631862089549942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9014198088622072</v>
+        <v>0.9015270116144064</v>
       </c>
       <c r="D22">
-        <v>0.9967581630447093</v>
+        <v>0.9967861665247829</v>
       </c>
       <c r="E22">
-        <v>0.9244134115514796</v>
+        <v>0.9245062117295465</v>
       </c>
       <c r="F22">
-        <v>0.9292054238233816</v>
+        <v>0.9292878464380143</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029799313023605</v>
+        <v>1.029820720429498</v>
       </c>
       <c r="J22">
-        <v>0.9371915028755542</v>
+        <v>0.9372923504475146</v>
       </c>
       <c r="K22">
-        <v>1.012394116080687</v>
+        <v>1.01242156007072</v>
       </c>
       <c r="L22">
-        <v>0.9416472619903805</v>
+        <v>0.9417377967705549</v>
       </c>
       <c r="M22">
-        <v>0.9463230882452678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9464035265387259</v>
+      </c>
+      <c r="N22">
+        <v>0.9581734037692287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9063528603181306</v>
+        <v>0.9064539811023388</v>
       </c>
       <c r="D23">
-        <v>0.9987414643556833</v>
+        <v>0.9987678889275067</v>
       </c>
       <c r="E23">
-        <v>0.9285050035093496</v>
+        <v>0.9285926675231466</v>
       </c>
       <c r="F23">
-        <v>0.9335269024357536</v>
+        <v>0.9336046593849132</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030904169981726</v>
+        <v>1.030924397590873</v>
       </c>
       <c r="J23">
-        <v>0.9410541134468684</v>
+        <v>0.9411494871755741</v>
       </c>
       <c r="K23">
-        <v>1.014024503743009</v>
+        <v>1.014050415303341</v>
       </c>
       <c r="L23">
-        <v>0.9452900863125033</v>
+        <v>0.9453756856778416</v>
       </c>
       <c r="M23">
-        <v>0.9501945464827656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9502704983461205</v>
+      </c>
+      <c r="N23">
+        <v>0.9608604469782139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.924634790653924</v>
+        <v>0.9247147063665189</v>
       </c>
       <c r="D24">
-        <v>1.006174351418015</v>
+        <v>1.006195270785793</v>
       </c>
       <c r="E24">
-        <v>0.9437155252695711</v>
+        <v>0.9437851768318687</v>
       </c>
       <c r="F24">
-        <v>0.9496086066929239</v>
+        <v>0.9496700980825338</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034988553083621</v>
+        <v>1.035004646677952</v>
       </c>
       <c r="J24">
-        <v>0.9553778972728312</v>
+        <v>0.9554539662974487</v>
       </c>
       <c r="K24">
-        <v>1.020093899238123</v>
+        <v>1.020114457057288</v>
       </c>
       <c r="L24">
-        <v>0.9588088233424933</v>
+        <v>0.9588770518652268</v>
       </c>
       <c r="M24">
-        <v>0.9645824758848504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9646427313764445</v>
+      </c>
+      <c r="N24">
+        <v>0.9708221112346967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9439157080083075</v>
+        <v>0.9439752037610976</v>
       </c>
       <c r="D25">
-        <v>1.014139492703037</v>
+        <v>1.014155119333951</v>
       </c>
       <c r="E25">
-        <v>0.9598332938608715</v>
+        <v>0.9598854502775581</v>
       </c>
       <c r="F25">
-        <v>0.966673944912561</v>
+        <v>0.9667197905981887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039258149885074</v>
+        <v>1.03927023526096</v>
       </c>
       <c r="J25">
-        <v>0.9704900589951327</v>
+        <v>0.970547200369408</v>
       </c>
       <c r="K25">
-        <v>1.026522206063119</v>
+        <v>1.026537598647465</v>
       </c>
       <c r="L25">
-        <v>0.9730888844368315</v>
+        <v>0.9731401412605611</v>
       </c>
       <c r="M25">
-        <v>0.9798126174008116</v>
+        <v>0.979857686711245</v>
+      </c>
+      <c r="N25">
+        <v>0.9813241220861656</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9581034528908755</v>
+        <v>1.014110408289483</v>
       </c>
       <c r="D2">
-        <v>1.020062586599143</v>
+        <v>1.04787414383931</v>
       </c>
       <c r="E2">
-        <v>0.9717421376346446</v>
+        <v>1.029641147513957</v>
       </c>
       <c r="F2">
-        <v>0.9792882996545373</v>
+        <v>1.045730962371615</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042355131470446</v>
+        <v>1.054772600515938</v>
       </c>
       <c r="J2">
-        <v>0.9816138084750318</v>
+        <v>1.035877117363456</v>
       </c>
       <c r="K2">
-        <v>1.031249318197152</v>
+        <v>1.058704497989169</v>
       </c>
       <c r="L2">
-        <v>0.98360971060125</v>
+        <v>1.040702419699576</v>
       </c>
       <c r="M2">
-        <v>0.9910439269577253</v>
+        <v>1.056587939162715</v>
       </c>
       <c r="N2">
-        <v>0.9890156875395849</v>
+        <v>1.037348181686879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9677682766369538</v>
+        <v>1.023785367988453</v>
       </c>
       <c r="D3">
-        <v>1.024130871345847</v>
+        <v>1.053220981099324</v>
       </c>
       <c r="E3">
-        <v>0.9798746417989054</v>
+        <v>1.037570139717526</v>
       </c>
       <c r="F3">
-        <v>0.9879137745424516</v>
+        <v>1.052891806805727</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044434462225774</v>
+        <v>1.057170166194533</v>
       </c>
       <c r="J3">
-        <v>0.9891779151856542</v>
+        <v>1.043647972192189</v>
       </c>
       <c r="K3">
-        <v>1.034464029537288</v>
+        <v>1.063215332954665</v>
       </c>
       <c r="L3">
-        <v>0.9907716757566229</v>
+        <v>1.047743853445384</v>
       </c>
       <c r="M3">
-        <v>0.9987036729240147</v>
+        <v>1.0628898634298</v>
       </c>
       <c r="N3">
-        <v>0.994267307019077</v>
+        <v>1.045130072020797</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9737800388452971</v>
+        <v>1.029826963861176</v>
       </c>
       <c r="D4">
-        <v>1.026670498657706</v>
+        <v>1.056567327910326</v>
       </c>
       <c r="E4">
-        <v>0.9849418360998989</v>
+        <v>1.042528040553974</v>
       </c>
       <c r="F4">
-        <v>0.993289622352313</v>
+        <v>1.057371520601776</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045711959235032</v>
+        <v>1.058656036849585</v>
       </c>
       <c r="J4">
-        <v>0.9938790959206032</v>
+        <v>1.048497287461476</v>
       </c>
       <c r="K4">
-        <v>1.036457347360622</v>
+        <v>1.066027803197824</v>
       </c>
       <c r="L4">
-        <v>0.9952254628625494</v>
+        <v>1.052138916856166</v>
       </c>
       <c r="M4">
-        <v>1.003469716156439</v>
+        <v>1.066823528569275</v>
       </c>
       <c r="N4">
-        <v>0.9975284808654797</v>
+        <v>1.049986273873991</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9762536655288534</v>
+        <v>1.032318062002519</v>
       </c>
       <c r="D5">
-        <v>1.027717172288921</v>
+        <v>1.057948585939644</v>
       </c>
       <c r="E5">
-        <v>0.9870286805998231</v>
+        <v>1.044573705312326</v>
       </c>
       <c r="F5">
-        <v>0.9955038483680139</v>
+        <v>1.05922029175398</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046233571680457</v>
+        <v>1.059265854729026</v>
       </c>
       <c r="J5">
-        <v>0.995812405337178</v>
+        <v>1.050495892148436</v>
       </c>
       <c r="K5">
-        <v>1.037275688218705</v>
+        <v>1.067186184312904</v>
       </c>
       <c r="L5">
-        <v>0.9970576187908186</v>
+        <v>1.053950480336123</v>
       </c>
       <c r="M5">
-        <v>1.00543087158788</v>
+        <v>1.068444880015731</v>
       </c>
       <c r="N5">
-        <v>0.998868915166337</v>
+        <v>1.05198771680885</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9766659620872674</v>
+        <v>1.032733564514046</v>
       </c>
       <c r="D6">
-        <v>1.027891716299931</v>
+        <v>1.058179050931271</v>
       </c>
       <c r="E6">
-        <v>0.9873766147746846</v>
+        <v>1.044914989278644</v>
       </c>
       <c r="F6">
-        <v>0.9958730337845976</v>
+        <v>1.059528748750227</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046320269162204</v>
+        <v>1.059367398397767</v>
       </c>
       <c r="J6">
-        <v>0.9961345776246251</v>
+        <v>1.050829194136639</v>
       </c>
       <c r="K6">
-        <v>1.037411969644637</v>
+        <v>1.067379315517569</v>
       </c>
       <c r="L6">
-        <v>0.9973629682754102</v>
+        <v>1.05425259889079</v>
       </c>
       <c r="M6">
-        <v>1.005757749671436</v>
+        <v>1.068715272481899</v>
       </c>
       <c r="N6">
-        <v>0.9990922478923813</v>
+        <v>1.052321492124106</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9738132974203595</v>
+        <v>1.029860437288568</v>
       </c>
       <c r="D7">
-        <v>1.026684565283615</v>
+        <v>1.056585882722005</v>
       </c>
       <c r="E7">
-        <v>0.9849698870821741</v>
+        <v>1.042555523272132</v>
       </c>
       <c r="F7">
-        <v>0.9933193846275473</v>
+        <v>1.057396356633748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045718988720006</v>
+        <v>1.058664242534682</v>
       </c>
       <c r="J7">
-        <v>0.9939050941466506</v>
+        <v>1.048524146796289</v>
       </c>
       <c r="K7">
-        <v>1.036468357874242</v>
+        <v>1.066043373930467</v>
       </c>
       <c r="L7">
-        <v>0.9952500985379604</v>
+        <v>1.052163261905308</v>
       </c>
       <c r="M7">
-        <v>1.003496084355177</v>
+        <v>1.066845317640841</v>
       </c>
       <c r="N7">
-        <v>0.9975465091472405</v>
+        <v>1.05001317135214</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9614225423434698</v>
+        <v>1.017427679593151</v>
       </c>
       <c r="D8">
-        <v>1.021457490995692</v>
+        <v>1.049705635015568</v>
       </c>
       <c r="E8">
-        <v>0.9745330575142892</v>
+        <v>1.03235826365632</v>
       </c>
       <c r="F8">
-        <v>0.9822480213450669</v>
+        <v>1.048184333781936</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043072451124345</v>
+        <v>1.055596969467956</v>
       </c>
       <c r="J8">
-        <v>0.9842122119015703</v>
+        <v>1.038542143353601</v>
       </c>
       <c r="K8">
-        <v>1.03235444432496</v>
+        <v>1.060251912863681</v>
       </c>
       <c r="L8">
-        <v>0.986069414219953</v>
+        <v>1.043117059333321</v>
       </c>
       <c r="M8">
-        <v>0.9936739476163536</v>
+        <v>1.058748899344112</v>
       </c>
       <c r="N8">
-        <v>0.990820284247003</v>
+        <v>1.040016992319612</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9375142593680044</v>
+        <v>0.9936600491098767</v>
       </c>
       <c r="D9">
-        <v>1.011471942333738</v>
+        <v>1.036631191278396</v>
       </c>
       <c r="E9">
-        <v>0.9544762403092298</v>
+        <v>1.012928160008574</v>
       </c>
       <c r="F9">
-        <v>0.9609891580038576</v>
+        <v>1.030654347897546</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037845593303282</v>
+        <v>1.049647195812914</v>
       </c>
       <c r="J9">
-        <v>0.9654843785593153</v>
+        <v>1.019438691089487</v>
       </c>
       <c r="K9">
-        <v>1.024381597394808</v>
+        <v>1.049156650534071</v>
       </c>
       <c r="L9">
-        <v>0.968353775010088</v>
+        <v>1.025814912159538</v>
       </c>
       <c r="M9">
-        <v>0.9747485431589772</v>
+        <v>1.043268914507302</v>
       </c>
       <c r="N9">
-        <v>0.9778026700073893</v>
+        <v>1.020886410962087</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9198107475699276</v>
+        <v>0.9762619457009348</v>
       </c>
       <c r="D10">
-        <v>1.004188421002801</v>
+        <v>1.027142315179695</v>
       </c>
       <c r="E10">
-        <v>0.9396980988984449</v>
+        <v>0.9987653188809638</v>
       </c>
       <c r="F10">
-        <v>0.945345782934232</v>
+        <v>1.017901032431306</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033911225019429</v>
+        <v>1.045244018308154</v>
       </c>
       <c r="J10">
-        <v>0.9516114531275228</v>
+        <v>1.00545010025782</v>
       </c>
       <c r="K10">
-        <v>1.018482461774156</v>
+        <v>1.041038210163943</v>
       </c>
       <c r="L10">
-        <v>0.9552487248081952</v>
+        <v>1.013156901717568</v>
       </c>
       <c r="M10">
-        <v>0.9607773056613738</v>
+        <v>1.031954429089745</v>
       </c>
       <c r="N10">
-        <v>0.9681468228619214</v>
+        <v>1.006877954726924</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9116198736332002</v>
+        <v>0.968275422211944</v>
       </c>
       <c r="D11">
-        <v>1.000856193647585</v>
+        <v>1.022813458307789</v>
       </c>
       <c r="E11">
-        <v>0.9328831679980073</v>
+        <v>0.9922827302964318</v>
       </c>
       <c r="F11">
-        <v>0.9381391346891598</v>
+        <v>1.012071846008997</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032080745416979</v>
+        <v>1.043214361105403</v>
       </c>
       <c r="J11">
-        <v>0.9451949583597076</v>
+        <v>0.9990302415050699</v>
       </c>
       <c r="K11">
-        <v>1.015761981453327</v>
+        <v>1.037317599569816</v>
       </c>
       <c r="L11">
-        <v>0.9491924310009134</v>
+        <v>1.007351665404777</v>
       </c>
       <c r="M11">
-        <v>0.9543302077071182</v>
+        <v>1.026769640116786</v>
       </c>
       <c r="N11">
-        <v>0.9636783321690349</v>
+        <v>1.000448979038377</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9084870636501615</v>
+        <v>0.965231954597003</v>
       </c>
       <c r="D12">
-        <v>0.9995884990348424</v>
+        <v>1.021168645451251</v>
       </c>
       <c r="E12">
-        <v>0.9302805199490378</v>
+        <v>0.9898156586897163</v>
       </c>
       <c r="F12">
-        <v>0.9353882369805527</v>
+        <v>1.009854919701712</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03137961822979</v>
+        <v>1.042439948602005</v>
       </c>
       <c r="J12">
-        <v>0.9427414730665964</v>
+        <v>0.996584296424662</v>
       </c>
       <c r="K12">
-        <v>1.014723587002263</v>
+        <v>1.035901222578285</v>
       </c>
       <c r="L12">
-        <v>0.9468775127491224</v>
+        <v>1.005140610665573</v>
       </c>
       <c r="M12">
-        <v>0.9518676128814401</v>
+        <v>1.024795719532803</v>
       </c>
       <c r="N12">
-        <v>0.9619693974617028</v>
+        <v>0.9979995604354015</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9091633618304573</v>
+        <v>0.9658884298457685</v>
       </c>
       <c r="D13">
-        <v>0.9998618369872645</v>
+        <v>1.021523201113602</v>
       </c>
       <c r="E13">
-        <v>0.9308421839176012</v>
+        <v>0.9903476492710903</v>
       </c>
       <c r="F13">
-        <v>0.935981828555952</v>
+        <v>1.010332898763104</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031531011223657</v>
+        <v>1.042607027155555</v>
       </c>
       <c r="J13">
-        <v>0.9432710849109893</v>
+        <v>0.997111858553379</v>
       </c>
       <c r="K13">
-        <v>1.014947641650468</v>
+        <v>1.036206659644862</v>
       </c>
       <c r="L13">
-        <v>0.947377174253868</v>
+        <v>1.005617474930389</v>
       </c>
       <c r="M13">
-        <v>0.9523990678541701</v>
+        <v>1.025221400141745</v>
       </c>
       <c r="N13">
-        <v>0.9623383027569431</v>
+        <v>0.9985278717628537</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9113628328765976</v>
+        <v>0.9680254744744877</v>
       </c>
       <c r="D14">
-        <v>1.000752037212565</v>
+        <v>1.022678274444666</v>
       </c>
       <c r="E14">
-        <v>0.9326695438708936</v>
+        <v>0.9920800503166819</v>
       </c>
       <c r="F14">
-        <v>0.9379133134031987</v>
+        <v>1.011889684984126</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032023236577406</v>
+        <v>1.043150779257063</v>
       </c>
       <c r="J14">
-        <v>0.9449936390591462</v>
+        <v>0.9988293539356277</v>
       </c>
       <c r="K14">
-        <v>1.01567673539789</v>
+        <v>1.03720124540715</v>
       </c>
       <c r="L14">
-        <v>0.9490024643291317</v>
+        <v>1.007170054202783</v>
       </c>
       <c r="M14">
-        <v>0.9541280862536142</v>
+        <v>1.026607488815357</v>
       </c>
       <c r="N14">
-        <v>0.9635381124212807</v>
+        <v>1.000247806185545</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.912705642209702</v>
+        <v>0.9693316928503448</v>
       </c>
       <c r="D15">
-        <v>1.00129644439377</v>
+        <v>1.023384940329027</v>
       </c>
       <c r="E15">
-        <v>0.9337857009656271</v>
+        <v>0.9931393849694127</v>
       </c>
       <c r="F15">
-        <v>0.9390932552350232</v>
+        <v>1.012841836090735</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032323631369659</v>
+        <v>1.043483018831969</v>
       </c>
       <c r="J15">
-        <v>0.9460453826411085</v>
+        <v>0.9998792077513832</v>
       </c>
       <c r="K15">
-        <v>1.016122161126564</v>
+        <v>1.037809370702313</v>
       </c>
       <c r="L15">
-        <v>0.9499949332247635</v>
+        <v>1.008119198266189</v>
       </c>
       <c r="M15">
-        <v>0.9551841276830216</v>
+        <v>1.027454965223259</v>
       </c>
       <c r="N15">
-        <v>0.9642706441055471</v>
+        <v>1.001299150914138</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9203423605479717</v>
+        <v>0.9767817208706674</v>
       </c>
       <c r="D16">
-        <v>1.004405555678296</v>
+        <v>1.027424659111503</v>
       </c>
       <c r="E16">
-        <v>0.9401409106595591</v>
+        <v>0.9991876389859805</v>
       </c>
       <c r="F16">
-        <v>0.9458142168348374</v>
+        <v>1.018280974569702</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034029861381997</v>
+        <v>1.045375962963385</v>
       </c>
       <c r="J16">
-        <v>0.9520279741781863</v>
+        <v>1.00586796802771</v>
       </c>
       <c r="K16">
-        <v>1.018659274120687</v>
+        <v>1.041280522095982</v>
       </c>
       <c r="L16">
-        <v>0.9556419733451877</v>
+        <v>1.013534855444</v>
       </c>
       <c r="M16">
-        <v>0.9611961464889619</v>
+        <v>1.032292090649126</v>
       </c>
       <c r="N16">
-        <v>0.9684368450419385</v>
+        <v>1.007296415916978</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9249847087856985</v>
+        <v>0.9813278776653536</v>
       </c>
       <c r="D17">
-        <v>1.006306011745724</v>
+        <v>1.029897246973802</v>
       </c>
       <c r="E17">
-        <v>0.9440103511830064</v>
+        <v>1.002883567156174</v>
       </c>
       <c r="F17">
-        <v>0.9499083908143428</v>
+        <v>1.021606981200737</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035064781287511</v>
+        <v>1.046529093649095</v>
       </c>
       <c r="J17">
-        <v>0.9556655411994159</v>
+        <v>1.009523003312107</v>
       </c>
       <c r="K17">
-        <v>1.020204369827041</v>
+        <v>1.043400617896563</v>
       </c>
       <c r="L17">
-        <v>0.9590768665417461</v>
+        <v>1.016841225195333</v>
       </c>
       <c r="M17">
-        <v>0.9648556657325205</v>
+        <v>1.035246479056862</v>
       </c>
       <c r="N17">
-        <v>0.9709694005479819</v>
+        <v>1.010956641770717</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9276427307182694</v>
+        <v>0.9839365393725255</v>
       </c>
       <c r="D18">
-        <v>1.007397543188564</v>
+        <v>1.031318517791796</v>
       </c>
       <c r="E18">
-        <v>0.9462278813955025</v>
+        <v>1.005006071430401</v>
       </c>
       <c r="F18">
-        <v>0.952255371170863</v>
+        <v>1.023517797357334</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035656356227968</v>
+        <v>1.047189976128839</v>
       </c>
       <c r="J18">
-        <v>0.9577484333859215</v>
+        <v>1.01162044850631</v>
       </c>
       <c r="K18">
-        <v>1.021089795542285</v>
+        <v>1.044617697006835</v>
       </c>
       <c r="L18">
-        <v>0.9610441683675175</v>
+        <v>1.018738949451504</v>
       </c>
       <c r="M18">
-        <v>0.9669524803610505</v>
+        <v>1.036942565908583</v>
       </c>
       <c r="N18">
-        <v>0.9724193227847203</v>
+        <v>1.013057065577676</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.928540914037175</v>
+        <v>0.9848189693822018</v>
       </c>
       <c r="D19">
-        <v>1.007766934443546</v>
+        <v>1.031799686576592</v>
       </c>
       <c r="E19">
-        <v>0.9469775493729649</v>
+        <v>1.005724328523716</v>
       </c>
       <c r="F19">
-        <v>0.9530489065870945</v>
+        <v>1.024164539883346</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035856078058103</v>
+        <v>1.047413387923654</v>
       </c>
       <c r="J19">
-        <v>0.958452291326179</v>
+        <v>1.012329963448238</v>
       </c>
       <c r="K19">
-        <v>1.021389102322144</v>
+        <v>1.045029473285293</v>
       </c>
       <c r="L19">
-        <v>0.9617090419185819</v>
+        <v>1.019380961553427</v>
       </c>
       <c r="M19">
-        <v>0.9676612630171016</v>
+        <v>1.037516423397373</v>
       </c>
       <c r="N19">
-        <v>0.972909244105539</v>
+        <v>1.013767588112205</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9244918531009616</v>
+        <v>0.9808446281823604</v>
       </c>
       <c r="D20">
-        <v>1.006103887174076</v>
+        <v>1.029634153883572</v>
       </c>
       <c r="E20">
-        <v>0.9435993350885816</v>
+        <v>1.002490513852769</v>
       </c>
       <c r="F20">
-        <v>0.9494734331342126</v>
+        <v>1.021253188441039</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034955007439726</v>
+        <v>1.046406599277523</v>
       </c>
       <c r="J20">
-        <v>0.9552793385543218</v>
+        <v>1.009134463984761</v>
       </c>
       <c r="K20">
-        <v>1.020040249549628</v>
+        <v>1.043175196061858</v>
       </c>
       <c r="L20">
-        <v>0.9587121332838752</v>
+        <v>1.016489711486771</v>
       </c>
       <c r="M20">
-        <v>0.9644669892210767</v>
+        <v>1.03493234459027</v>
       </c>
       <c r="N20">
-        <v>0.9707005416008987</v>
+        <v>1.010567550672961</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9107177421065542</v>
+        <v>0.9673983708582897</v>
       </c>
       <c r="D21">
-        <v>1.000490750874169</v>
+        <v>1.022339186324538</v>
       </c>
       <c r="E21">
-        <v>0.932133479512228</v>
+        <v>0.9915715930126741</v>
       </c>
       <c r="F21">
-        <v>0.9373466643096144</v>
+        <v>1.011432727647727</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031878893274224</v>
+        <v>1.042991241976065</v>
       </c>
       <c r="J21">
-        <v>0.944488403504027</v>
+        <v>0.9983253484048521</v>
       </c>
       <c r="K21">
-        <v>1.015462831790984</v>
+        <v>1.036909345254263</v>
       </c>
       <c r="L21">
-        <v>0.948525733301176</v>
+        <v>1.006714423061911</v>
       </c>
       <c r="M21">
-        <v>0.9536208805040371</v>
+        <v>1.026200693073883</v>
       </c>
       <c r="N21">
-        <v>0.9631862089549942</v>
+        <v>0.9997430849091051</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9015270116144064</v>
+        <v>0.9584934607187341</v>
       </c>
       <c r="D22">
-        <v>0.9967861665247829</v>
+        <v>1.017536736014803</v>
       </c>
       <c r="E22">
-        <v>0.9245062117295465</v>
+        <v>0.9843600119402499</v>
       </c>
       <c r="F22">
-        <v>0.9292878464380143</v>
+        <v>1.004955485106736</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029820720429498</v>
+        <v>1.040723934870992</v>
       </c>
       <c r="J22">
-        <v>0.9372923504475146</v>
+        <v>0.9911700499371748</v>
       </c>
       <c r="K22">
-        <v>1.01242156007072</v>
+        <v>1.032768612033178</v>
       </c>
       <c r="L22">
-        <v>0.9417377967705549</v>
+        <v>1.00024780013622</v>
       </c>
       <c r="M22">
-        <v>0.9464035265387259</v>
+        <v>1.02042940795077</v>
       </c>
       <c r="N22">
-        <v>0.9581734037692287</v>
+        <v>0.9925776250968794</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9064539811023388</v>
+        <v>0.9632602619436427</v>
       </c>
       <c r="D23">
-        <v>0.9987678889275067</v>
+        <v>1.02010452391022</v>
       </c>
       <c r="E23">
-        <v>0.9285926675231466</v>
+        <v>0.9882183710678971</v>
       </c>
       <c r="F23">
-        <v>0.9336046593849132</v>
+        <v>1.008420038273164</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030924397590873</v>
+        <v>1.041938021110874</v>
       </c>
       <c r="J23">
-        <v>0.9411494871755741</v>
+        <v>0.9949998861098065</v>
       </c>
       <c r="K23">
-        <v>1.014050415303341</v>
+        <v>1.034984116227402</v>
       </c>
       <c r="L23">
-        <v>0.9453756856778416</v>
+        <v>1.003708576128185</v>
       </c>
       <c r="M23">
-        <v>0.9502704983461205</v>
+        <v>1.023517526823865</v>
       </c>
       <c r="N23">
-        <v>0.9608604469782139</v>
+        <v>0.9964129000761645</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9247147063665189</v>
+        <v>0.9810631201585432</v>
       </c>
       <c r="D24">
-        <v>1.006195270785793</v>
+        <v>1.029753098779965</v>
       </c>
       <c r="E24">
-        <v>0.9437851768318687</v>
+        <v>1.002668220045118</v>
       </c>
       <c r="F24">
-        <v>0.9496700980825338</v>
+        <v>1.021413141944389</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035004646677952</v>
+        <v>1.04646198527767</v>
       </c>
       <c r="J24">
-        <v>0.9554539662974487</v>
+        <v>1.009310134215976</v>
       </c>
       <c r="K24">
-        <v>1.020114457057288</v>
+        <v>1.04327711459944</v>
       </c>
       <c r="L24">
-        <v>0.9588770518652268</v>
+        <v>1.016648640215706</v>
       </c>
       <c r="M24">
-        <v>0.9646427313764445</v>
+        <v>1.035074371978977</v>
       </c>
       <c r="N24">
-        <v>0.9708221112346967</v>
+        <v>1.010743470376053</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9439752037610976</v>
+        <v>1.000053282517184</v>
       </c>
       <c r="D25">
-        <v>1.014155119333951</v>
+        <v>1.040136465959692</v>
       </c>
       <c r="E25">
-        <v>0.9598854502775581</v>
+        <v>1.018145787960599</v>
       </c>
       <c r="F25">
-        <v>0.9667197905981887</v>
+        <v>1.035358283825378</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03927023526096</v>
+        <v>1.05125653819648</v>
       </c>
       <c r="J25">
-        <v>0.970547200369408</v>
+        <v>1.024578853626059</v>
       </c>
       <c r="K25">
-        <v>1.026537598647465</v>
+        <v>1.052142101866769</v>
       </c>
       <c r="L25">
-        <v>0.9731401412605611</v>
+        <v>1.030468796306426</v>
       </c>
       <c r="M25">
-        <v>0.979857686711245</v>
+        <v>1.047431428937333</v>
       </c>
       <c r="N25">
-        <v>0.9813241220861656</v>
+        <v>1.026033873119045</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014110408289483</v>
+        <v>0.9889461479200541</v>
       </c>
       <c r="D2">
-        <v>1.04787414383931</v>
+        <v>1.035197763745684</v>
       </c>
       <c r="E2">
-        <v>1.029641147513957</v>
+        <v>1.009862162169328</v>
       </c>
       <c r="F2">
-        <v>1.045730962371615</v>
+        <v>1.028946570519593</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054772600515938</v>
+        <v>1.050086958687008</v>
       </c>
       <c r="J2">
-        <v>1.035877117363456</v>
+        <v>1.0114625804676</v>
       </c>
       <c r="K2">
-        <v>1.058704497989169</v>
+        <v>1.046187585586177</v>
       </c>
       <c r="L2">
-        <v>1.040702419699576</v>
+        <v>1.021185790201979</v>
       </c>
       <c r="M2">
-        <v>1.056587939162715</v>
+        <v>1.040016841908336</v>
       </c>
       <c r="N2">
-        <v>1.037348181686879</v>
+        <v>1.006889404139084</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023785367988453</v>
+        <v>0.9955721476076175</v>
       </c>
       <c r="D3">
-        <v>1.053220981099324</v>
+        <v>1.038525769784985</v>
       </c>
       <c r="E3">
-        <v>1.037570139717526</v>
+        <v>1.015128094731912</v>
       </c>
       <c r="F3">
-        <v>1.052891806805727</v>
+        <v>1.033714018234338</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057170166194533</v>
+        <v>1.051159451761879</v>
       </c>
       <c r="J3">
-        <v>1.043647972192189</v>
+        <v>1.016184252501261</v>
       </c>
       <c r="K3">
-        <v>1.063215332954665</v>
+        <v>1.048688340208531</v>
       </c>
       <c r="L3">
-        <v>1.047743853445384</v>
+        <v>1.025570999884291</v>
       </c>
       <c r="M3">
-        <v>1.0628898634298</v>
+        <v>1.043932956108955</v>
       </c>
       <c r="N3">
-        <v>1.045130072020797</v>
+        <v>1.008556854924282</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029826963861176</v>
+        <v>0.999748751330465</v>
       </c>
       <c r="D4">
-        <v>1.056567327910326</v>
+        <v>1.040628307680055</v>
       </c>
       <c r="E4">
-        <v>1.042528040553974</v>
+        <v>1.018454019857071</v>
       </c>
       <c r="F4">
-        <v>1.057371520601776</v>
+        <v>1.036725176938947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058656036849585</v>
+        <v>1.051824730461825</v>
       </c>
       <c r="J4">
-        <v>1.048497287461476</v>
+        <v>1.019158886258942</v>
       </c>
       <c r="K4">
-        <v>1.066027803197824</v>
+        <v>1.050259918213493</v>
       </c>
       <c r="L4">
-        <v>1.052138916856166</v>
+        <v>1.028334708399661</v>
       </c>
       <c r="M4">
-        <v>1.066823528569275</v>
+        <v>1.046399680400756</v>
       </c>
       <c r="N4">
-        <v>1.049986273873991</v>
+        <v>1.009605865039159</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032318062002519</v>
+        <v>1.001479386852509</v>
       </c>
       <c r="D5">
-        <v>1.057948585939644</v>
+        <v>1.04150047094307</v>
       </c>
       <c r="E5">
-        <v>1.044573705312326</v>
+        <v>1.019833637576507</v>
       </c>
       <c r="F5">
-        <v>1.05922029175398</v>
+        <v>1.037974177673261</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059265854729026</v>
+        <v>1.052097730519499</v>
       </c>
       <c r="J5">
-        <v>1.050495892148436</v>
+        <v>1.020391014868969</v>
       </c>
       <c r="K5">
-        <v>1.067186184312904</v>
+        <v>1.050909843562219</v>
       </c>
       <c r="L5">
-        <v>1.053950480336123</v>
+        <v>1.029479688335421</v>
       </c>
       <c r="M5">
-        <v>1.068444880015731</v>
+        <v>1.047421244794713</v>
       </c>
       <c r="N5">
-        <v>1.05198771680885</v>
+        <v>1.010040005252613</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032733564514046</v>
+        <v>1.00176852686405</v>
       </c>
       <c r="D6">
-        <v>1.058179050931271</v>
+        <v>1.041646234680028</v>
       </c>
       <c r="E6">
-        <v>1.044914989278644</v>
+        <v>1.020064215877477</v>
       </c>
       <c r="F6">
-        <v>1.059528748750227</v>
+        <v>1.038182920890824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059367398397767</v>
+        <v>1.052143181720973</v>
       </c>
       <c r="J6">
-        <v>1.050829194136639</v>
+        <v>1.020596839957379</v>
       </c>
       <c r="K6">
-        <v>1.067379315517569</v>
+        <v>1.05101834826382</v>
       </c>
       <c r="L6">
-        <v>1.05425259889079</v>
+        <v>1.029670967374897</v>
       </c>
       <c r="M6">
-        <v>1.068715272481899</v>
+        <v>1.047591882414486</v>
       </c>
       <c r="N6">
-        <v>1.052321492124106</v>
+        <v>1.010112505275652</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029860437288568</v>
+        <v>0.9997719735294289</v>
       </c>
       <c r="D7">
-        <v>1.056585882722005</v>
+        <v>1.040640007147332</v>
       </c>
       <c r="E7">
-        <v>1.042555523272132</v>
+        <v>1.018472526313223</v>
       </c>
       <c r="F7">
-        <v>1.057396356633748</v>
+        <v>1.03674193155598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058664242534682</v>
+        <v>1.051828404323831</v>
       </c>
       <c r="J7">
-        <v>1.048524146796289</v>
+        <v>1.019175421220071</v>
       </c>
       <c r="K7">
-        <v>1.066043373930467</v>
+        <v>1.050268644360565</v>
       </c>
       <c r="L7">
-        <v>1.052163261905308</v>
+        <v>1.028350073014022</v>
       </c>
       <c r="M7">
-        <v>1.066845317640841</v>
+        <v>1.046413390452518</v>
       </c>
       <c r="N7">
-        <v>1.05001317135214</v>
+        <v>1.009611692624092</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017427679593151</v>
+        <v>0.9912092231425654</v>
       </c>
       <c r="D8">
-        <v>1.049705635015568</v>
+        <v>1.036333295257689</v>
       </c>
       <c r="E8">
-        <v>1.03235826365632</v>
+        <v>1.011659247027888</v>
       </c>
       <c r="F8">
-        <v>1.048184333781936</v>
+        <v>1.030573481683788</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055596969467956</v>
+        <v>1.050455471108502</v>
       </c>
       <c r="J8">
-        <v>1.038542143353601</v>
+        <v>1.01307553705546</v>
       </c>
       <c r="K8">
-        <v>1.060251912863681</v>
+        <v>1.047042611594344</v>
       </c>
       <c r="L8">
-        <v>1.043117059333321</v>
+        <v>1.02268356892152</v>
       </c>
       <c r="M8">
-        <v>1.058748899344112</v>
+        <v>1.041354648331456</v>
       </c>
       <c r="N8">
-        <v>1.040016992319612</v>
+        <v>1.007459316973606</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9936600491098767</v>
+        <v>0.9752061548988833</v>
       </c>
       <c r="D9">
-        <v>1.036631191278396</v>
+        <v>1.028332906698504</v>
       </c>
       <c r="E9">
-        <v>1.012928160008574</v>
+        <v>0.998984996955767</v>
       </c>
       <c r="F9">
-        <v>1.030654347897546</v>
+        <v>1.019102709019873</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049647195812914</v>
+        <v>1.047807285076821</v>
       </c>
       <c r="J9">
-        <v>1.019438691089487</v>
+        <v>1.001665887444318</v>
       </c>
       <c r="K9">
-        <v>1.049156650534071</v>
+        <v>1.040982438838108</v>
       </c>
       <c r="L9">
-        <v>1.025814912159538</v>
+        <v>1.012094563369421</v>
       </c>
       <c r="M9">
-        <v>1.043268914507302</v>
+        <v>1.03189327858698</v>
       </c>
       <c r="N9">
-        <v>1.020886410962087</v>
+        <v>1.003422329530352</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9762619457009348</v>
+        <v>0.9638215586113356</v>
       </c>
       <c r="D10">
-        <v>1.027142315179695</v>
+        <v>1.022689734569291</v>
       </c>
       <c r="E10">
-        <v>0.9987653188809638</v>
+        <v>0.9900179183522845</v>
       </c>
       <c r="F10">
-        <v>1.017901032431306</v>
+        <v>1.010994931963191</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045244018308154</v>
+        <v>1.04587389638872</v>
       </c>
       <c r="J10">
-        <v>1.00545010025782</v>
+        <v>0.993547926634613</v>
       </c>
       <c r="K10">
-        <v>1.041038210163943</v>
+        <v>1.036661057195742</v>
       </c>
       <c r="L10">
-        <v>1.013156901717568</v>
+        <v>1.004569772017836</v>
       </c>
       <c r="M10">
-        <v>1.031954429089745</v>
+        <v>1.025168467185917</v>
       </c>
       <c r="N10">
-        <v>1.006877954726924</v>
+        <v>1.000543814208375</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.968275422211944</v>
+        <v>0.9586962333808129</v>
       </c>
       <c r="D11">
-        <v>1.022813458307789</v>
+        <v>1.020164439078198</v>
       </c>
       <c r="E11">
-        <v>0.9922827302964318</v>
+        <v>0.9859949758708422</v>
       </c>
       <c r="F11">
-        <v>1.012071846008997</v>
+        <v>1.007360642869479</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043214361105403</v>
+        <v>1.044993329678413</v>
       </c>
       <c r="J11">
-        <v>0.9990302415050699</v>
+        <v>0.9898942976955921</v>
       </c>
       <c r="K11">
-        <v>1.037317599569816</v>
+        <v>1.034715845572038</v>
       </c>
       <c r="L11">
-        <v>1.007351665404777</v>
+        <v>1.001185929228169</v>
       </c>
       <c r="M11">
-        <v>1.026769640116786</v>
+        <v>1.022145070530458</v>
       </c>
       <c r="N11">
-        <v>1.000448979038377</v>
+        <v>0.999247130664196</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.965231954597003</v>
+        <v>0.9567605548661531</v>
       </c>
       <c r="D12">
-        <v>1.021168645451251</v>
+        <v>1.019213354637341</v>
       </c>
       <c r="E12">
-        <v>0.9898156586897163</v>
+        <v>0.9844779561076564</v>
       </c>
       <c r="F12">
-        <v>1.009854919701712</v>
+        <v>1.005990773002393</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042439948602005</v>
+        <v>1.044659387260333</v>
       </c>
       <c r="J12">
-        <v>0.996584296424662</v>
+        <v>0.98851471882147</v>
       </c>
       <c r="K12">
-        <v>1.035901222578285</v>
+        <v>1.033981487736054</v>
       </c>
       <c r="L12">
-        <v>1.005140610665573</v>
+        <v>0.9999087008378266</v>
       </c>
       <c r="M12">
-        <v>1.024795719532803</v>
+        <v>1.021004092272953</v>
       </c>
       <c r="N12">
-        <v>0.9979995604354015</v>
+        <v>0.9987573690018691</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9658884298457685</v>
+        <v>0.9571772514748269</v>
       </c>
       <c r="D13">
-        <v>1.021523201113602</v>
+        <v>1.019417970874195</v>
       </c>
       <c r="E13">
-        <v>0.9903476492710903</v>
+        <v>0.9848044188425834</v>
       </c>
       <c r="F13">
-        <v>1.010332898763104</v>
+        <v>1.006285540312811</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042607027155555</v>
+        <v>1.044731335371742</v>
       </c>
       <c r="J13">
-        <v>0.997111858553379</v>
+        <v>0.9888116879711349</v>
       </c>
       <c r="K13">
-        <v>1.036206659644862</v>
+        <v>1.034139556862671</v>
       </c>
       <c r="L13">
-        <v>1.005617474930389</v>
+        <v>1.000183615222287</v>
       </c>
       <c r="M13">
-        <v>1.025221400141745</v>
+        <v>1.02124966914389</v>
       </c>
       <c r="N13">
-        <v>0.9985278717628537</v>
+        <v>0.9988628015189311</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9680254744744877</v>
+        <v>0.9585368958981207</v>
       </c>
       <c r="D14">
-        <v>1.022678274444666</v>
+        <v>1.020086093787101</v>
       </c>
       <c r="E14">
-        <v>0.9920800503166819</v>
+        <v>0.9858700522953084</v>
       </c>
       <c r="F14">
-        <v>1.011889684984126</v>
+        <v>1.007247824054959</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043150779257063</v>
+        <v>1.044965867949276</v>
       </c>
       <c r="J14">
-        <v>0.9988293539356277</v>
+        <v>0.9897807296149372</v>
       </c>
       <c r="K14">
-        <v>1.03720124540715</v>
+        <v>1.034655388738844</v>
       </c>
       <c r="L14">
-        <v>1.007170054202783</v>
+        <v>1.001080776600399</v>
       </c>
       <c r="M14">
-        <v>1.026607488815357</v>
+        <v>1.022051130574055</v>
       </c>
       <c r="N14">
-        <v>1.000247806185545</v>
+        <v>0.9992068158481293</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9693316928503448</v>
+        <v>0.9593703104606366</v>
       </c>
       <c r="D15">
-        <v>1.023384940329027</v>
+        <v>1.020495988408682</v>
       </c>
       <c r="E15">
-        <v>0.9931393849694127</v>
+        <v>0.9865235607570964</v>
       </c>
       <c r="F15">
-        <v>1.012841836090735</v>
+        <v>1.007838034118315</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043483018831969</v>
+        <v>1.045109451293918</v>
       </c>
       <c r="J15">
-        <v>0.9998792077513832</v>
+        <v>0.9903747597273906</v>
       </c>
       <c r="K15">
-        <v>1.037809370702313</v>
+        <v>1.03497162144108</v>
       </c>
       <c r="L15">
-        <v>1.008119198266189</v>
+        <v>1.001630808725314</v>
       </c>
       <c r="M15">
-        <v>1.027454965223259</v>
+        <v>1.022542520206233</v>
       </c>
       <c r="N15">
-        <v>1.001299150914138</v>
+        <v>0.9994176811216358</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9767817208706674</v>
+        <v>0.9641573789163468</v>
       </c>
       <c r="D16">
-        <v>1.027424659111503</v>
+        <v>1.022855541541391</v>
       </c>
       <c r="E16">
-        <v>0.9991876389859805</v>
+        <v>0.9902818171007444</v>
       </c>
       <c r="F16">
-        <v>1.018280974569702</v>
+        <v>1.0112334107513</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045375962963385</v>
+        <v>1.045931394086423</v>
       </c>
       <c r="J16">
-        <v>1.00586796802771</v>
+        <v>0.9937873511364576</v>
       </c>
       <c r="K16">
-        <v>1.041280522095982</v>
+        <v>1.036788536900731</v>
       </c>
       <c r="L16">
-        <v>1.013534855444</v>
+        <v>1.004791580517064</v>
       </c>
       <c r="M16">
-        <v>1.032292090649126</v>
+        <v>1.025366671043019</v>
       </c>
       <c r="N16">
-        <v>1.007296415916978</v>
+        <v>1.000628765024092</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9813278776653536</v>
+        <v>0.9671061017664109</v>
       </c>
       <c r="D17">
-        <v>1.029897246973802</v>
+        <v>1.024313200861534</v>
       </c>
       <c r="E17">
-        <v>1.002883567156174</v>
+        <v>0.9926006319112463</v>
       </c>
       <c r="F17">
-        <v>1.021606981200737</v>
+        <v>1.013329235977465</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046529093649095</v>
+        <v>1.046435128787452</v>
       </c>
       <c r="J17">
-        <v>1.009523003312107</v>
+        <v>0.9958897897065793</v>
       </c>
       <c r="K17">
-        <v>1.043400617896563</v>
+        <v>1.037907950692143</v>
       </c>
       <c r="L17">
-        <v>1.016841225195333</v>
+        <v>1.006739654746981</v>
       </c>
       <c r="M17">
-        <v>1.035246479056862</v>
+        <v>1.027107523188846</v>
       </c>
       <c r="N17">
-        <v>1.010956641770717</v>
+        <v>1.00137460883737</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9839365393725255</v>
+        <v>0.9688073407781768</v>
       </c>
       <c r="D18">
-        <v>1.031318517791796</v>
+        <v>1.02515559739288</v>
       </c>
       <c r="E18">
-        <v>1.005006071430401</v>
+        <v>0.9939397575810133</v>
       </c>
       <c r="F18">
-        <v>1.023517797357334</v>
+        <v>1.014539872507097</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047189976128839</v>
+        <v>1.046724786390373</v>
       </c>
       <c r="J18">
-        <v>1.01162044850631</v>
+        <v>0.9971028640871432</v>
       </c>
       <c r="K18">
-        <v>1.044617697006835</v>
+        <v>1.03855379432203</v>
       </c>
       <c r="L18">
-        <v>1.018738949451504</v>
+        <v>1.007863925121874</v>
       </c>
       <c r="M18">
-        <v>1.036942565908583</v>
+        <v>1.028112261368954</v>
       </c>
       <c r="N18">
-        <v>1.013057065577676</v>
+        <v>1.001804837994066</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9848189693822018</v>
+        <v>0.9693843187054568</v>
       </c>
       <c r="D19">
-        <v>1.031799686576592</v>
+        <v>1.025441527281033</v>
       </c>
       <c r="E19">
-        <v>1.005724328523716</v>
+        <v>0.9943941397107167</v>
       </c>
       <c r="F19">
-        <v>1.024164539883346</v>
+        <v>1.014950702173475</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047413387923654</v>
+        <v>1.046822855927824</v>
       </c>
       <c r="J19">
-        <v>1.012329963448238</v>
+        <v>0.9975142921811633</v>
       </c>
       <c r="K19">
-        <v>1.045029473285293</v>
+        <v>1.03877282751062</v>
       </c>
       <c r="L19">
-        <v>1.019380961553427</v>
+        <v>1.00824527709749</v>
       </c>
       <c r="M19">
-        <v>1.037516423397373</v>
+        <v>1.028453075500124</v>
       </c>
       <c r="N19">
-        <v>1.013767588112205</v>
+        <v>1.001950735475717</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9808446281823604</v>
+        <v>0.9667916832323454</v>
       </c>
       <c r="D20">
-        <v>1.029634153883572</v>
+        <v>1.024157623336201</v>
       </c>
       <c r="E20">
-        <v>1.002490513852769</v>
+        <v>0.9923532424983945</v>
       </c>
       <c r="F20">
-        <v>1.021253188441039</v>
+        <v>1.013105606094227</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046406599277523</v>
+        <v>1.046381515701356</v>
       </c>
       <c r="J20">
-        <v>1.009134463984761</v>
+        <v>0.9956655990303825</v>
       </c>
       <c r="K20">
-        <v>1.043175196061858</v>
+        <v>1.037788586509207</v>
       </c>
       <c r="L20">
-        <v>1.016489711486771</v>
+        <v>1.006531896913847</v>
       </c>
       <c r="M20">
-        <v>1.03493234459027</v>
+        <v>1.026921858300514</v>
       </c>
       <c r="N20">
-        <v>1.010567550672961</v>
+        <v>1.001295088142475</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9673983708582897</v>
+        <v>0.9581374167254072</v>
       </c>
       <c r="D21">
-        <v>1.022339186324538</v>
+        <v>1.019889716013755</v>
       </c>
       <c r="E21">
-        <v>0.9915715930126741</v>
+        <v>0.9855568912659609</v>
       </c>
       <c r="F21">
-        <v>1.011432727647727</v>
+        <v>1.006965017444373</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042991241976065</v>
+        <v>1.044896996258152</v>
       </c>
       <c r="J21">
-        <v>0.9983253484048521</v>
+        <v>0.9894960051395113</v>
       </c>
       <c r="K21">
-        <v>1.036909345254263</v>
+        <v>1.034503821363049</v>
       </c>
       <c r="L21">
-        <v>1.006714423061911</v>
+        <v>1.000817158308312</v>
       </c>
       <c r="M21">
-        <v>1.026200693073883</v>
+        <v>1.021815626073921</v>
       </c>
       <c r="N21">
-        <v>0.9997430849091051</v>
+        <v>0.9991057410710085</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9584934607187341</v>
+        <v>0.9525100921286712</v>
       </c>
       <c r="D22">
-        <v>1.017536736014803</v>
+        <v>1.017130198144307</v>
       </c>
       <c r="E22">
-        <v>0.9843600119402499</v>
+        <v>0.9811513434193205</v>
       </c>
       <c r="F22">
-        <v>1.004955485106736</v>
+        <v>1.002988071352896</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040723934870992</v>
+        <v>1.043923729877138</v>
       </c>
       <c r="J22">
-        <v>0.9911700499371748</v>
+        <v>0.9854860426752643</v>
       </c>
       <c r="K22">
-        <v>1.032768612033178</v>
+        <v>1.03236977303982</v>
       </c>
       <c r="L22">
-        <v>1.00024780013622</v>
+        <v>0.9971056772674234</v>
       </c>
       <c r="M22">
-        <v>1.02042940795077</v>
+        <v>1.018500565466939</v>
       </c>
       <c r="N22">
-        <v>0.9925776250968794</v>
+        <v>0.9976819308362959</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9632602619436427</v>
+        <v>0.9555117895921323</v>
       </c>
       <c r="D23">
-        <v>1.02010452391022</v>
+        <v>1.018600572251204</v>
       </c>
       <c r="E23">
-        <v>0.9882183710678971</v>
+        <v>0.9834999638070383</v>
       </c>
       <c r="F23">
-        <v>1.008420038273164</v>
+        <v>1.00510782799906</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041938021110874</v>
+        <v>1.044443581401771</v>
       </c>
       <c r="J23">
-        <v>0.9949998861098065</v>
+        <v>0.9876248074167628</v>
       </c>
       <c r="K23">
-        <v>1.034984116227402</v>
+        <v>1.033507845462993</v>
       </c>
       <c r="L23">
-        <v>1.003708576128185</v>
+        <v>0.9990849550868367</v>
       </c>
       <c r="M23">
-        <v>1.023517526823865</v>
+        <v>1.020268289670289</v>
       </c>
       <c r="N23">
-        <v>0.9964129000761645</v>
+        <v>0.9984414061430082</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9810631201585432</v>
+        <v>0.9669338130408827</v>
       </c>
       <c r="D24">
-        <v>1.029753098779965</v>
+        <v>1.024227946266616</v>
       </c>
       <c r="E24">
-        <v>1.002668220045118</v>
+        <v>0.9924650684116273</v>
       </c>
       <c r="F24">
-        <v>1.021413141944389</v>
+        <v>1.013206691247761</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04646198527767</v>
+        <v>1.046405753984862</v>
       </c>
       <c r="J24">
-        <v>1.009310134215976</v>
+        <v>0.9957669419478522</v>
       </c>
       <c r="K24">
-        <v>1.04327711459944</v>
+        <v>1.037842543908921</v>
       </c>
       <c r="L24">
-        <v>1.016648640215706</v>
+        <v>1.006625810737717</v>
       </c>
       <c r="M24">
-        <v>1.035074371978977</v>
+        <v>1.027005785160936</v>
       </c>
       <c r="N24">
-        <v>1.010743470376053</v>
+        <v>1.001331034940907</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000053282517184</v>
+        <v>0.9794614905858694</v>
       </c>
       <c r="D25">
-        <v>1.040136465959692</v>
+        <v>1.030453167777987</v>
       </c>
       <c r="E25">
-        <v>1.018145787960599</v>
+        <v>1.002347428031058</v>
       </c>
       <c r="F25">
-        <v>1.035358283825378</v>
+        <v>1.022144909484356</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05125653819648</v>
+        <v>1.048520395530396</v>
       </c>
       <c r="J25">
-        <v>1.024578853626059</v>
+        <v>1.004700393620579</v>
       </c>
       <c r="K25">
-        <v>1.052142101866769</v>
+        <v>1.042596440247166</v>
       </c>
       <c r="L25">
-        <v>1.030468796306426</v>
+        <v>1.014909412172648</v>
       </c>
       <c r="M25">
-        <v>1.047431428937333</v>
+        <v>1.034408912362966</v>
       </c>
       <c r="N25">
-        <v>1.026033873119045</v>
+        <v>1.004497161414727</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9889461479200541</v>
+        <v>1.039440053278146</v>
       </c>
       <c r="D2">
-        <v>1.035197763745684</v>
+        <v>1.049213022402575</v>
       </c>
       <c r="E2">
-        <v>1.009862162169328</v>
+        <v>1.047921438693354</v>
       </c>
       <c r="F2">
-        <v>1.028946570519593</v>
+        <v>1.058768178272876</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050086958687008</v>
+        <v>1.03895710367115</v>
       </c>
       <c r="J2">
-        <v>1.0114625804676</v>
+        <v>1.044532059003349</v>
       </c>
       <c r="K2">
-        <v>1.046187585586177</v>
+        <v>1.051970707526802</v>
       </c>
       <c r="L2">
-        <v>1.021185790201979</v>
+        <v>1.050682725919841</v>
       </c>
       <c r="M2">
-        <v>1.040016841908336</v>
+        <v>1.061499510705602</v>
       </c>
       <c r="N2">
-        <v>1.006889404139084</v>
+        <v>1.018617053227244</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9955721476076175</v>
+        <v>1.040816588124179</v>
       </c>
       <c r="D3">
-        <v>1.038525769784985</v>
+        <v>1.049898121860066</v>
       </c>
       <c r="E3">
-        <v>1.015128094731912</v>
+        <v>1.049058933976195</v>
       </c>
       <c r="F3">
-        <v>1.033714018234338</v>
+        <v>1.059785210839533</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051159451761879</v>
+        <v>1.039106450103648</v>
       </c>
       <c r="J3">
-        <v>1.016184252501261</v>
+        <v>1.045551664742903</v>
       </c>
       <c r="K3">
-        <v>1.048688340208531</v>
+        <v>1.052468336406603</v>
       </c>
       <c r="L3">
-        <v>1.025570999884291</v>
+        <v>1.051631319460515</v>
       </c>
       <c r="M3">
-        <v>1.043932956108955</v>
+        <v>1.062330127060744</v>
       </c>
       <c r="N3">
-        <v>1.008556854924282</v>
+        <v>1.018967428490599</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.999748751330465</v>
+        <v>1.041707084886664</v>
       </c>
       <c r="D4">
-        <v>1.040628307680055</v>
+        <v>1.050340841974222</v>
       </c>
       <c r="E4">
-        <v>1.018454019857071</v>
+        <v>1.049794908637081</v>
       </c>
       <c r="F4">
-        <v>1.036725176938947</v>
+        <v>1.060442929921757</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051824730461825</v>
+        <v>1.039201533388568</v>
       </c>
       <c r="J4">
-        <v>1.019158886258942</v>
+        <v>1.046210772455185</v>
       </c>
       <c r="K4">
-        <v>1.050259918213493</v>
+        <v>1.052789073047302</v>
       </c>
       <c r="L4">
-        <v>1.028334708399661</v>
+        <v>1.052244480799462</v>
       </c>
       <c r="M4">
-        <v>1.046399680400756</v>
+        <v>1.062866612938902</v>
       </c>
       <c r="N4">
-        <v>1.009605865039159</v>
+        <v>1.019193618369989</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001479386852509</v>
+        <v>1.04208140236024</v>
       </c>
       <c r="D5">
-        <v>1.04150047094307</v>
+        <v>1.05052682109596</v>
       </c>
       <c r="E5">
-        <v>1.019833637576507</v>
+        <v>1.050104299695271</v>
       </c>
       <c r="F5">
-        <v>1.037974177673261</v>
+        <v>1.060719347622928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052097730519499</v>
+        <v>1.039241134320322</v>
       </c>
       <c r="J5">
-        <v>1.020391014868969</v>
+        <v>1.046487709091636</v>
       </c>
       <c r="K5">
-        <v>1.050909843562219</v>
+        <v>1.052923608458802</v>
       </c>
       <c r="L5">
-        <v>1.029479688335421</v>
+        <v>1.052502101837761</v>
       </c>
       <c r="M5">
-        <v>1.047421244794713</v>
+        <v>1.063091918286945</v>
       </c>
       <c r="N5">
-        <v>1.010040005252613</v>
+        <v>1.0192885832204</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00176852686405</v>
+        <v>1.042144249241233</v>
       </c>
       <c r="D6">
-        <v>1.041646234680028</v>
+        <v>1.050558039564441</v>
       </c>
       <c r="E6">
-        <v>1.020064215877477</v>
+        <v>1.050156247125708</v>
       </c>
       <c r="F6">
-        <v>1.038182920890824</v>
+        <v>1.060765754273115</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052143181720973</v>
+        <v>1.039247761669382</v>
       </c>
       <c r="J6">
-        <v>1.020596839957379</v>
+        <v>1.046534199109289</v>
       </c>
       <c r="K6">
-        <v>1.05101834826382</v>
+        <v>1.052946179820196</v>
       </c>
       <c r="L6">
-        <v>1.029670967374897</v>
+        <v>1.052545348681302</v>
       </c>
       <c r="M6">
-        <v>1.047591882414486</v>
+        <v>1.063129734391362</v>
       </c>
       <c r="N6">
-        <v>1.010112505275652</v>
+        <v>1.019304520902959</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9997719735294289</v>
+        <v>1.041712086716564</v>
       </c>
       <c r="D7">
-        <v>1.040640007147332</v>
+        <v>1.050343327588556</v>
       </c>
       <c r="E7">
-        <v>1.018472526313223</v>
+        <v>1.049799042783074</v>
       </c>
       <c r="F7">
-        <v>1.03674193155598</v>
+        <v>1.060446623770892</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051828404323831</v>
+        <v>1.039202064000301</v>
       </c>
       <c r="J7">
-        <v>1.019175421220071</v>
+        <v>1.046214473491494</v>
       </c>
       <c r="K7">
-        <v>1.050268644360565</v>
+        <v>1.052790871903834</v>
       </c>
       <c r="L7">
-        <v>1.028350073014022</v>
+        <v>1.05224792373945</v>
       </c>
       <c r="M7">
-        <v>1.046413390452518</v>
+        <v>1.06286962439563</v>
       </c>
       <c r="N7">
-        <v>1.009611692624092</v>
+        <v>1.019194887786821</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9912092231425654</v>
+        <v>1.039905306077563</v>
       </c>
       <c r="D8">
-        <v>1.036333295257689</v>
+        <v>1.049444675900495</v>
       </c>
       <c r="E8">
-        <v>1.011659247027888</v>
+        <v>1.048305874281628</v>
       </c>
       <c r="F8">
-        <v>1.030573481683788</v>
+        <v>1.059111966160234</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050455471108502</v>
+        <v>1.039007897678967</v>
       </c>
       <c r="J8">
-        <v>1.01307553705546</v>
+        <v>1.04487677452874</v>
       </c>
       <c r="K8">
-        <v>1.047042611594344</v>
+        <v>1.052139144938816</v>
       </c>
       <c r="L8">
-        <v>1.02268356892152</v>
+        <v>1.05100344154766</v>
       </c>
       <c r="M8">
-        <v>1.041354648331456</v>
+        <v>1.0617804245455</v>
       </c>
       <c r="N8">
-        <v>1.007459316973606</v>
+        <v>1.018735573553168</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9752061548988833</v>
+        <v>1.036719727842057</v>
       </c>
       <c r="D9">
-        <v>1.028332906698504</v>
+        <v>1.047856670758421</v>
       </c>
       <c r="E9">
-        <v>0.998984996955767</v>
+        <v>1.045674169962287</v>
       </c>
       <c r="F9">
-        <v>1.019102709019873</v>
+        <v>1.056757260081427</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047807285076821</v>
+        <v>1.038653854751098</v>
       </c>
       <c r="J9">
-        <v>1.001665887444318</v>
+        <v>1.042514533682928</v>
       </c>
       <c r="K9">
-        <v>1.040982438838108</v>
+        <v>1.050981049546742</v>
       </c>
       <c r="L9">
-        <v>1.012094563369421</v>
+        <v>1.04880550897977</v>
       </c>
       <c r="M9">
-        <v>1.03189327858698</v>
+        <v>1.059853579310382</v>
       </c>
       <c r="N9">
-        <v>1.003422329530352</v>
+        <v>1.017922143425586</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9638215586113356</v>
+        <v>1.034594565085995</v>
       </c>
       <c r="D10">
-        <v>1.022689734569291</v>
+        <v>1.046795014924574</v>
       </c>
       <c r="E10">
-        <v>0.9900179183522845</v>
+        <v>1.043919209398587</v>
       </c>
       <c r="F10">
-        <v>1.010994931963191</v>
+        <v>1.055185464147921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04587389638872</v>
+        <v>1.038409830686645</v>
       </c>
       <c r="J10">
-        <v>0.993547926634613</v>
+        <v>1.040936171021166</v>
       </c>
       <c r="K10">
-        <v>1.036661057195742</v>
+        <v>1.050202482429113</v>
       </c>
       <c r="L10">
-        <v>1.004569772017836</v>
+        <v>1.047336750150355</v>
       </c>
       <c r="M10">
-        <v>1.025168467185917</v>
+        <v>1.058563887235043</v>
       </c>
       <c r="N10">
-        <v>1.000543814208375</v>
+        <v>1.017377086138697</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9586962333808129</v>
+        <v>1.033673951145631</v>
       </c>
       <c r="D11">
-        <v>1.020164439078198</v>
+        <v>1.046334600718068</v>
       </c>
       <c r="E11">
-        <v>0.9859949758708422</v>
+        <v>1.043159147980558</v>
       </c>
       <c r="F11">
-        <v>1.007360642869479</v>
+        <v>1.054504371680625</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044993329678413</v>
+        <v>1.03830226946072</v>
       </c>
       <c r="J11">
-        <v>0.9898942976955921</v>
+        <v>1.040251851376027</v>
       </c>
       <c r="K11">
-        <v>1.034715845572038</v>
+        <v>1.049863810305201</v>
       </c>
       <c r="L11">
-        <v>1.001185929228169</v>
+        <v>1.046699912717673</v>
       </c>
       <c r="M11">
-        <v>1.022145070530458</v>
+        <v>1.058004205247658</v>
       </c>
       <c r="N11">
-        <v>0.999247130664196</v>
+        <v>1.017140403746029</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9567605548661531</v>
+        <v>1.033331928773474</v>
       </c>
       <c r="D12">
-        <v>1.019213354637341</v>
+        <v>1.046163475788541</v>
       </c>
       <c r="E12">
-        <v>0.9844779561076564</v>
+        <v>1.042876802028369</v>
       </c>
       <c r="F12">
-        <v>1.005990773002393</v>
+        <v>1.054251307916102</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044659387260333</v>
+        <v>1.038262031359642</v>
       </c>
       <c r="J12">
-        <v>0.98851471882147</v>
+        <v>1.03999752975563</v>
       </c>
       <c r="K12">
-        <v>1.033981487736054</v>
+        <v>1.049737779690183</v>
       </c>
       <c r="L12">
-        <v>0.9999087008378266</v>
+        <v>1.046463232173303</v>
       </c>
       <c r="M12">
-        <v>1.021004092272953</v>
+        <v>1.057796127249916</v>
       </c>
       <c r="N12">
-        <v>0.9987573690018691</v>
+        <v>1.017052388003413</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9571772514748269</v>
+        <v>1.033405296765251</v>
       </c>
       <c r="D13">
-        <v>1.019417970874195</v>
+        <v>1.046200187488753</v>
       </c>
       <c r="E13">
-        <v>0.9848044188425834</v>
+        <v>1.04293736737833</v>
       </c>
       <c r="F13">
-        <v>1.006285540312811</v>
+        <v>1.054305594400839</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044731335371742</v>
+        <v>1.038270675469737</v>
       </c>
       <c r="J13">
-        <v>0.9888116879711349</v>
+        <v>1.040052088754706</v>
       </c>
       <c r="K13">
-        <v>1.034139556862671</v>
+        <v>1.049764824219212</v>
       </c>
       <c r="L13">
-        <v>1.000183615222287</v>
+        <v>1.04651400690782</v>
       </c>
       <c r="M13">
-        <v>1.02124966914389</v>
+        <v>1.057840769179549</v>
       </c>
       <c r="N13">
-        <v>0.9988628015189311</v>
+        <v>1.01707127227969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9585368958981207</v>
+        <v>1.033645680829737</v>
       </c>
       <c r="D14">
-        <v>1.020086093787101</v>
+        <v>1.04632045765189</v>
       </c>
       <c r="E14">
-        <v>0.9858700522953084</v>
+        <v>1.043135809706549</v>
       </c>
       <c r="F14">
-        <v>1.007247824054959</v>
+        <v>1.054483454903294</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044965867949276</v>
+        <v>1.038298949182373</v>
       </c>
       <c r="J14">
-        <v>0.9897807296149372</v>
+        <v>1.040230831838931</v>
       </c>
       <c r="K14">
-        <v>1.034655388738844</v>
+        <v>1.049853397323778</v>
       </c>
       <c r="L14">
-        <v>1.001080776600399</v>
+        <v>1.046680351310915</v>
       </c>
       <c r="M14">
-        <v>1.022051130574055</v>
+        <v>1.057987009282001</v>
       </c>
       <c r="N14">
-        <v>0.9992068158481293</v>
+        <v>1.017133130410042</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9593703104606366</v>
+        <v>1.033793780586217</v>
       </c>
       <c r="D15">
-        <v>1.020495988408682</v>
+        <v>1.046394545947249</v>
       </c>
       <c r="E15">
-        <v>0.9865235607570964</v>
+        <v>1.043258073147618</v>
       </c>
       <c r="F15">
-        <v>1.007838034118315</v>
+        <v>1.054593030556071</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045109451293918</v>
+        <v>1.038316331773722</v>
       </c>
       <c r="J15">
-        <v>0.9903747597273906</v>
+        <v>1.040340943398632</v>
       </c>
       <c r="K15">
-        <v>1.03497162144108</v>
+        <v>1.049907939293689</v>
       </c>
       <c r="L15">
-        <v>1.001630808725314</v>
+        <v>1.04678282419124</v>
       </c>
       <c r="M15">
-        <v>1.022542520206233</v>
+        <v>1.058077087790238</v>
       </c>
       <c r="N15">
-        <v>0.9994176811216358</v>
+        <v>1.01717122978838</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9641573789163468</v>
+        <v>1.034655654287704</v>
       </c>
       <c r="D16">
-        <v>1.022855541541391</v>
+        <v>1.046825556145166</v>
       </c>
       <c r="E16">
-        <v>0.9902818171007444</v>
+        <v>1.043969648759969</v>
       </c>
       <c r="F16">
-        <v>1.0112334107513</v>
+        <v>1.05523065547416</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045931394086423</v>
+        <v>1.038416929195867</v>
       </c>
       <c r="J16">
-        <v>0.9937873511364576</v>
+        <v>1.040981568312775</v>
       </c>
       <c r="K16">
-        <v>1.036788536900731</v>
+        <v>1.050224926361073</v>
       </c>
       <c r="L16">
-        <v>1.004791580517064</v>
+        <v>1.047378996741012</v>
       </c>
       <c r="M16">
-        <v>1.025366671043019</v>
+        <v>1.058601005310359</v>
       </c>
       <c r="N16">
-        <v>1.000628765024092</v>
+        <v>1.01739277980184</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9671061017664109</v>
+        <v>1.035196173365208</v>
       </c>
       <c r="D17">
-        <v>1.024313200861534</v>
+        <v>1.047095727388846</v>
       </c>
       <c r="E17">
-        <v>0.9926006319112463</v>
+        <v>1.044415958925608</v>
       </c>
       <c r="F17">
-        <v>1.013329235977465</v>
+        <v>1.055630487367436</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046435128787452</v>
+        <v>1.038479523340299</v>
       </c>
       <c r="J17">
-        <v>0.9958897897065793</v>
+        <v>1.041383178237075</v>
       </c>
       <c r="K17">
-        <v>1.037907950692143</v>
+        <v>1.050423349527485</v>
       </c>
       <c r="L17">
-        <v>1.006739654746981</v>
+        <v>1.047752729466465</v>
       </c>
       <c r="M17">
-        <v>1.027107523188846</v>
+        <v>1.058929312835287</v>
       </c>
       <c r="N17">
-        <v>1.00137460883737</v>
+        <v>1.017531572561692</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9688073407781768</v>
+        <v>1.035511410287925</v>
       </c>
       <c r="D18">
-        <v>1.02515559739288</v>
+        <v>1.047253245172394</v>
       </c>
       <c r="E18">
-        <v>0.9939397575810133</v>
+        <v>1.044676269605907</v>
       </c>
       <c r="F18">
-        <v>1.014539872507097</v>
+        <v>1.055863654935512</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046724786390373</v>
+        <v>1.038515850397259</v>
       </c>
       <c r="J18">
-        <v>0.9971028640871432</v>
+        <v>1.041617345975079</v>
       </c>
       <c r="K18">
-        <v>1.03855379432203</v>
+        <v>1.050538937116076</v>
       </c>
       <c r="L18">
-        <v>1.007863925121874</v>
+        <v>1.047970639087003</v>
       </c>
       <c r="M18">
-        <v>1.028112261368954</v>
+        <v>1.059120689820316</v>
       </c>
       <c r="N18">
-        <v>1.001804837994066</v>
+        <v>1.017612463540877</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9693843187054568</v>
+        <v>1.035618891504729</v>
       </c>
       <c r="D19">
-        <v>1.025441527281033</v>
+        <v>1.047306943037791</v>
       </c>
       <c r="E19">
-        <v>0.9943941397107167</v>
+        <v>1.044765026437667</v>
       </c>
       <c r="F19">
-        <v>1.014950702173475</v>
+        <v>1.055943151017022</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046822855927824</v>
+        <v>1.038528205937695</v>
       </c>
       <c r="J19">
-        <v>0.9975142921811633</v>
+        <v>1.041697176870545</v>
       </c>
       <c r="K19">
-        <v>1.03877282751062</v>
+        <v>1.050578324181351</v>
       </c>
       <c r="L19">
-        <v>1.00824527709749</v>
+        <v>1.048044926736088</v>
       </c>
       <c r="M19">
-        <v>1.028453075500124</v>
+        <v>1.059185924242347</v>
       </c>
       <c r="N19">
-        <v>1.001950735475717</v>
+        <v>1.017640034361481</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9667916832323454</v>
+        <v>1.035138184822376</v>
       </c>
       <c r="D20">
-        <v>1.024157623336201</v>
+        <v>1.047066747659667</v>
       </c>
       <c r="E20">
-        <v>0.9923532424983945</v>
+        <v>1.044368075586305</v>
       </c>
       <c r="F20">
-        <v>1.013105606094227</v>
+        <v>1.055587594125028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046381515701356</v>
+        <v>1.038472826515104</v>
       </c>
       <c r="J20">
-        <v>0.9956655990303825</v>
+        <v>1.041340098059023</v>
       </c>
       <c r="K20">
-        <v>1.037788586509207</v>
+        <v>1.050402076043249</v>
       </c>
       <c r="L20">
-        <v>1.006531896913847</v>
+        <v>1.047712640017932</v>
       </c>
       <c r="M20">
-        <v>1.026921858300514</v>
+        <v>1.058894100889256</v>
       </c>
       <c r="N20">
-        <v>1.001295088142475</v>
+        <v>1.017516688089108</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9581374167254072</v>
+        <v>1.033574895555571</v>
       </c>
       <c r="D21">
-        <v>1.019889716013755</v>
+        <v>1.046285044028175</v>
       </c>
       <c r="E21">
-        <v>0.9855568912659609</v>
+        <v>1.043077374105285</v>
       </c>
       <c r="F21">
-        <v>1.006965017444373</v>
+        <v>1.054431081519359</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044896996258152</v>
+        <v>1.038290631148447</v>
       </c>
       <c r="J21">
-        <v>0.9894960051395113</v>
+        <v>1.040178200201099</v>
       </c>
       <c r="K21">
-        <v>1.034503821363049</v>
+        <v>1.049827321177872</v>
       </c>
       <c r="L21">
-        <v>1.000817158308312</v>
+        <v>1.046631370658457</v>
       </c>
       <c r="M21">
-        <v>1.021815626073921</v>
+        <v>1.057943950395136</v>
       </c>
       <c r="N21">
-        <v>0.9991057410710085</v>
+        <v>1.017114917537456</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9525100921286712</v>
+        <v>1.032591613078863</v>
       </c>
       <c r="D22">
-        <v>1.017130198144307</v>
+        <v>1.045792939259035</v>
       </c>
       <c r="E22">
-        <v>0.9811513434193205</v>
+        <v>1.042265711244007</v>
       </c>
       <c r="F22">
-        <v>1.002988071352896</v>
+        <v>1.053703497478201</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043923729877138</v>
+        <v>1.0381744283253</v>
       </c>
       <c r="J22">
-        <v>0.9854860426752643</v>
+        <v>1.039446887346674</v>
       </c>
       <c r="K22">
-        <v>1.03236977303982</v>
+        <v>1.049464603481981</v>
       </c>
       <c r="L22">
-        <v>0.9971056772674234</v>
+        <v>1.045950775979996</v>
       </c>
       <c r="M22">
-        <v>1.018500565466939</v>
+        <v>1.057345469370048</v>
       </c>
       <c r="N22">
-        <v>0.9976819308362959</v>
+        <v>1.016861721559137</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9555117895921323</v>
+        <v>1.03311290732756</v>
       </c>
       <c r="D23">
-        <v>1.018600572251204</v>
+        <v>1.046053871727283</v>
       </c>
       <c r="E23">
-        <v>0.9834999638070383</v>
+        <v>1.042696003905353</v>
       </c>
       <c r="F23">
-        <v>1.00510782799906</v>
+        <v>1.054089245598461</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044443581401771</v>
+        <v>1.038236185995438</v>
       </c>
       <c r="J23">
-        <v>0.9876248074167628</v>
+        <v>1.039834645179423</v>
       </c>
       <c r="K23">
-        <v>1.033507845462993</v>
+        <v>1.04965701470549</v>
       </c>
       <c r="L23">
-        <v>0.9990849550868367</v>
+        <v>1.046311644685197</v>
       </c>
       <c r="M23">
-        <v>1.020268289670289</v>
+        <v>1.057662838667359</v>
       </c>
       <c r="N23">
-        <v>0.9984414061430082</v>
+        <v>1.016996001454556</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9669338130408827</v>
+        <v>1.03516438746819</v>
       </c>
       <c r="D24">
-        <v>1.024227946266616</v>
+        <v>1.047079842563806</v>
       </c>
       <c r="E24">
-        <v>0.9924650684116273</v>
+        <v>1.044389712050972</v>
       </c>
       <c r="F24">
-        <v>1.013206691247761</v>
+        <v>1.055606975882149</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046405753984862</v>
+        <v>1.038475853087801</v>
       </c>
       <c r="J24">
-        <v>0.9957669419478522</v>
+        <v>1.041359564398234</v>
       </c>
       <c r="K24">
-        <v>1.037842543908921</v>
+        <v>1.050411689076457</v>
       </c>
       <c r="L24">
-        <v>1.006625810737717</v>
+        <v>1.047730754968525</v>
       </c>
       <c r="M24">
-        <v>1.027005785160936</v>
+        <v>1.058910012020471</v>
       </c>
       <c r="N24">
-        <v>1.001331034940907</v>
+        <v>1.017523413940831</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9794614905858694</v>
+        <v>1.037543513500947</v>
       </c>
       <c r="D25">
-        <v>1.030453167777987</v>
+        <v>1.048267735607864</v>
       </c>
       <c r="E25">
-        <v>1.002347428031058</v>
+        <v>1.046354606263403</v>
       </c>
       <c r="F25">
-        <v>1.022144909484356</v>
+        <v>1.057366354465459</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048520395530396</v>
+        <v>1.038746792826356</v>
       </c>
       <c r="J25">
-        <v>1.004700393620579</v>
+        <v>1.043125842126547</v>
       </c>
       <c r="K25">
-        <v>1.042596440247166</v>
+        <v>1.051281591038233</v>
       </c>
       <c r="L25">
-        <v>1.014909412172648</v>
+        <v>1.049374330718806</v>
       </c>
       <c r="M25">
-        <v>1.034408912362966</v>
+        <v>1.060352614366965</v>
       </c>
       <c r="N25">
-        <v>1.004497161414727</v>
+        <v>1.018132919917558</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039440053278146</v>
+        <v>0.9889461479200533</v>
       </c>
       <c r="D2">
-        <v>1.049213022402575</v>
+        <v>1.035197763745683</v>
       </c>
       <c r="E2">
-        <v>1.047921438693354</v>
+        <v>1.009862162169327</v>
       </c>
       <c r="F2">
-        <v>1.058768178272876</v>
+        <v>1.028946570519593</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03895710367115</v>
+        <v>1.050086958687008</v>
       </c>
       <c r="J2">
-        <v>1.044532059003349</v>
+        <v>1.011462580467599</v>
       </c>
       <c r="K2">
-        <v>1.051970707526802</v>
+        <v>1.046187585586176</v>
       </c>
       <c r="L2">
-        <v>1.050682725919841</v>
+        <v>1.021185790201978</v>
       </c>
       <c r="M2">
-        <v>1.061499510705602</v>
+        <v>1.040016841908336</v>
       </c>
       <c r="N2">
-        <v>1.018617053227244</v>
+        <v>1.006889404139083</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040816588124179</v>
+        <v>0.9955721476076165</v>
       </c>
       <c r="D3">
-        <v>1.049898121860066</v>
+        <v>1.038525769784984</v>
       </c>
       <c r="E3">
-        <v>1.049058933976195</v>
+        <v>1.015128094731911</v>
       </c>
       <c r="F3">
-        <v>1.059785210839533</v>
+        <v>1.033714018234337</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039106450103648</v>
+        <v>1.051159451761879</v>
       </c>
       <c r="J3">
-        <v>1.045551664742903</v>
+        <v>1.016184252501259</v>
       </c>
       <c r="K3">
-        <v>1.052468336406603</v>
+        <v>1.048688340208531</v>
       </c>
       <c r="L3">
-        <v>1.051631319460515</v>
+        <v>1.02557099988429</v>
       </c>
       <c r="M3">
-        <v>1.062330127060744</v>
+        <v>1.043932956108954</v>
       </c>
       <c r="N3">
-        <v>1.018967428490599</v>
+        <v>1.008556854924282</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041707084886664</v>
+        <v>0.9997487513304645</v>
       </c>
       <c r="D4">
-        <v>1.050340841974222</v>
+        <v>1.040628307680055</v>
       </c>
       <c r="E4">
-        <v>1.049794908637081</v>
+        <v>1.01845401985707</v>
       </c>
       <c r="F4">
-        <v>1.060442929921757</v>
+        <v>1.036725176938947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039201533388568</v>
+        <v>1.051824730461825</v>
       </c>
       <c r="J4">
-        <v>1.046210772455185</v>
+        <v>1.019158886258941</v>
       </c>
       <c r="K4">
-        <v>1.052789073047302</v>
+        <v>1.050259918213492</v>
       </c>
       <c r="L4">
-        <v>1.052244480799462</v>
+        <v>1.02833470839966</v>
       </c>
       <c r="M4">
-        <v>1.062866612938902</v>
+        <v>1.046399680400756</v>
       </c>
       <c r="N4">
-        <v>1.019193618369989</v>
+        <v>1.009605865039159</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04208140236024</v>
+        <v>1.00147938685251</v>
       </c>
       <c r="D5">
-        <v>1.05052682109596</v>
+        <v>1.041500470943071</v>
       </c>
       <c r="E5">
-        <v>1.050104299695271</v>
+        <v>1.019833637576507</v>
       </c>
       <c r="F5">
-        <v>1.060719347622928</v>
+        <v>1.037974177673262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039241134320322</v>
+        <v>1.052097730519499</v>
       </c>
       <c r="J5">
-        <v>1.046487709091636</v>
+        <v>1.020391014868969</v>
       </c>
       <c r="K5">
-        <v>1.052923608458802</v>
+        <v>1.05090984356222</v>
       </c>
       <c r="L5">
-        <v>1.052502101837761</v>
+        <v>1.029479688335422</v>
       </c>
       <c r="M5">
-        <v>1.063091918286945</v>
+        <v>1.047421244794714</v>
       </c>
       <c r="N5">
-        <v>1.0192885832204</v>
+        <v>1.010040005252613</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042144249241233</v>
+        <v>1.001768526864051</v>
       </c>
       <c r="D6">
-        <v>1.050558039564441</v>
+        <v>1.041646234680028</v>
       </c>
       <c r="E6">
-        <v>1.050156247125708</v>
+        <v>1.020064215877478</v>
       </c>
       <c r="F6">
-        <v>1.060765754273115</v>
+        <v>1.038182920890825</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039247761669382</v>
+        <v>1.052143181720973</v>
       </c>
       <c r="J6">
-        <v>1.046534199109289</v>
+        <v>1.02059683995738</v>
       </c>
       <c r="K6">
-        <v>1.052946179820196</v>
+        <v>1.051018348263821</v>
       </c>
       <c r="L6">
-        <v>1.052545348681302</v>
+        <v>1.029670967374898</v>
       </c>
       <c r="M6">
-        <v>1.063129734391362</v>
+        <v>1.047591882414487</v>
       </c>
       <c r="N6">
-        <v>1.019304520902959</v>
+        <v>1.010112505275652</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041712086716564</v>
+        <v>0.9997719735294286</v>
       </c>
       <c r="D7">
-        <v>1.050343327588556</v>
+        <v>1.040640007147332</v>
       </c>
       <c r="E7">
-        <v>1.049799042783074</v>
+        <v>1.018472526313223</v>
       </c>
       <c r="F7">
-        <v>1.060446623770892</v>
+        <v>1.03674193155598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039202064000301</v>
+        <v>1.051828404323831</v>
       </c>
       <c r="J7">
-        <v>1.046214473491494</v>
+        <v>1.01917542122007</v>
       </c>
       <c r="K7">
-        <v>1.052790871903834</v>
+        <v>1.050268644360565</v>
       </c>
       <c r="L7">
-        <v>1.05224792373945</v>
+        <v>1.028350073014022</v>
       </c>
       <c r="M7">
-        <v>1.06286962439563</v>
+        <v>1.046413390452518</v>
       </c>
       <c r="N7">
-        <v>1.019194887786821</v>
+        <v>1.009611692624091</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039905306077563</v>
+        <v>0.9912092231425653</v>
       </c>
       <c r="D8">
-        <v>1.049444675900495</v>
+        <v>1.036333295257689</v>
       </c>
       <c r="E8">
-        <v>1.048305874281628</v>
+        <v>1.011659247027888</v>
       </c>
       <c r="F8">
-        <v>1.059111966160234</v>
+        <v>1.030573481683787</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039007897678967</v>
+        <v>1.050455471108501</v>
       </c>
       <c r="J8">
-        <v>1.04487677452874</v>
+        <v>1.01307553705546</v>
       </c>
       <c r="K8">
-        <v>1.052139144938816</v>
+        <v>1.047042611594344</v>
       </c>
       <c r="L8">
-        <v>1.05100344154766</v>
+        <v>1.02268356892152</v>
       </c>
       <c r="M8">
-        <v>1.0617804245455</v>
+        <v>1.041354648331456</v>
       </c>
       <c r="N8">
-        <v>1.018735573553168</v>
+        <v>1.007459316973606</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036719727842057</v>
+        <v>0.9752061548988832</v>
       </c>
       <c r="D9">
-        <v>1.047856670758421</v>
+        <v>1.028332906698504</v>
       </c>
       <c r="E9">
-        <v>1.045674169962287</v>
+        <v>0.9989849969557668</v>
       </c>
       <c r="F9">
-        <v>1.056757260081427</v>
+        <v>1.019102709019873</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038653854751098</v>
+        <v>1.047807285076821</v>
       </c>
       <c r="J9">
-        <v>1.042514533682928</v>
+        <v>1.001665887444318</v>
       </c>
       <c r="K9">
-        <v>1.050981049546742</v>
+        <v>1.040982438838108</v>
       </c>
       <c r="L9">
-        <v>1.04880550897977</v>
+        <v>1.012094563369421</v>
       </c>
       <c r="M9">
-        <v>1.059853579310382</v>
+        <v>1.03189327858698</v>
       </c>
       <c r="N9">
-        <v>1.017922143425586</v>
+        <v>1.003422329530352</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034594565085995</v>
+        <v>0.9638215586113346</v>
       </c>
       <c r="D10">
-        <v>1.046795014924574</v>
+        <v>1.02268973456929</v>
       </c>
       <c r="E10">
-        <v>1.043919209398587</v>
+        <v>0.9900179183522831</v>
       </c>
       <c r="F10">
-        <v>1.055185464147921</v>
+        <v>1.01099493196319</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038409830686645</v>
+        <v>1.04587389638872</v>
       </c>
       <c r="J10">
-        <v>1.040936171021166</v>
+        <v>0.9935479266346119</v>
       </c>
       <c r="K10">
-        <v>1.050202482429113</v>
+        <v>1.036661057195741</v>
       </c>
       <c r="L10">
-        <v>1.047336750150355</v>
+        <v>1.004569772017835</v>
       </c>
       <c r="M10">
-        <v>1.058563887235043</v>
+        <v>1.025168467185915</v>
       </c>
       <c r="N10">
-        <v>1.017377086138697</v>
+        <v>1.000543814208374</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033673951145631</v>
+        <v>0.9586962333808129</v>
       </c>
       <c r="D11">
-        <v>1.046334600718068</v>
+        <v>1.020164439078198</v>
       </c>
       <c r="E11">
-        <v>1.043159147980558</v>
+        <v>0.9859949758708423</v>
       </c>
       <c r="F11">
-        <v>1.054504371680625</v>
+        <v>1.007360642869479</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03830226946072</v>
+        <v>1.044993329678412</v>
       </c>
       <c r="J11">
-        <v>1.040251851376027</v>
+        <v>0.9898942976955922</v>
       </c>
       <c r="K11">
-        <v>1.049863810305201</v>
+        <v>1.034715845572038</v>
       </c>
       <c r="L11">
-        <v>1.046699912717673</v>
+        <v>1.001185929228169</v>
       </c>
       <c r="M11">
-        <v>1.058004205247658</v>
+        <v>1.022145070530458</v>
       </c>
       <c r="N11">
-        <v>1.017140403746029</v>
+        <v>0.9992471306641961</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033331928773474</v>
+        <v>0.9567605548661531</v>
       </c>
       <c r="D12">
-        <v>1.046163475788541</v>
+        <v>1.01921335463734</v>
       </c>
       <c r="E12">
-        <v>1.042876802028369</v>
+        <v>0.9844779561076561</v>
       </c>
       <c r="F12">
-        <v>1.054251307916102</v>
+        <v>1.005990773002392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038262031359642</v>
+        <v>1.044659387260333</v>
       </c>
       <c r="J12">
-        <v>1.03999752975563</v>
+        <v>0.9885147188214698</v>
       </c>
       <c r="K12">
-        <v>1.049737779690183</v>
+        <v>1.033981487736053</v>
       </c>
       <c r="L12">
-        <v>1.046463232173303</v>
+        <v>0.9999087008378262</v>
       </c>
       <c r="M12">
-        <v>1.057796127249916</v>
+        <v>1.021004092272952</v>
       </c>
       <c r="N12">
-        <v>1.017052388003413</v>
+        <v>0.998757369001869</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033405296765251</v>
+        <v>0.9571772514748276</v>
       </c>
       <c r="D13">
-        <v>1.046200187488753</v>
+        <v>1.019417970874195</v>
       </c>
       <c r="E13">
-        <v>1.04293736737833</v>
+        <v>0.9848044188425839</v>
       </c>
       <c r="F13">
-        <v>1.054305594400839</v>
+        <v>1.006285540312812</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038270675469737</v>
+        <v>1.044731335371742</v>
       </c>
       <c r="J13">
-        <v>1.040052088754706</v>
+        <v>0.9888116879711352</v>
       </c>
       <c r="K13">
-        <v>1.049764824219212</v>
+        <v>1.034139556862671</v>
       </c>
       <c r="L13">
-        <v>1.04651400690782</v>
+        <v>1.000183615222288</v>
       </c>
       <c r="M13">
-        <v>1.057840769179549</v>
+        <v>1.021249669143891</v>
       </c>
       <c r="N13">
-        <v>1.01707127227969</v>
+        <v>0.9988628015189314</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033645680829737</v>
+        <v>0.9585368958981212</v>
       </c>
       <c r="D14">
-        <v>1.04632045765189</v>
+        <v>1.020086093787102</v>
       </c>
       <c r="E14">
-        <v>1.043135809706549</v>
+        <v>0.9858700522953087</v>
       </c>
       <c r="F14">
-        <v>1.054483454903294</v>
+        <v>1.007247824054959</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038298949182373</v>
+        <v>1.044965867949276</v>
       </c>
       <c r="J14">
-        <v>1.040230831838931</v>
+        <v>0.9897807296149378</v>
       </c>
       <c r="K14">
-        <v>1.049853397323778</v>
+        <v>1.034655388738844</v>
       </c>
       <c r="L14">
-        <v>1.046680351310915</v>
+        <v>1.0010807766004</v>
       </c>
       <c r="M14">
-        <v>1.057987009282001</v>
+        <v>1.022051130574055</v>
       </c>
       <c r="N14">
-        <v>1.017133130410042</v>
+        <v>0.9992068158481293</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033793780586217</v>
+        <v>0.9593703104606357</v>
       </c>
       <c r="D15">
-        <v>1.046394545947249</v>
+        <v>1.020495988408682</v>
       </c>
       <c r="E15">
-        <v>1.043258073147618</v>
+        <v>0.9865235607570956</v>
       </c>
       <c r="F15">
-        <v>1.054593030556071</v>
+        <v>1.007838034118314</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038316331773722</v>
+        <v>1.045109451293918</v>
       </c>
       <c r="J15">
-        <v>1.040340943398632</v>
+        <v>0.9903747597273901</v>
       </c>
       <c r="K15">
-        <v>1.049907939293689</v>
+        <v>1.03497162144108</v>
       </c>
       <c r="L15">
-        <v>1.04678282419124</v>
+        <v>1.001630808725313</v>
       </c>
       <c r="M15">
-        <v>1.058077087790238</v>
+        <v>1.022542520206232</v>
       </c>
       <c r="N15">
-        <v>1.01717122978838</v>
+        <v>0.9994176811216354</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034655654287704</v>
+        <v>0.9641573789163462</v>
       </c>
       <c r="D16">
-        <v>1.046825556145166</v>
+        <v>1.022855541541391</v>
       </c>
       <c r="E16">
-        <v>1.043969648759969</v>
+        <v>0.9902818171007437</v>
       </c>
       <c r="F16">
-        <v>1.05523065547416</v>
+        <v>1.0112334107513</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038416929195867</v>
+        <v>1.045931394086423</v>
       </c>
       <c r="J16">
-        <v>1.040981568312775</v>
+        <v>0.993787351136457</v>
       </c>
       <c r="K16">
-        <v>1.050224926361073</v>
+        <v>1.036788536900731</v>
       </c>
       <c r="L16">
-        <v>1.047378996741012</v>
+        <v>1.004791580517064</v>
       </c>
       <c r="M16">
-        <v>1.058601005310359</v>
+        <v>1.025366671043018</v>
       </c>
       <c r="N16">
-        <v>1.01739277980184</v>
+        <v>1.000628765024092</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035196173365208</v>
+        <v>0.9671061017664109</v>
       </c>
       <c r="D17">
-        <v>1.047095727388846</v>
+        <v>1.024313200861534</v>
       </c>
       <c r="E17">
-        <v>1.044415958925608</v>
+        <v>0.9926006319112464</v>
       </c>
       <c r="F17">
-        <v>1.055630487367436</v>
+        <v>1.013329235977465</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038479523340299</v>
+        <v>1.046435128787452</v>
       </c>
       <c r="J17">
-        <v>1.041383178237075</v>
+        <v>0.9958897897065793</v>
       </c>
       <c r="K17">
-        <v>1.050423349527485</v>
+        <v>1.037907950692143</v>
       </c>
       <c r="L17">
-        <v>1.047752729466465</v>
+        <v>1.006739654746981</v>
       </c>
       <c r="M17">
-        <v>1.058929312835287</v>
+        <v>1.027107523188847</v>
       </c>
       <c r="N17">
-        <v>1.017531572561692</v>
+        <v>1.00137460883737</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035511410287925</v>
+        <v>0.9688073407781767</v>
       </c>
       <c r="D18">
-        <v>1.047253245172394</v>
+        <v>1.02515559739288</v>
       </c>
       <c r="E18">
-        <v>1.044676269605907</v>
+        <v>0.9939397575810133</v>
       </c>
       <c r="F18">
-        <v>1.055863654935512</v>
+        <v>1.014539872507097</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038515850397259</v>
+        <v>1.046724786390373</v>
       </c>
       <c r="J18">
-        <v>1.041617345975079</v>
+        <v>0.9971028640871433</v>
       </c>
       <c r="K18">
-        <v>1.050538937116076</v>
+        <v>1.03855379432203</v>
       </c>
       <c r="L18">
-        <v>1.047970639087003</v>
+        <v>1.007863925121874</v>
       </c>
       <c r="M18">
-        <v>1.059120689820316</v>
+        <v>1.028112261368954</v>
       </c>
       <c r="N18">
-        <v>1.017612463540877</v>
+        <v>1.001804837994066</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035618891504729</v>
+        <v>0.9693843187054569</v>
       </c>
       <c r="D19">
-        <v>1.047306943037791</v>
+        <v>1.025441527281033</v>
       </c>
       <c r="E19">
-        <v>1.044765026437667</v>
+        <v>0.9943941397107168</v>
       </c>
       <c r="F19">
-        <v>1.055943151017022</v>
+        <v>1.014950702173475</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038528205937695</v>
+        <v>1.046822855927824</v>
       </c>
       <c r="J19">
-        <v>1.041697176870545</v>
+        <v>0.9975142921811635</v>
       </c>
       <c r="K19">
-        <v>1.050578324181351</v>
+        <v>1.03877282751062</v>
       </c>
       <c r="L19">
-        <v>1.048044926736088</v>
+        <v>1.008245277097491</v>
       </c>
       <c r="M19">
-        <v>1.059185924242347</v>
+        <v>1.028453075500124</v>
       </c>
       <c r="N19">
-        <v>1.017640034361481</v>
+        <v>1.001950735475717</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035138184822376</v>
+        <v>0.9667916832323454</v>
       </c>
       <c r="D20">
-        <v>1.047066747659667</v>
+        <v>1.024157623336201</v>
       </c>
       <c r="E20">
-        <v>1.044368075586305</v>
+        <v>0.9923532424983942</v>
       </c>
       <c r="F20">
-        <v>1.055587594125028</v>
+        <v>1.013105606094227</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038472826515104</v>
+        <v>1.046381515701356</v>
       </c>
       <c r="J20">
-        <v>1.041340098059023</v>
+        <v>0.9956655990303825</v>
       </c>
       <c r="K20">
-        <v>1.050402076043249</v>
+        <v>1.037788586509207</v>
       </c>
       <c r="L20">
-        <v>1.047712640017932</v>
+        <v>1.006531896913847</v>
       </c>
       <c r="M20">
-        <v>1.058894100889256</v>
+        <v>1.026921858300513</v>
       </c>
       <c r="N20">
-        <v>1.017516688089108</v>
+        <v>1.001295088142475</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033574895555571</v>
+        <v>0.9581374167254069</v>
       </c>
       <c r="D21">
-        <v>1.046285044028175</v>
+        <v>1.019889716013755</v>
       </c>
       <c r="E21">
-        <v>1.043077374105285</v>
+        <v>0.985556891265961</v>
       </c>
       <c r="F21">
-        <v>1.054431081519359</v>
+        <v>1.006965017444373</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038290631148447</v>
+        <v>1.044896996258152</v>
       </c>
       <c r="J21">
-        <v>1.040178200201099</v>
+        <v>0.9894960051395112</v>
       </c>
       <c r="K21">
-        <v>1.049827321177872</v>
+        <v>1.034503821363049</v>
       </c>
       <c r="L21">
-        <v>1.046631370658457</v>
+        <v>1.000817158308312</v>
       </c>
       <c r="M21">
-        <v>1.057943950395136</v>
+        <v>1.021815626073922</v>
       </c>
       <c r="N21">
-        <v>1.017114917537456</v>
+        <v>0.9991057410710085</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032591613078863</v>
+        <v>0.9525100921286717</v>
       </c>
       <c r="D22">
-        <v>1.045792939259035</v>
+        <v>1.017130198144307</v>
       </c>
       <c r="E22">
-        <v>1.042265711244007</v>
+        <v>0.9811513434193211</v>
       </c>
       <c r="F22">
-        <v>1.053703497478201</v>
+        <v>1.002988071352897</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0381744283253</v>
+        <v>1.043923729877138</v>
       </c>
       <c r="J22">
-        <v>1.039446887346674</v>
+        <v>0.9854860426752646</v>
       </c>
       <c r="K22">
-        <v>1.049464603481981</v>
+        <v>1.03236977303982</v>
       </c>
       <c r="L22">
-        <v>1.045950775979996</v>
+        <v>0.9971056772674237</v>
       </c>
       <c r="M22">
-        <v>1.057345469370048</v>
+        <v>1.018500565466939</v>
       </c>
       <c r="N22">
-        <v>1.016861721559137</v>
+        <v>0.997681930836296</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03311290732756</v>
+        <v>0.9555117895921335</v>
       </c>
       <c r="D23">
-        <v>1.046053871727283</v>
+        <v>1.018600572251204</v>
       </c>
       <c r="E23">
-        <v>1.042696003905353</v>
+        <v>0.9834999638070391</v>
       </c>
       <c r="F23">
-        <v>1.054089245598461</v>
+        <v>1.00510782799906</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038236185995438</v>
+        <v>1.044443581401772</v>
       </c>
       <c r="J23">
-        <v>1.039834645179423</v>
+        <v>0.9876248074167635</v>
       </c>
       <c r="K23">
-        <v>1.04965701470549</v>
+        <v>1.033507845462993</v>
       </c>
       <c r="L23">
-        <v>1.046311644685197</v>
+        <v>0.9990849550868376</v>
       </c>
       <c r="M23">
-        <v>1.057662838667359</v>
+        <v>1.020268289670289</v>
       </c>
       <c r="N23">
-        <v>1.016996001454556</v>
+        <v>0.9984414061430087</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03516438746819</v>
+        <v>0.9669338130408844</v>
       </c>
       <c r="D24">
-        <v>1.047079842563806</v>
+        <v>1.024227946266617</v>
       </c>
       <c r="E24">
-        <v>1.044389712050972</v>
+        <v>0.9924650684116288</v>
       </c>
       <c r="F24">
-        <v>1.055606975882149</v>
+        <v>1.013206691247763</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038475853087801</v>
+        <v>1.046405753984863</v>
       </c>
       <c r="J24">
-        <v>1.041359564398234</v>
+        <v>0.9957669419478539</v>
       </c>
       <c r="K24">
-        <v>1.050411689076457</v>
+        <v>1.037842543908922</v>
       </c>
       <c r="L24">
-        <v>1.047730754968525</v>
+        <v>1.006625810737718</v>
       </c>
       <c r="M24">
-        <v>1.058910012020471</v>
+        <v>1.027005785160938</v>
       </c>
       <c r="N24">
-        <v>1.017523413940831</v>
+        <v>1.001331034940907</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037543513500947</v>
+        <v>0.9794614905858704</v>
       </c>
       <c r="D25">
-        <v>1.048267735607864</v>
+        <v>1.030453167777988</v>
       </c>
       <c r="E25">
-        <v>1.046354606263403</v>
+        <v>1.002347428031059</v>
       </c>
       <c r="F25">
-        <v>1.057366354465459</v>
+        <v>1.022144909484356</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038746792826356</v>
+        <v>1.048520395530397</v>
       </c>
       <c r="J25">
-        <v>1.043125842126547</v>
+        <v>1.00470039362058</v>
       </c>
       <c r="K25">
-        <v>1.051281591038233</v>
+        <v>1.042596440247166</v>
       </c>
       <c r="L25">
-        <v>1.049374330718806</v>
+        <v>1.014909412172649</v>
       </c>
       <c r="M25">
-        <v>1.060352614366965</v>
+        <v>1.034408912362966</v>
       </c>
       <c r="N25">
-        <v>1.018132919917558</v>
+        <v>1.004497161414728</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9889461479200533</v>
+        <v>1.019278960497789</v>
       </c>
       <c r="D2">
-        <v>1.035197763745683</v>
+        <v>1.046635439806329</v>
       </c>
       <c r="E2">
-        <v>1.009862162169327</v>
+        <v>1.034149765400366</v>
       </c>
       <c r="F2">
-        <v>1.028946570519593</v>
+        <v>1.047701660830922</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050086958687008</v>
+        <v>1.055199578878623</v>
       </c>
       <c r="J2">
-        <v>1.011462580467599</v>
+        <v>1.04089794392109</v>
       </c>
       <c r="K2">
-        <v>1.046187585586176</v>
+        <v>1.057481164598201</v>
       </c>
       <c r="L2">
-        <v>1.021185790201978</v>
+        <v>1.04515298960666</v>
       </c>
       <c r="M2">
-        <v>1.040016841908336</v>
+        <v>1.058534152549335</v>
       </c>
       <c r="N2">
-        <v>1.006889404139083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017109090346533</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054898105133013</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.051714294948223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9955721476076165</v>
+        <v>1.023427844492008</v>
       </c>
       <c r="D3">
-        <v>1.038525769784984</v>
+        <v>1.048815480327029</v>
       </c>
       <c r="E3">
-        <v>1.015128094731911</v>
+        <v>1.037285141117695</v>
       </c>
       <c r="F3">
-        <v>1.033714018234337</v>
+        <v>1.050399050104943</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051159451761879</v>
+        <v>1.056127743771446</v>
       </c>
       <c r="J3">
-        <v>1.016184252501259</v>
+        <v>1.043299597093068</v>
       </c>
       <c r="K3">
-        <v>1.048688340208531</v>
+        <v>1.058859652526857</v>
       </c>
       <c r="L3">
-        <v>1.02557099988429</v>
+        <v>1.047462183041826</v>
       </c>
       <c r="M3">
-        <v>1.043932956108954</v>
+        <v>1.060425254938463</v>
       </c>
       <c r="N3">
-        <v>1.008556854924282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017944364689121</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.056394755277298</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.052686352272763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9997487513304645</v>
+        <v>1.026064174995367</v>
       </c>
       <c r="D4">
-        <v>1.040628307680055</v>
+        <v>1.050207427456102</v>
       </c>
       <c r="E4">
-        <v>1.01845401985707</v>
+        <v>1.039283755686924</v>
       </c>
       <c r="F4">
-        <v>1.036725176938947</v>
+        <v>1.052120560894629</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051824730461825</v>
+        <v>1.0567108233558</v>
       </c>
       <c r="J4">
-        <v>1.019158886258941</v>
+        <v>1.044823865019769</v>
       </c>
       <c r="K4">
-        <v>1.050259918213492</v>
+        <v>1.059735425302243</v>
       </c>
       <c r="L4">
-        <v>1.02833470839966</v>
+        <v>1.048930097311749</v>
       </c>
       <c r="M4">
-        <v>1.046399680400756</v>
+        <v>1.061628142067112</v>
       </c>
       <c r="N4">
-        <v>1.009605865039159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018474187073422</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.057346738795351</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.053306456463927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00147938685251</v>
+        <v>1.027163734528013</v>
       </c>
       <c r="D5">
-        <v>1.041500470943071</v>
+        <v>1.050793303042623</v>
       </c>
       <c r="E5">
-        <v>1.019833637576507</v>
+        <v>1.04011949602188</v>
       </c>
       <c r="F5">
-        <v>1.037974177673262</v>
+        <v>1.05284168487311</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052097730519499</v>
+        <v>1.056954236163321</v>
       </c>
       <c r="J5">
-        <v>1.020391014868969</v>
+        <v>1.045460110297406</v>
       </c>
       <c r="K5">
-        <v>1.05090984356222</v>
+        <v>1.060104819847415</v>
       </c>
       <c r="L5">
-        <v>1.029479688335422</v>
+        <v>1.049543593360757</v>
       </c>
       <c r="M5">
-        <v>1.047421244794714</v>
+        <v>1.062131915369589</v>
       </c>
       <c r="N5">
-        <v>1.010040005252613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018695696264815</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.057745432443539</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.053574681875981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001768526864051</v>
+        <v>1.027350675261067</v>
       </c>
       <c r="D6">
-        <v>1.041646234680028</v>
+        <v>1.050897583877704</v>
       </c>
       <c r="E6">
-        <v>1.020064215877478</v>
+        <v>1.040262505845196</v>
       </c>
       <c r="F6">
-        <v>1.038182920890825</v>
+        <v>1.052966045228077</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052143181720973</v>
+        <v>1.056997792347127</v>
       </c>
       <c r="J6">
-        <v>1.02059683995738</v>
+        <v>1.04556943491675</v>
       </c>
       <c r="K6">
-        <v>1.051018348263821</v>
+        <v>1.060172721780337</v>
       </c>
       <c r="L6">
-        <v>1.029670967374898</v>
+        <v>1.04964930559421</v>
       </c>
       <c r="M6">
-        <v>1.047591882414487</v>
+        <v>1.062219785259618</v>
       </c>
       <c r="N6">
-        <v>1.010112505275652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018734282500452</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.057814973953881</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.053631280092491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9997719735294286</v>
+        <v>1.026086912647414</v>
       </c>
       <c r="D7">
-        <v>1.040640007147332</v>
+        <v>1.050231805970104</v>
       </c>
       <c r="E7">
-        <v>1.018472526313223</v>
+        <v>1.039303284007953</v>
       </c>
       <c r="F7">
-        <v>1.03674193155598</v>
+        <v>1.0521398947726</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051828404323831</v>
+        <v>1.056721957069631</v>
       </c>
       <c r="J7">
-        <v>1.01917542122007</v>
+        <v>1.0448402044403</v>
       </c>
       <c r="K7">
-        <v>1.050268644360565</v>
+        <v>1.059756732186389</v>
       </c>
       <c r="L7">
-        <v>1.028350073014022</v>
+        <v>1.048946561128306</v>
       </c>
       <c r="M7">
-        <v>1.046413390452518</v>
+        <v>1.061644465939323</v>
       </c>
       <c r="N7">
-        <v>1.009611692624091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018481318859696</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.057359657752689</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.053341273104592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9912092231425653</v>
+        <v>1.020701428411812</v>
       </c>
       <c r="D8">
-        <v>1.036333295257689</v>
+        <v>1.047396614629335</v>
       </c>
       <c r="E8">
-        <v>1.011659247027888</v>
+        <v>1.035226262706542</v>
       </c>
       <c r="F8">
-        <v>1.030573481683787</v>
+        <v>1.048630339065549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050455471108501</v>
+        <v>1.055526739264872</v>
       </c>
       <c r="J8">
-        <v>1.01307553705546</v>
+        <v>1.041725706378626</v>
       </c>
       <c r="K8">
-        <v>1.047042611594344</v>
+        <v>1.05797067535687</v>
       </c>
       <c r="L8">
-        <v>1.02268356892152</v>
+        <v>1.045949311317567</v>
       </c>
       <c r="M8">
-        <v>1.041354648331456</v>
+        <v>1.059189536330685</v>
       </c>
       <c r="N8">
-        <v>1.007459316973606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017398930112634</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.055416787181497</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.052082910668899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9752061548988832</v>
+        <v>1.010811408136068</v>
       </c>
       <c r="D9">
-        <v>1.028332906698504</v>
+        <v>1.042226067655813</v>
       </c>
       <c r="E9">
-        <v>0.9989849969557668</v>
+        <v>1.027787454477909</v>
       </c>
       <c r="F9">
-        <v>1.019102709019873</v>
+        <v>1.042240283918595</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047807285076821</v>
+        <v>1.053270461917993</v>
       </c>
       <c r="J9">
-        <v>1.001665887444318</v>
+        <v>1.035988080356611</v>
       </c>
       <c r="K9">
-        <v>1.040982438838108</v>
+        <v>1.054669289348986</v>
       </c>
       <c r="L9">
-        <v>1.012094563369421</v>
+        <v>1.040445231407494</v>
       </c>
       <c r="M9">
-        <v>1.03189327858698</v>
+        <v>1.054683298077631</v>
       </c>
       <c r="N9">
-        <v>1.003422329530352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015400272635813</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.051850465188948</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.04974557409745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9638215586113346</v>
+        <v>1.003999170757293</v>
       </c>
       <c r="D10">
-        <v>1.02268973456929</v>
+        <v>1.038734565693133</v>
       </c>
       <c r="E10">
-        <v>0.9900179183522831</v>
+        <v>1.022725365420824</v>
       </c>
       <c r="F10">
-        <v>1.01099493196319</v>
+        <v>1.03793958711462</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04587389638872</v>
+        <v>1.051709381148677</v>
       </c>
       <c r="J10">
-        <v>0.9935479266346119</v>
+        <v>1.032055013013425</v>
       </c>
       <c r="K10">
-        <v>1.036661057195741</v>
+        <v>1.052437985121215</v>
       </c>
       <c r="L10">
-        <v>1.004569772017835</v>
+        <v>1.036696081086799</v>
       </c>
       <c r="M10">
-        <v>1.025168467185915</v>
+        <v>1.051656029661466</v>
       </c>
       <c r="N10">
-        <v>1.000543814208374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014037391810211</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.049505377555606</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.048184481592173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586962333808129</v>
+        <v>1.001509453533258</v>
       </c>
       <c r="D11">
-        <v>1.020164439078198</v>
+        <v>1.037683908010898</v>
       </c>
       <c r="E11">
-        <v>0.9859949758708423</v>
+        <v>1.0210726405204</v>
       </c>
       <c r="F11">
-        <v>1.007360642869479</v>
+        <v>1.036817006352964</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044993329678412</v>
+        <v>1.051329282144521</v>
       </c>
       <c r="J11">
-        <v>0.9898942976955922</v>
+        <v>1.030819572017871</v>
       </c>
       <c r="K11">
-        <v>1.034715845572038</v>
+        <v>1.051928511567989</v>
       </c>
       <c r="L11">
-        <v>1.001185929228169</v>
+        <v>1.035607806520719</v>
       </c>
       <c r="M11">
-        <v>1.022145070530458</v>
+        <v>1.051076476018223</v>
       </c>
       <c r="N11">
-        <v>0.9992471306641961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013677954178048</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.049477472598082</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.047856561129316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9567605548661531</v>
+        <v>1.000774181003608</v>
       </c>
       <c r="D12">
-        <v>1.01921335463734</v>
+        <v>1.03746250102959</v>
       </c>
       <c r="E12">
-        <v>0.9844779561076561</v>
+        <v>1.020668647792322</v>
       </c>
       <c r="F12">
-        <v>1.005990773002392</v>
+        <v>1.036678982232895</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044659387260333</v>
+        <v>1.051301778337913</v>
       </c>
       <c r="J12">
-        <v>0.9885147188214698</v>
+        <v>1.030545812200628</v>
       </c>
       <c r="K12">
-        <v>1.033981487736053</v>
+        <v>1.05190553027152</v>
       </c>
       <c r="L12">
-        <v>0.9999087008378262</v>
+        <v>1.035410300257747</v>
       </c>
       <c r="M12">
-        <v>1.021004092272952</v>
+        <v>1.051135665137437</v>
       </c>
       <c r="N12">
-        <v>0.998757369001869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013638584066036</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.049846974919671</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.047840313124039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9571772514748276</v>
+        <v>1.001353814790532</v>
       </c>
       <c r="D13">
-        <v>1.019417970874195</v>
+        <v>1.037886286788152</v>
       </c>
       <c r="E13">
-        <v>0.9848044188425839</v>
+        <v>1.021212154799759</v>
       </c>
       <c r="F13">
-        <v>1.006285540312812</v>
+        <v>1.037310491359836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044731335371742</v>
+        <v>1.051558736158816</v>
       </c>
       <c r="J13">
-        <v>0.9888116879711352</v>
+        <v>1.031008577166694</v>
       </c>
       <c r="K13">
-        <v>1.034139556862671</v>
+        <v>1.052280220031048</v>
       </c>
       <c r="L13">
-        <v>1.000183615222288</v>
+        <v>1.03590123376764</v>
       </c>
       <c r="M13">
-        <v>1.021249669143891</v>
+        <v>1.051714411939495</v>
       </c>
       <c r="N13">
-        <v>0.9988628015189314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013849741818888</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.050578458810791</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.048102772789276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9585368958981212</v>
+        <v>1.002355502055869</v>
       </c>
       <c r="D14">
-        <v>1.020086093787102</v>
+        <v>1.038477607053093</v>
       </c>
       <c r="E14">
-        <v>0.9858700522953087</v>
+        <v>1.022021979881369</v>
       </c>
       <c r="F14">
-        <v>1.007247824054959</v>
+        <v>1.038101999261366</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044965867949276</v>
+        <v>1.051867894839526</v>
       </c>
       <c r="J14">
-        <v>0.9897807296149378</v>
+        <v>1.031666131161218</v>
       </c>
       <c r="K14">
-        <v>1.034655388738844</v>
+        <v>1.052724694831149</v>
       </c>
       <c r="L14">
-        <v>1.0010807766004</v>
+        <v>1.036556650420812</v>
       </c>
       <c r="M14">
-        <v>1.022051130574055</v>
+        <v>1.052355519857366</v>
       </c>
       <c r="N14">
-        <v>0.9992068158481293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014111155362351</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.05125703544856</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.048418420969843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9593703104606357</v>
+        <v>1.002889585976702</v>
       </c>
       <c r="D15">
-        <v>1.020495988408682</v>
+        <v>1.038770801009621</v>
       </c>
       <c r="E15">
-        <v>0.9865235607570956</v>
+        <v>1.022432233353438</v>
       </c>
       <c r="F15">
-        <v>1.007838034118314</v>
+        <v>1.038473936566004</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045109451293918</v>
+        <v>1.052009870595741</v>
       </c>
       <c r="J15">
-        <v>0.9903747597273901</v>
+        <v>1.031992282407299</v>
       </c>
       <c r="K15">
-        <v>1.03497162144108</v>
+        <v>1.052928732227889</v>
       </c>
       <c r="L15">
-        <v>1.001630808725313</v>
+        <v>1.036873507655801</v>
       </c>
       <c r="M15">
-        <v>1.022542520206232</v>
+        <v>1.052636913318912</v>
       </c>
       <c r="N15">
-        <v>0.9994176811216354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014231798033417</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.051516683380767</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.048568446387132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9641573789163462</v>
+        <v>1.005665374782779</v>
       </c>
       <c r="D16">
-        <v>1.022855541541391</v>
+        <v>1.04017553179979</v>
       </c>
       <c r="E16">
-        <v>0.9902818171007437</v>
+        <v>1.024475067217165</v>
       </c>
       <c r="F16">
-        <v>1.0112334107513</v>
+        <v>1.040197041753658</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045931394086423</v>
+        <v>1.052638011629979</v>
       </c>
       <c r="J16">
-        <v>0.993787351136457</v>
+        <v>1.033579933294951</v>
       </c>
       <c r="K16">
-        <v>1.036788536900731</v>
+        <v>1.05382074857989</v>
       </c>
       <c r="L16">
-        <v>1.004791580517064</v>
+        <v>1.038380621406679</v>
       </c>
       <c r="M16">
-        <v>1.025366671043018</v>
+        <v>1.053841908791223</v>
       </c>
       <c r="N16">
-        <v>1.000628765024092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014772183193148</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.052430724353215</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.049202226383136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9671061017664109</v>
+        <v>1.007270547886739</v>
       </c>
       <c r="D17">
-        <v>1.024313200861534</v>
+        <v>1.040944269320949</v>
       </c>
       <c r="E17">
-        <v>0.9926006319112464</v>
+        <v>1.025618662263924</v>
       </c>
       <c r="F17">
-        <v>1.013329235977465</v>
+        <v>1.041101153606693</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046435128787452</v>
+        <v>1.052955491203165</v>
       </c>
       <c r="J17">
-        <v>0.9958897897065793</v>
+        <v>1.034452168554351</v>
       </c>
       <c r="K17">
-        <v>1.037907950692143</v>
+        <v>1.05427056220443</v>
       </c>
       <c r="L17">
-        <v>1.006739654746981</v>
+        <v>1.039191934545991</v>
       </c>
       <c r="M17">
-        <v>1.027107523188847</v>
+        <v>1.054424966368273</v>
       </c>
       <c r="N17">
-        <v>1.00137460883737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01504921293841</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.05276371632862</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.049522795783277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9688073407781767</v>
+        <v>1.008010983463247</v>
       </c>
       <c r="D18">
-        <v>1.02515559739288</v>
+        <v>1.041212826412705</v>
       </c>
       <c r="E18">
-        <v>0.9939397575810133</v>
+        <v>1.026075346243856</v>
       </c>
       <c r="F18">
-        <v>1.014539872507097</v>
+        <v>1.041349470271141</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046724786390373</v>
+        <v>1.053022915554351</v>
       </c>
       <c r="J18">
-        <v>0.9971028640871433</v>
+        <v>1.034774724689872</v>
       </c>
       <c r="K18">
-        <v>1.03855379432203</v>
+        <v>1.054356170433336</v>
       </c>
       <c r="L18">
-        <v>1.007863925121874</v>
+        <v>1.0394586689345</v>
       </c>
       <c r="M18">
-        <v>1.028112261368954</v>
+        <v>1.054490688648351</v>
       </c>
       <c r="N18">
-        <v>1.001804837994066</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015118144394638</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.052580416817864</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04957188889692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9693843187054569</v>
+        <v>1.007981085183929</v>
       </c>
       <c r="D19">
-        <v>1.025441527281033</v>
+        <v>1.041054760495199</v>
       </c>
       <c r="E19">
-        <v>0.9943941397107168</v>
+        <v>1.02592091769267</v>
       </c>
       <c r="F19">
-        <v>1.014950702173475</v>
+        <v>1.041016408139018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046822855927824</v>
+        <v>1.052878705743354</v>
       </c>
       <c r="J19">
-        <v>0.9975142921811635</v>
+        <v>1.034613045435913</v>
       </c>
       <c r="K19">
-        <v>1.03877282751062</v>
+        <v>1.054139612942495</v>
       </c>
       <c r="L19">
-        <v>1.008245277097491</v>
+        <v>1.03924450777724</v>
       </c>
       <c r="M19">
-        <v>1.028453075500124</v>
+        <v>1.054101854390972</v>
       </c>
       <c r="N19">
-        <v>1.001950735475717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015009773821876</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.051951258998956</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.049425065165785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9667916832323454</v>
+        <v>1.005787915381921</v>
       </c>
       <c r="D20">
-        <v>1.024157623336201</v>
+        <v>1.03967977941323</v>
       </c>
       <c r="E20">
-        <v>0.9923532424983942</v>
+        <v>1.02405890215512</v>
       </c>
       <c r="F20">
-        <v>1.013105606094227</v>
+        <v>1.039079156198362</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046381515701356</v>
+        <v>1.052137879578712</v>
       </c>
       <c r="J20">
-        <v>0.9956655990303825</v>
+        <v>1.03309753151064</v>
       </c>
       <c r="K20">
-        <v>1.037788586509207</v>
+        <v>1.053059034626103</v>
       </c>
       <c r="L20">
-        <v>1.006531896913847</v>
+        <v>1.037691497621903</v>
       </c>
       <c r="M20">
-        <v>1.026921858300513</v>
+        <v>1.052467971895012</v>
       </c>
       <c r="N20">
-        <v>1.001295088142475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014403367255342</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.050137525131654</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.048664933436658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9581374167254069</v>
+        <v>1.000568709550887</v>
       </c>
       <c r="D21">
-        <v>1.019889716013755</v>
+        <v>1.036973962460635</v>
       </c>
       <c r="E21">
-        <v>0.985556891265961</v>
+        <v>1.020157556219095</v>
       </c>
       <c r="F21">
-        <v>1.006965017444373</v>
+        <v>1.035713930343242</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044896996258152</v>
+        <v>1.050891308730455</v>
       </c>
       <c r="J21">
-        <v>0.9894960051395112</v>
+        <v>1.030042672480719</v>
       </c>
       <c r="K21">
-        <v>1.034503821363049</v>
+        <v>1.051287150212442</v>
       </c>
       <c r="L21">
-        <v>1.000817158308312</v>
+        <v>1.034766842841457</v>
       </c>
       <c r="M21">
-        <v>1.021815626073922</v>
+        <v>1.050048873311996</v>
       </c>
       <c r="N21">
-        <v>0.9991057410710085</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013331715446651</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.048182676304419</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.047415354346188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9525100921286717</v>
+        <v>0.9972422283464664</v>
       </c>
       <c r="D22">
-        <v>1.017130198144307</v>
+        <v>1.0352600223933</v>
       </c>
       <c r="E22">
-        <v>0.9811513434193211</v>
+        <v>1.017689201998641</v>
       </c>
       <c r="F22">
-        <v>1.002988071352897</v>
+        <v>1.033603002035818</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043923729877138</v>
+        <v>1.050096386129939</v>
       </c>
       <c r="J22">
-        <v>0.9854860426752646</v>
+        <v>1.02810394170704</v>
       </c>
       <c r="K22">
-        <v>1.03236977303982</v>
+        <v>1.050163903881058</v>
       </c>
       <c r="L22">
-        <v>0.9971056772674237</v>
+        <v>1.032918192740593</v>
       </c>
       <c r="M22">
-        <v>1.018500565466939</v>
+        <v>1.048536928897505</v>
       </c>
       <c r="N22">
-        <v>0.997681930836296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012653462594738</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.046986085283558</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.04660791232992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9555117895921335</v>
+        <v>0.9990044133470137</v>
       </c>
       <c r="D23">
-        <v>1.018600572251204</v>
+        <v>1.036156182822428</v>
       </c>
       <c r="E23">
-        <v>0.9834999638070391</v>
+        <v>1.018993676921313</v>
       </c>
       <c r="F23">
-        <v>1.00510782799906</v>
+        <v>1.034716332536791</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044443581401772</v>
+        <v>1.050512629301926</v>
       </c>
       <c r="J23">
-        <v>0.9876248074167635</v>
+        <v>1.029128059955704</v>
       </c>
       <c r="K23">
-        <v>1.033507845462993</v>
+        <v>1.050746827496233</v>
       </c>
       <c r="L23">
-        <v>0.9990849550868376</v>
+        <v>1.033893704590024</v>
       </c>
       <c r="M23">
-        <v>1.020268289670289</v>
+        <v>1.049332421338299</v>
       </c>
       <c r="N23">
-        <v>0.9984414061430087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013010142449585</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.047615658346942</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.047010576297562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9669338130408844</v>
+        <v>1.005810682708989</v>
       </c>
       <c r="D24">
-        <v>1.024227946266617</v>
+        <v>1.039654622093219</v>
       </c>
       <c r="E24">
-        <v>0.9924650684116288</v>
+        <v>1.024054198364699</v>
       </c>
       <c r="F24">
-        <v>1.013206691247763</v>
+        <v>1.039044588112672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046405753984863</v>
+        <v>1.052116259085158</v>
       </c>
       <c r="J24">
-        <v>0.9957669419478539</v>
+        <v>1.033086875464882</v>
       </c>
       <c r="K24">
-        <v>1.037842543908922</v>
+        <v>1.053019394005432</v>
       </c>
       <c r="L24">
-        <v>1.006625810737718</v>
+        <v>1.037671664906429</v>
       </c>
       <c r="M24">
-        <v>1.027005785160938</v>
+        <v>1.052419058640765</v>
       </c>
       <c r="N24">
-        <v>1.001331034940907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014391222598737</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.050058496990294</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.048609963751294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9794614905858704</v>
+        <v>1.013429780063809</v>
       </c>
       <c r="D25">
-        <v>1.030453167777988</v>
+        <v>1.043607041877193</v>
       </c>
       <c r="E25">
-        <v>1.002347428031059</v>
+        <v>1.029754181785829</v>
       </c>
       <c r="F25">
-        <v>1.022144909484356</v>
+        <v>1.043931233363271</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048520395530397</v>
+        <v>1.053883108519774</v>
       </c>
       <c r="J25">
-        <v>1.00470039362058</v>
+        <v>1.037513479830591</v>
       </c>
       <c r="K25">
-        <v>1.042596440247166</v>
+        <v>1.055564132408539</v>
       </c>
       <c r="L25">
-        <v>1.014909412172649</v>
+        <v>1.04190751639517</v>
       </c>
       <c r="M25">
-        <v>1.034408912362966</v>
+        <v>1.05588381000157</v>
       </c>
       <c r="N25">
-        <v>1.004497161414728</v>
+        <v>1.015934397970898</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.052800574626834</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.050406353597254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019278960497789</v>
+        <v>1.018307305183829</v>
       </c>
       <c r="D2">
-        <v>1.046635439806329</v>
+        <v>1.043316218803683</v>
       </c>
       <c r="E2">
-        <v>1.034149765400366</v>
+        <v>1.033050187964628</v>
       </c>
       <c r="F2">
-        <v>1.047701660830922</v>
+        <v>1.04594031322415</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055199578878623</v>
+        <v>1.053920458848448</v>
       </c>
       <c r="J2">
-        <v>1.04089794392109</v>
+        <v>1.03995390352227</v>
       </c>
       <c r="K2">
-        <v>1.057481164598201</v>
+        <v>1.054203354948496</v>
       </c>
       <c r="L2">
-        <v>1.04515298960666</v>
+        <v>1.044067510704763</v>
       </c>
       <c r="M2">
-        <v>1.058534152549335</v>
+        <v>1.056794683464831</v>
       </c>
       <c r="N2">
-        <v>1.017109090346533</v>
+        <v>1.017479492789165</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054898105133013</v>
+        <v>1.053521457524513</v>
       </c>
       <c r="Q2">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R2">
-        <v>1.051714294948223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049405303629602</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026330241865614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023427844492008</v>
+        <v>1.022325174241042</v>
       </c>
       <c r="D3">
-        <v>1.048815480327029</v>
+        <v>1.045311356099446</v>
       </c>
       <c r="E3">
-        <v>1.037285141117695</v>
+        <v>1.036065923544836</v>
       </c>
       <c r="F3">
-        <v>1.050399050104943</v>
+        <v>1.048513446932244</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056127743771446</v>
+        <v>1.0547556526546</v>
       </c>
       <c r="J3">
-        <v>1.043299597093068</v>
+        <v>1.042225196754998</v>
       </c>
       <c r="K3">
-        <v>1.058859652526857</v>
+        <v>1.055395525318328</v>
       </c>
       <c r="L3">
-        <v>1.047462183041826</v>
+        <v>1.046257228994242</v>
       </c>
       <c r="M3">
-        <v>1.060425254938463</v>
+        <v>1.058561053638033</v>
       </c>
       <c r="N3">
-        <v>1.017944364689121</v>
+        <v>1.01810626069649</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056394755277298</v>
+        <v>1.054919395126382</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052686352272763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050245349729714</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02655507652717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026064174995367</v>
+        <v>1.02487919650191</v>
       </c>
       <c r="D4">
-        <v>1.050207427456102</v>
+        <v>1.046586109472522</v>
       </c>
       <c r="E4">
-        <v>1.039283755686924</v>
+        <v>1.037989203928766</v>
       </c>
       <c r="F4">
-        <v>1.052120560894629</v>
+        <v>1.050156426885308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.0567108233558</v>
+        <v>1.055279834574965</v>
       </c>
       <c r="J4">
-        <v>1.044823865019769</v>
+        <v>1.0436672122208</v>
       </c>
       <c r="K4">
-        <v>1.059735425302243</v>
+        <v>1.05615300398701</v>
       </c>
       <c r="L4">
-        <v>1.048930097311749</v>
+        <v>1.047649773142095</v>
       </c>
       <c r="M4">
-        <v>1.061628142067112</v>
+        <v>1.059684970248674</v>
       </c>
       <c r="N4">
-        <v>1.018474187073422</v>
+        <v>1.018504030435953</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.057346738795351</v>
+        <v>1.055808881909696</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053306456463927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050781898971815</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026695695989714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027163734528013</v>
+        <v>1.025944465435328</v>
       </c>
       <c r="D5">
-        <v>1.050793303042623</v>
+        <v>1.047123040256736</v>
       </c>
       <c r="E5">
-        <v>1.04011949602188</v>
+        <v>1.038793520324275</v>
       </c>
       <c r="F5">
-        <v>1.05284168487311</v>
+        <v>1.050844758037424</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056954236163321</v>
+        <v>1.055498609810487</v>
       </c>
       <c r="J5">
-        <v>1.045460110297406</v>
+        <v>1.044269116552182</v>
       </c>
       <c r="K5">
-        <v>1.060104819847415</v>
+        <v>1.05647295215539</v>
       </c>
       <c r="L5">
-        <v>1.049543593360757</v>
+        <v>1.048231801080325</v>
       </c>
       <c r="M5">
-        <v>1.062131915369589</v>
+        <v>1.060155738893042</v>
       </c>
       <c r="N5">
-        <v>1.018695696264815</v>
+        <v>1.018670344684508</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.057745432443539</v>
+        <v>1.056181455938865</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053574681875981</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051015881008414</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026755217446497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027350675261067</v>
+        <v>1.026125374678774</v>
       </c>
       <c r="D6">
-        <v>1.050897583877704</v>
+        <v>1.047218838100012</v>
       </c>
       <c r="E6">
-        <v>1.040262505845196</v>
+        <v>1.038930998821667</v>
       </c>
       <c r="F6">
-        <v>1.052966045228077</v>
+        <v>1.050963382351725</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056997792347127</v>
+        <v>1.055537839981322</v>
       </c>
       <c r="J6">
-        <v>1.04556943491675</v>
+        <v>1.044372403632167</v>
       </c>
       <c r="K6">
-        <v>1.060172721780337</v>
+        <v>1.05653228711362</v>
       </c>
       <c r="L6">
-        <v>1.04964930559421</v>
+        <v>1.048331975699442</v>
       </c>
       <c r="M6">
-        <v>1.062219785259618</v>
+        <v>1.060237837997547</v>
       </c>
       <c r="N6">
-        <v>1.018734282500452</v>
+        <v>1.018699277325071</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.057814973953881</v>
+        <v>1.056246430498548</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.053631280092491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051067297988343</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026767033593649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026086912647414</v>
+        <v>1.024912234176334</v>
       </c>
       <c r="D7">
-        <v>1.050231805970104</v>
+        <v>1.046613313252988</v>
       </c>
       <c r="E7">
-        <v>1.039303284007953</v>
+        <v>1.038016949569942</v>
       </c>
       <c r="F7">
-        <v>1.0521398947726</v>
+        <v>1.050181071252049</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056721957069631</v>
+        <v>1.05529453942103</v>
       </c>
       <c r="J7">
-        <v>1.0448402044403</v>
+        <v>1.043693593198269</v>
       </c>
       <c r="K7">
-        <v>1.059756732186389</v>
+        <v>1.056177090552259</v>
       </c>
       <c r="L7">
-        <v>1.048946561128306</v>
+        <v>1.047674358474198</v>
       </c>
       <c r="M7">
-        <v>1.061644465939323</v>
+        <v>1.059706539930918</v>
       </c>
       <c r="N7">
-        <v>1.018481318859696</v>
+        <v>1.018538681431582</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057359657752689</v>
+        <v>1.055825952514105</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053341273104592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050820695934962</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026702965201965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020701428411812</v>
+        <v>1.019719672090933</v>
       </c>
       <c r="D8">
-        <v>1.047396614629335</v>
+        <v>1.044026773223258</v>
       </c>
       <c r="E8">
-        <v>1.035226262706542</v>
+        <v>1.034113957286606</v>
       </c>
       <c r="F8">
-        <v>1.048630339065549</v>
+        <v>1.046845754033605</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055526739264872</v>
+        <v>1.054229105392671</v>
       </c>
       <c r="J8">
-        <v>1.041725706378626</v>
+        <v>1.040770912793826</v>
       </c>
       <c r="K8">
-        <v>1.05797067535687</v>
+        <v>1.054641654993021</v>
       </c>
       <c r="L8">
-        <v>1.045949311317567</v>
+        <v>1.044850840472129</v>
       </c>
       <c r="M8">
-        <v>1.059189536330685</v>
+        <v>1.057426465375769</v>
       </c>
       <c r="N8">
-        <v>1.017398930112634</v>
+        <v>1.017786480450068</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.055416787181497</v>
+        <v>1.054021461559059</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.052082910668899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049739996350439</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026417946832245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010811408136068</v>
+        <v>1.010154195543395</v>
       </c>
       <c r="D9">
-        <v>1.042226067655813</v>
+        <v>1.039301799835812</v>
       </c>
       <c r="E9">
-        <v>1.027787454477909</v>
+        <v>1.026969950997328</v>
       </c>
       <c r="F9">
-        <v>1.042240283918595</v>
+        <v>1.04075852249389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053270461917993</v>
+        <v>1.052198376097497</v>
       </c>
       <c r="J9">
-        <v>1.035988080356611</v>
+        <v>1.035353409009096</v>
       </c>
       <c r="K9">
-        <v>1.054669289348986</v>
+        <v>1.051787864299104</v>
       </c>
       <c r="L9">
-        <v>1.040445231407494</v>
+        <v>1.039640105807404</v>
       </c>
       <c r="M9">
-        <v>1.054683298077631</v>
+        <v>1.053223206654474</v>
       </c>
       <c r="N9">
-        <v>1.015400272635813</v>
+        <v>1.016299560260989</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051850465188948</v>
+        <v>1.05069491766057</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04974557409745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.047718835402546</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025865090332442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003999170757293</v>
+        <v>1.003620028343261</v>
       </c>
       <c r="D10">
-        <v>1.038734565693133</v>
+        <v>1.036134597355007</v>
       </c>
       <c r="E10">
-        <v>1.022725365420824</v>
+        <v>1.022154232112229</v>
       </c>
       <c r="F10">
-        <v>1.03793958711462</v>
+        <v>1.036695689421662</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051709381148677</v>
+        <v>1.050811494023748</v>
       </c>
       <c r="J10">
-        <v>1.032055013013425</v>
+        <v>1.031690752259853</v>
       </c>
       <c r="K10">
-        <v>1.052437985121215</v>
+        <v>1.049880704192593</v>
       </c>
       <c r="L10">
-        <v>1.036696081086799</v>
+        <v>1.036134683439961</v>
       </c>
       <c r="M10">
-        <v>1.051656029661466</v>
+        <v>1.050432560702347</v>
       </c>
       <c r="N10">
-        <v>1.014037391810211</v>
+        <v>1.015413197436671</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.049505377555606</v>
+        <v>1.048537154024983</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.048184481592173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04638860754325</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025493908070483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001509453533258</v>
+        <v>1.001283449697792</v>
       </c>
       <c r="D11">
-        <v>1.037683908010898</v>
+        <v>1.03519529393657</v>
       </c>
       <c r="E11">
-        <v>1.0210726405204</v>
+        <v>1.020628028653872</v>
       </c>
       <c r="F11">
-        <v>1.036817006352964</v>
+        <v>1.035680130083535</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051329282144521</v>
+        <v>1.0505032072224</v>
       </c>
       <c r="J11">
-        <v>1.030819572017871</v>
+        <v>1.030602932963053</v>
       </c>
       <c r="K11">
-        <v>1.051928511567989</v>
+        <v>1.049482660076529</v>
       </c>
       <c r="L11">
-        <v>1.035607806520719</v>
+        <v>1.035171140531119</v>
       </c>
       <c r="M11">
-        <v>1.051076476018223</v>
+        <v>1.049959144301238</v>
       </c>
       <c r="N11">
-        <v>1.013677954178048</v>
+        <v>1.01539732834192</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049477472598082</v>
+        <v>1.048593677306877</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.047856561129316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.046142702027326</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025470907301812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000774181003608</v>
+        <v>1.00059216815991</v>
       </c>
       <c r="D12">
-        <v>1.03746250102959</v>
+        <v>1.034992940327105</v>
       </c>
       <c r="E12">
-        <v>1.020668647792322</v>
+        <v>1.020257455925197</v>
       </c>
       <c r="F12">
-        <v>1.036678982232895</v>
+        <v>1.035568534641632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051301778337913</v>
+        <v>1.050490304476471</v>
       </c>
       <c r="J12">
-        <v>1.030545812200628</v>
+        <v>1.030371487492977</v>
       </c>
       <c r="K12">
-        <v>1.05190553027152</v>
+        <v>1.049479095161492</v>
       </c>
       <c r="L12">
-        <v>1.035410300257747</v>
+        <v>1.035006580508932</v>
       </c>
       <c r="M12">
-        <v>1.051135665137437</v>
+        <v>1.05004461414024</v>
       </c>
       <c r="N12">
-        <v>1.013638584066036</v>
+        <v>1.015476770241863</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049846974919671</v>
+        <v>1.048984253059412</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.047840313124039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.046140181637746</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025508761420856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001353814790532</v>
+        <v>1.001115470078509</v>
       </c>
       <c r="D13">
-        <v>1.037886286788152</v>
+        <v>1.03535791189256</v>
       </c>
       <c r="E13">
-        <v>1.021212154799759</v>
+        <v>1.020749204982565</v>
       </c>
       <c r="F13">
-        <v>1.037310491359836</v>
+        <v>1.036154865606078</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051558736158816</v>
+        <v>1.050711154084412</v>
       </c>
       <c r="J13">
-        <v>1.031008577166694</v>
+        <v>1.030780247475706</v>
       </c>
       <c r="K13">
-        <v>1.052280220031048</v>
+        <v>1.049795807622337</v>
       </c>
       <c r="L13">
-        <v>1.03590123376764</v>
+        <v>1.035446657448841</v>
       </c>
       <c r="M13">
-        <v>1.051714411939495</v>
+        <v>1.050578874209208</v>
       </c>
       <c r="N13">
-        <v>1.013849741818888</v>
+        <v>1.015600752511674</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.050578458810791</v>
+        <v>1.049680781585664</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.048102772789276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046361403155354</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025602588093737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002355502055869</v>
+        <v>1.002032982158249</v>
       </c>
       <c r="D14">
-        <v>1.038477607053093</v>
+        <v>1.035873546758315</v>
       </c>
       <c r="E14">
-        <v>1.022021979881369</v>
+        <v>1.021485058026741</v>
       </c>
       <c r="F14">
-        <v>1.038101999261366</v>
+        <v>1.036883026515889</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051867894839526</v>
+        <v>1.050972739460586</v>
       </c>
       <c r="J14">
-        <v>1.031666131161218</v>
+        <v>1.031356964139844</v>
       </c>
       <c r="K14">
-        <v>1.052724694831149</v>
+        <v>1.050165356839166</v>
       </c>
       <c r="L14">
-        <v>1.036556650420812</v>
+        <v>1.036029314637946</v>
       </c>
       <c r="M14">
-        <v>1.052355519857366</v>
+        <v>1.051157465258455</v>
       </c>
       <c r="N14">
-        <v>1.014111155362351</v>
+        <v>1.015709366789934</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.05125703544856</v>
+        <v>1.050310062718822</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.048418420969843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.046624213495476</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02569452628043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002889585976702</v>
+        <v>1.002525484557604</v>
       </c>
       <c r="D15">
-        <v>1.038770801009621</v>
+        <v>1.036131395500348</v>
       </c>
       <c r="E15">
-        <v>1.022432233353438</v>
+        <v>1.021859418923466</v>
       </c>
       <c r="F15">
-        <v>1.038473936566004</v>
+        <v>1.037224337809745</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052009870595741</v>
+        <v>1.051092381007939</v>
       </c>
       <c r="J15">
-        <v>1.031992282407299</v>
+        <v>1.031643121096871</v>
       </c>
       <c r="K15">
-        <v>1.052928732227889</v>
+        <v>1.050334317326954</v>
       </c>
       <c r="L15">
-        <v>1.036873507655801</v>
+        <v>1.036310840241696</v>
       </c>
       <c r="M15">
-        <v>1.052636913318912</v>
+        <v>1.05140859375437</v>
       </c>
       <c r="N15">
-        <v>1.014231798033417</v>
+        <v>1.01575056693148</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051516683380767</v>
+        <v>1.050545813709887</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.048568446387132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.046750012221726</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025732111310378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005665374782779</v>
+        <v>1.005113985964951</v>
       </c>
       <c r="D16">
-        <v>1.04017553179979</v>
+        <v>1.037379594392503</v>
       </c>
       <c r="E16">
-        <v>1.024475067217165</v>
+        <v>1.023742829435168</v>
       </c>
       <c r="F16">
-        <v>1.040197041753658</v>
+        <v>1.038810108732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052638011629979</v>
+        <v>1.051623156086251</v>
       </c>
       <c r="J16">
-        <v>1.033579933294951</v>
+        <v>1.033050022010661</v>
       </c>
       <c r="K16">
-        <v>1.05382074857989</v>
+        <v>1.051070430625844</v>
       </c>
       <c r="L16">
-        <v>1.038380621406679</v>
+        <v>1.037660776750385</v>
       </c>
       <c r="M16">
-        <v>1.053841908791223</v>
+        <v>1.052477564789329</v>
       </c>
       <c r="N16">
-        <v>1.014772183193148</v>
+        <v>1.015919080722939</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.052430724353215</v>
+        <v>1.051352309865308</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.049202226383136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04727387085311</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025870628998717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007270547886739</v>
+        <v>1.006633479679894</v>
       </c>
       <c r="D17">
-        <v>1.040944269320949</v>
+        <v>1.038072784733319</v>
       </c>
       <c r="E17">
-        <v>1.025618662263924</v>
+        <v>1.024813937147002</v>
       </c>
       <c r="F17">
-        <v>1.041101153606693</v>
+        <v>1.039649661254419</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052955491203165</v>
+        <v>1.051895806713663</v>
       </c>
       <c r="J17">
-        <v>1.034452168554351</v>
+        <v>1.033839108272193</v>
       </c>
       <c r="K17">
-        <v>1.05427056220443</v>
+        <v>1.05144464148234</v>
       </c>
       <c r="L17">
-        <v>1.039191934545991</v>
+        <v>1.038400440505704</v>
       </c>
       <c r="M17">
-        <v>1.054424966368273</v>
+        <v>1.052996456685532</v>
       </c>
       <c r="N17">
-        <v>1.01504921293841</v>
+        <v>1.016022067694321</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05276371632862</v>
+        <v>1.051634472652014</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.049522795783277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.047541239120841</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025928976472704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008010983463247</v>
+        <v>1.007351612775036</v>
       </c>
       <c r="D18">
-        <v>1.041212826412705</v>
+        <v>1.038323805534048</v>
       </c>
       <c r="E18">
-        <v>1.026075346243856</v>
+        <v>1.025253288441442</v>
       </c>
       <c r="F18">
-        <v>1.041349470271141</v>
+        <v>1.039881400710645</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053022915554351</v>
+        <v>1.051953823918741</v>
       </c>
       <c r="J18">
-        <v>1.034774724689872</v>
+        <v>1.034139733393071</v>
       </c>
       <c r="K18">
-        <v>1.054356170433336</v>
+        <v>1.051512258911908</v>
       </c>
       <c r="L18">
-        <v>1.0394586689345</v>
+        <v>1.038649903878238</v>
       </c>
       <c r="M18">
-        <v>1.054490688648351</v>
+        <v>1.053045493885765</v>
       </c>
       <c r="N18">
-        <v>1.015118144394638</v>
+        <v>1.016032448973487</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.052580416817864</v>
+        <v>1.051437749737048</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04957188889692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.047576470543633</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02591434145774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007981085183929</v>
+        <v>1.007345349763598</v>
       </c>
       <c r="D19">
-        <v>1.041054760495199</v>
+        <v>1.038195218810656</v>
       </c>
       <c r="E19">
-        <v>1.02592091769267</v>
+        <v>1.025122039676853</v>
       </c>
       <c r="F19">
-        <v>1.041016408139018</v>
+        <v>1.03956842178729</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052878705743354</v>
+        <v>1.051827415740632</v>
       </c>
       <c r="J19">
-        <v>1.034613045435913</v>
+        <v>1.034000679530469</v>
       </c>
       <c r="K19">
-        <v>1.054139612942495</v>
+        <v>1.051324498971968</v>
       </c>
       <c r="L19">
-        <v>1.03924450777724</v>
+        <v>1.03845848343637</v>
       </c>
       <c r="M19">
-        <v>1.054101854390972</v>
+        <v>1.052676327987463</v>
       </c>
       <c r="N19">
-        <v>1.015009773821876</v>
+        <v>1.015945255801923</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051951258998956</v>
+        <v>1.050823782820379</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.049425065165785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.047450636595652</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025841493515439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005787915381921</v>
+        <v>1.005300557638504</v>
       </c>
       <c r="D20">
-        <v>1.03967977941323</v>
+        <v>1.036979975957487</v>
       </c>
       <c r="E20">
-        <v>1.02405890215512</v>
+        <v>1.023393927514129</v>
       </c>
       <c r="F20">
-        <v>1.039079156198362</v>
+        <v>1.037752157855339</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052137879578712</v>
+        <v>1.051179690133649</v>
       </c>
       <c r="J20">
-        <v>1.03309753151064</v>
+        <v>1.032628669790495</v>
       </c>
       <c r="K20">
-        <v>1.053059034626103</v>
+        <v>1.050402317125722</v>
       </c>
       <c r="L20">
-        <v>1.037691497621903</v>
+        <v>1.037037528487851</v>
       </c>
       <c r="M20">
-        <v>1.052467971895012</v>
+        <v>1.051162146487281</v>
       </c>
       <c r="N20">
-        <v>1.014403367255342</v>
+        <v>1.015573403807192</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.050137525131654</v>
+        <v>1.04910411463863</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.048664933436658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.046802884833236</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025600153122949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000568709550887</v>
+        <v>1.000463664498324</v>
       </c>
       <c r="D21">
-        <v>1.036973962460635</v>
+        <v>1.034594852985757</v>
       </c>
       <c r="E21">
-        <v>1.020157556219095</v>
+        <v>1.019821946964156</v>
       </c>
       <c r="F21">
-        <v>1.035713930343242</v>
+        <v>1.034668807338159</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050891308730455</v>
+        <v>1.050136677408591</v>
       </c>
       <c r="J21">
-        <v>1.030042672480719</v>
+        <v>1.029942012873133</v>
       </c>
       <c r="K21">
-        <v>1.051287150212442</v>
+        <v>1.048949174998778</v>
       </c>
       <c r="L21">
-        <v>1.034766842841457</v>
+        <v>1.034437272071365</v>
       </c>
       <c r="M21">
-        <v>1.050048873311996</v>
+        <v>1.049021847010894</v>
       </c>
       <c r="N21">
-        <v>1.013331715446651</v>
+        <v>1.015255591997044</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048182676304419</v>
+        <v>1.047369861944731</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.047415354346188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.045778986672739</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02531157881866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9972422283464664</v>
+        <v>0.9973799967116783</v>
       </c>
       <c r="D22">
-        <v>1.0352600223933</v>
+        <v>1.033085447662884</v>
       </c>
       <c r="E22">
-        <v>1.017689201998641</v>
+        <v>1.017563428279593</v>
       </c>
       <c r="F22">
-        <v>1.033603002035818</v>
+        <v>1.032738090532674</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050096386129939</v>
+        <v>1.049471793369643</v>
       </c>
       <c r="J22">
-        <v>1.02810394170704</v>
+        <v>1.028235616530023</v>
       </c>
       <c r="K22">
-        <v>1.050163903881058</v>
+        <v>1.048028784611746</v>
       </c>
       <c r="L22">
-        <v>1.032918192740593</v>
+        <v>1.032794799090163</v>
       </c>
       <c r="M22">
-        <v>1.048536928897505</v>
+        <v>1.04768774995403</v>
       </c>
       <c r="N22">
-        <v>1.012653462594738</v>
+        <v>1.015049365107261</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046986085283558</v>
+        <v>1.046314022756131</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.04660791232992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.045113656870456</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025127879835204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9990044133470137</v>
+        <v>0.9989946668692057</v>
       </c>
       <c r="D23">
-        <v>1.036156182822428</v>
+        <v>1.033865747928884</v>
       </c>
       <c r="E23">
-        <v>1.018993676921313</v>
+        <v>1.018741046671834</v>
       </c>
       <c r="F23">
-        <v>1.034716332536791</v>
+        <v>1.033744901476252</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050512629301926</v>
+        <v>1.049811511079815</v>
       </c>
       <c r="J23">
-        <v>1.029128059955704</v>
+        <v>1.029118731670662</v>
       </c>
       <c r="K23">
-        <v>1.050746827496233</v>
+        <v>1.048496910931161</v>
       </c>
       <c r="L23">
-        <v>1.033893704590024</v>
+        <v>1.033645729880337</v>
       </c>
       <c r="M23">
-        <v>1.049332421338299</v>
+        <v>1.048378208750611</v>
       </c>
       <c r="N23">
-        <v>1.013010142449585</v>
+        <v>1.015110599696794</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047615658346942</v>
+        <v>1.046860470035601</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.047010576297562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.045434210188571</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025218514642736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005810682708989</v>
+        <v>1.005325522107195</v>
       </c>
       <c r="D24">
-        <v>1.039654622093219</v>
+        <v>1.036957925943444</v>
       </c>
       <c r="E24">
-        <v>1.024054198364699</v>
+        <v>1.023391616225423</v>
       </c>
       <c r="F24">
-        <v>1.039044588112672</v>
+        <v>1.037719713385606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052116259085158</v>
+        <v>1.051160139846218</v>
       </c>
       <c r="J24">
-        <v>1.033086875464882</v>
+        <v>1.032620100449954</v>
       </c>
       <c r="K24">
-        <v>1.053019394005432</v>
+        <v>1.050365681846241</v>
       </c>
       <c r="L24">
-        <v>1.037671664906429</v>
+        <v>1.037020034731895</v>
       </c>
       <c r="M24">
-        <v>1.052419058640765</v>
+        <v>1.051115297755971</v>
       </c>
       <c r="N24">
-        <v>1.014391222598737</v>
+        <v>1.015560936519657</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.050058496990294</v>
+        <v>1.049026670398698</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.048609963751294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.046747349886493</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02558512602818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013429780063809</v>
+        <v>1.012670252889604</v>
       </c>
       <c r="D25">
-        <v>1.043607041877193</v>
+        <v>1.040558157849984</v>
       </c>
       <c r="E25">
-        <v>1.029754181785829</v>
+        <v>1.028845199081657</v>
       </c>
       <c r="F25">
-        <v>1.043931233363271</v>
+        <v>1.042359873516777</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053883108519774</v>
+        <v>1.052744758303863</v>
       </c>
       <c r="J25">
-        <v>1.037513479830591</v>
+        <v>1.036778608861259</v>
       </c>
       <c r="K25">
-        <v>1.055564132408539</v>
+        <v>1.052557873429706</v>
       </c>
       <c r="L25">
-        <v>1.04190751639517</v>
+        <v>1.041011644718166</v>
       </c>
       <c r="M25">
-        <v>1.05588381000157</v>
+        <v>1.05433436209126</v>
       </c>
       <c r="N25">
-        <v>1.015934397970898</v>
+        <v>1.016661624117337</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052800574626834</v>
+        <v>1.051574309960754</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.050406353597254</v>
+        <v>1.048294178840217</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.026018870836523</v>
       </c>
     </row>
   </sheetData>
